--- a/Outputs/1. Budget/Grid Search/Output Files/750000/Output_0_22.xlsx
+++ b/Outputs/1. Budget/Grid Search/Output Files/750000/Output_0_22.xlsx
@@ -501,7 +501,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>1451767.144795944</v>
+        <v>1480716.895031769</v>
       </c>
     </row>
     <row r="7">
@@ -511,7 +511,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>189902.9539564203</v>
+        <v>120210.4770410173</v>
       </c>
     </row>
     <row r="8">
@@ -662,13 +662,13 @@
         <v>0</v>
       </c>
       <c r="D2" t="n">
-        <v>289.6217197493569</v>
+        <v>0</v>
       </c>
       <c r="E2" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F2" t="n">
-        <v>0</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G2" t="n">
         <v>0</v>
@@ -677,7 +677,7 @@
         <v>0</v>
       </c>
       <c r="I2" t="n">
-        <v>151.9313162448613</v>
+        <v>0</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -704,25 +704,25 @@
         <v>0</v>
       </c>
       <c r="R2" t="n">
-        <v>54.47840257481171</v>
+        <v>0</v>
       </c>
       <c r="S2" t="n">
-        <v>174.4157128089715</v>
+        <v>0</v>
       </c>
       <c r="T2" t="n">
         <v>216.4483203576578</v>
       </c>
       <c r="U2" t="n">
-        <v>251.2241675082893</v>
+        <v>177.753573820959</v>
       </c>
       <c r="V2" t="n">
         <v>327.7522584701349</v>
       </c>
       <c r="W2" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X2" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y2" t="n">
         <v>386.2379386560536</v>
@@ -817,7 +817,7 @@
         <v>0</v>
       </c>
       <c r="C4" t="n">
-        <v>49.84727926079643</v>
+        <v>0</v>
       </c>
       <c r="D4" t="n">
         <v>0</v>
@@ -832,13 +832,13 @@
         <v>0</v>
       </c>
       <c r="H4" t="n">
-        <v>156.1708888417951</v>
+        <v>0</v>
       </c>
       <c r="I4" t="n">
-        <v>134.9656217923382</v>
+        <v>9.27559683049698</v>
       </c>
       <c r="J4" t="n">
-        <v>45.199959188537</v>
+        <v>45.19995918853699</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -862,19 +862,19 @@
         <v>29.1227499549143</v>
       </c>
       <c r="R4" t="n">
-        <v>0</v>
+        <v>146.6651919801578</v>
       </c>
       <c r="S4" t="n">
-        <v>0</v>
+        <v>212.1455389500189</v>
       </c>
       <c r="T4" t="n">
-        <v>0</v>
+        <v>225.0351054580843</v>
       </c>
       <c r="U4" t="n">
         <v>0</v>
       </c>
       <c r="V4" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W4" t="n">
         <v>0</v>
@@ -896,19 +896,19 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C5" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D5" t="n">
         <v>354.683041620683</v>
       </c>
       <c r="E5" t="n">
-        <v>229.3376974497235</v>
+        <v>0</v>
       </c>
       <c r="F5" t="n">
-        <v>406.8760457417114</v>
+        <v>0</v>
       </c>
       <c r="G5" t="n">
-        <v>413.784170020795</v>
+        <v>0</v>
       </c>
       <c r="H5" t="n">
         <v>0</v>
@@ -941,28 +941,28 @@
         <v>0</v>
       </c>
       <c r="R5" t="n">
-        <v>54.47840257481172</v>
+        <v>54.47840257481171</v>
       </c>
       <c r="S5" t="n">
         <v>174.4157128089715</v>
       </c>
       <c r="T5" t="n">
-        <v>0</v>
+        <v>216.4483203576578</v>
       </c>
       <c r="U5" t="n">
         <v>251.2241675082893</v>
       </c>
       <c r="V5" t="n">
-        <v>0</v>
+        <v>61.54863046645515</v>
       </c>
       <c r="W5" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X5" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y5" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="6">
@@ -993,7 +993,7 @@
         <v>104.3883541553076</v>
       </c>
       <c r="I6" t="n">
-        <v>61.42221998250819</v>
+        <v>61.42221998250818</v>
       </c>
       <c r="J6" t="n">
         <v>0</v>
@@ -1020,7 +1020,7 @@
         <v>0</v>
       </c>
       <c r="R6" t="n">
-        <v>49.71123688229332</v>
+        <v>49.71123688229331</v>
       </c>
       <c r="S6" t="n">
         <v>156.5912426325231</v>
@@ -1057,7 +1057,7 @@
         <v>0</v>
       </c>
       <c r="D7" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E7" t="n">
         <v>0</v>
@@ -1072,10 +1072,10 @@
         <v>156.1708888417951</v>
       </c>
       <c r="I7" t="n">
-        <v>0</v>
+        <v>134.9656217923382</v>
       </c>
       <c r="J7" t="n">
-        <v>0</v>
+        <v>45.199959188537</v>
       </c>
       <c r="K7" t="n">
         <v>0</v>
@@ -1096,16 +1096,16 @@
         <v>0</v>
       </c>
       <c r="Q7" t="n">
-        <v>0</v>
+        <v>29.1227499549143</v>
       </c>
       <c r="R7" t="n">
-        <v>0</v>
+        <v>146.6651919801579</v>
       </c>
       <c r="S7" t="n">
-        <v>0</v>
+        <v>6.704257586254073</v>
       </c>
       <c r="T7" t="n">
-        <v>225.0351054580843</v>
+        <v>0</v>
       </c>
       <c r="U7" t="n">
         <v>0</v>
@@ -1114,7 +1114,7 @@
         <v>0</v>
       </c>
       <c r="W7" t="n">
-        <v>286.2381480623296</v>
+        <v>0</v>
       </c>
       <c r="X7" t="n">
         <v>0</v>
@@ -1130,22 +1130,22 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C8" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D8" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E8" t="n">
         <v>381.9303700722618</v>
       </c>
       <c r="F8" t="n">
-        <v>376.184863643924</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G8" t="n">
-        <v>0</v>
+        <v>395.005365769835</v>
       </c>
       <c r="H8" t="n">
         <v>0</v>
@@ -1190,10 +1190,10 @@
         <v>0</v>
       </c>
       <c r="V8" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W8" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X8" t="n">
         <v>369.731100678469</v>
@@ -1230,7 +1230,7 @@
         <v>104.3883541553076</v>
       </c>
       <c r="I9" t="n">
-        <v>61.42221998250818</v>
+        <v>61.42221998250819</v>
       </c>
       <c r="J9" t="n">
         <v>0</v>
@@ -1257,7 +1257,7 @@
         <v>0</v>
       </c>
       <c r="R9" t="n">
-        <v>49.71123688229331</v>
+        <v>49.71123688229332</v>
       </c>
       <c r="S9" t="n">
         <v>156.5912426325231</v>
@@ -1288,28 +1288,28 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>125.8092116959086</v>
+        <v>0</v>
       </c>
       <c r="C10" t="n">
         <v>0</v>
       </c>
       <c r="D10" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E10" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F10" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G10" t="n">
         <v>167.3098022590509</v>
       </c>
       <c r="H10" t="n">
-        <v>0</v>
+        <v>156.1708888417951</v>
       </c>
       <c r="I10" t="n">
-        <v>0</v>
+        <v>52.10844059186254</v>
       </c>
       <c r="J10" t="n">
         <v>0</v>
@@ -1354,7 +1354,7 @@
         <v>0</v>
       </c>
       <c r="X10" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y10" t="n">
         <v>0</v>
@@ -1415,13 +1415,13 @@
         <v>0</v>
       </c>
       <c r="R11" t="n">
-        <v>0</v>
+        <v>54.47840257481172</v>
       </c>
       <c r="S11" t="n">
         <v>0</v>
       </c>
       <c r="T11" t="n">
-        <v>0</v>
+        <v>163.8950372953896</v>
       </c>
       <c r="U11" t="n">
         <v>0</v>
@@ -1433,7 +1433,7 @@
         <v>0</v>
       </c>
       <c r="X11" t="n">
-        <v>218.3734398702018</v>
+        <v>0</v>
       </c>
       <c r="Y11" t="n">
         <v>0</v>
@@ -1467,7 +1467,7 @@
         <v>104.3883541553076</v>
       </c>
       <c r="I12" t="n">
-        <v>61.42221998250818</v>
+        <v>61.42221998250819</v>
       </c>
       <c r="J12" t="n">
         <v>0</v>
@@ -1494,7 +1494,7 @@
         <v>0</v>
       </c>
       <c r="R12" t="n">
-        <v>49.71123688229331</v>
+        <v>49.71123688229332</v>
       </c>
       <c r="S12" t="n">
         <v>156.5912426325231</v>
@@ -1570,7 +1570,7 @@
         <v>0</v>
       </c>
       <c r="Q13" t="n">
-        <v>29.1227499549143</v>
+        <v>0</v>
       </c>
       <c r="R13" t="n">
         <v>0</v>
@@ -1582,7 +1582,7 @@
         <v>0</v>
       </c>
       <c r="U13" t="n">
-        <v>99.66075074687603</v>
+        <v>128.7835007017901</v>
       </c>
       <c r="V13" t="n">
         <v>252.137643323828</v>
@@ -1604,28 +1604,28 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C14" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D14" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E14" t="n">
         <v>0</v>
       </c>
       <c r="F14" t="n">
-        <v>0</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G14" t="n">
-        <v>0</v>
+        <v>301.998402731752</v>
       </c>
       <c r="H14" t="n">
-        <v>0</v>
+        <v>323.9227727643571</v>
       </c>
       <c r="I14" t="n">
-        <v>0</v>
+        <v>151.9313162448613</v>
       </c>
       <c r="J14" t="n">
         <v>0</v>
@@ -1652,13 +1652,13 @@
         <v>0</v>
       </c>
       <c r="R14" t="n">
-        <v>0</v>
+        <v>54.47840257481172</v>
       </c>
       <c r="S14" t="n">
-        <v>0</v>
+        <v>174.4157128089715</v>
       </c>
       <c r="T14" t="n">
-        <v>157.6500974904829</v>
+        <v>216.4483203576578</v>
       </c>
       <c r="U14" t="n">
         <v>251.2241675082893</v>
@@ -1670,7 +1670,7 @@
         <v>349.240968717413</v>
       </c>
       <c r="X14" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y14" t="n">
         <v>386.2379386560536</v>
@@ -1780,10 +1780,10 @@
         <v>167.3098022590509</v>
       </c>
       <c r="H16" t="n">
-        <v>0</v>
+        <v>156.1708888417951</v>
       </c>
       <c r="I16" t="n">
-        <v>0</v>
+        <v>134.9656217923383</v>
       </c>
       <c r="J16" t="n">
         <v>45.19995918853701</v>
@@ -1807,10 +1807,10 @@
         <v>0</v>
       </c>
       <c r="Q16" t="n">
-        <v>29.12274995491431</v>
+        <v>17.13267830032973</v>
       </c>
       <c r="R16" t="n">
-        <v>0</v>
+        <v>146.6651919801579</v>
       </c>
       <c r="S16" t="n">
         <v>0</v>
@@ -1819,13 +1819,13 @@
         <v>0</v>
       </c>
       <c r="U16" t="n">
-        <v>286.2818742419777</v>
+        <v>0</v>
       </c>
       <c r="V16" t="n">
         <v>0</v>
       </c>
       <c r="W16" t="n">
-        <v>139.5297567177291</v>
+        <v>0</v>
       </c>
       <c r="X16" t="n">
         <v>0</v>
@@ -1841,25 +1841,25 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>0</v>
+        <v>43.95772706122936</v>
       </c>
       <c r="C17" t="n">
         <v>365.2728917710076</v>
       </c>
       <c r="D17" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E17" t="n">
-        <v>198.9350857019925</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F17" t="n">
-        <v>0</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G17" t="n">
-        <v>0</v>
+        <v>413.784170020795</v>
       </c>
       <c r="H17" t="n">
-        <v>0</v>
+        <v>323.9227727643571</v>
       </c>
       <c r="I17" t="n">
         <v>151.9313162448613</v>
@@ -1892,25 +1892,25 @@
         <v>0</v>
       </c>
       <c r="S17" t="n">
-        <v>0</v>
+        <v>174.4157128089715</v>
       </c>
       <c r="T17" t="n">
-        <v>216.4483203576578</v>
+        <v>0</v>
       </c>
       <c r="U17" t="n">
-        <v>251.2241675082893</v>
+        <v>0</v>
       </c>
       <c r="V17" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W17" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X17" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y17" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="18">
@@ -1941,7 +1941,7 @@
         <v>104.3883541553076</v>
       </c>
       <c r="I18" t="n">
-        <v>61.42221998250819</v>
+        <v>61.4222199825082</v>
       </c>
       <c r="J18" t="n">
         <v>0</v>
@@ -1968,7 +1968,7 @@
         <v>0</v>
       </c>
       <c r="R18" t="n">
-        <v>49.71123688229332</v>
+        <v>49.71123688229333</v>
       </c>
       <c r="S18" t="n">
         <v>156.5912426325231</v>
@@ -1999,13 +1999,13 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C19" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D19" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E19" t="n">
         <v>0</v>
@@ -2044,10 +2044,10 @@
         <v>0</v>
       </c>
       <c r="Q19" t="n">
-        <v>29.12274995491431</v>
+        <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>4.719592790138537</v>
+        <v>0</v>
       </c>
       <c r="S19" t="n">
         <v>0</v>
@@ -2056,7 +2056,7 @@
         <v>0</v>
       </c>
       <c r="U19" t="n">
-        <v>0</v>
+        <v>232.3056710074056</v>
       </c>
       <c r="V19" t="n">
         <v>0</v>
@@ -2078,13 +2078,13 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>47.07610534434806</v>
+        <v>0</v>
       </c>
       <c r="C20" t="n">
         <v>365.2728917710076</v>
       </c>
       <c r="D20" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E20" t="n">
         <v>381.9303700722618</v>
@@ -2096,10 +2096,10 @@
         <v>413.784170020795</v>
       </c>
       <c r="H20" t="n">
-        <v>0</v>
+        <v>172.0766384386615</v>
       </c>
       <c r="I20" t="n">
-        <v>151.9313162448613</v>
+        <v>0</v>
       </c>
       <c r="J20" t="n">
         <v>0</v>
@@ -2126,7 +2126,7 @@
         <v>0</v>
       </c>
       <c r="R20" t="n">
-        <v>54.47840257481172</v>
+        <v>54.47840257481171</v>
       </c>
       <c r="S20" t="n">
         <v>0</v>
@@ -2138,7 +2138,7 @@
         <v>251.2241675082893</v>
       </c>
       <c r="V20" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W20" t="n">
         <v>0</v>
@@ -2178,7 +2178,7 @@
         <v>104.3883541553076</v>
       </c>
       <c r="I21" t="n">
-        <v>61.42221998250819</v>
+        <v>61.42221998250818</v>
       </c>
       <c r="J21" t="n">
         <v>0</v>
@@ -2205,7 +2205,7 @@
         <v>0</v>
       </c>
       <c r="R21" t="n">
-        <v>49.71123688229332</v>
+        <v>49.71123688229331</v>
       </c>
       <c r="S21" t="n">
         <v>156.5912426325231</v>
@@ -2248,10 +2248,10 @@
         <v>0</v>
       </c>
       <c r="F22" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G22" t="n">
-        <v>167.3098022590509</v>
+        <v>0</v>
       </c>
       <c r="H22" t="n">
         <v>0</v>
@@ -2281,7 +2281,7 @@
         <v>0</v>
       </c>
       <c r="Q22" t="n">
-        <v>29.12274995491431</v>
+        <v>0</v>
       </c>
       <c r="R22" t="n">
         <v>0</v>
@@ -2290,16 +2290,16 @@
         <v>0</v>
       </c>
       <c r="T22" t="n">
-        <v>0</v>
+        <v>129.0246247964033</v>
       </c>
       <c r="U22" t="n">
         <v>286.2818742419777</v>
       </c>
       <c r="V22" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W22" t="n">
-        <v>39.30866788333488</v>
+        <v>0</v>
       </c>
       <c r="X22" t="n">
         <v>0</v>
@@ -2321,19 +2321,19 @@
         <v>365.2728917710076</v>
       </c>
       <c r="D23" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E23" t="n">
         <v>0</v>
       </c>
       <c r="F23" t="n">
-        <v>0</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G23" t="n">
-        <v>0</v>
+        <v>351.2391879744742</v>
       </c>
       <c r="H23" t="n">
-        <v>164.878325216851</v>
+        <v>0</v>
       </c>
       <c r="I23" t="n">
         <v>0</v>
@@ -2363,22 +2363,22 @@
         <v>0</v>
       </c>
       <c r="R23" t="n">
-        <v>54.47840257481172</v>
+        <v>0</v>
       </c>
       <c r="S23" t="n">
         <v>0</v>
       </c>
       <c r="T23" t="n">
-        <v>216.4483203576578</v>
+        <v>0</v>
       </c>
       <c r="U23" t="n">
         <v>0</v>
       </c>
       <c r="V23" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W23" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X23" t="n">
         <v>369.731100678469</v>
@@ -2415,7 +2415,7 @@
         <v>104.3883541553076</v>
       </c>
       <c r="I24" t="n">
-        <v>61.42221998250819</v>
+        <v>61.42221998250818</v>
       </c>
       <c r="J24" t="n">
         <v>0</v>
@@ -2442,7 +2442,7 @@
         <v>0</v>
       </c>
       <c r="R24" t="n">
-        <v>49.71123688229332</v>
+        <v>49.71123688229331</v>
       </c>
       <c r="S24" t="n">
         <v>156.5912426325231</v>
@@ -2473,16 +2473,16 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C25" t="n">
         <v>0</v>
       </c>
       <c r="D25" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E25" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F25" t="n">
         <v>0</v>
@@ -2524,13 +2524,13 @@
         <v>0</v>
       </c>
       <c r="S25" t="n">
-        <v>212.1455389500189</v>
+        <v>0</v>
       </c>
       <c r="T25" t="n">
-        <v>225.0351054580843</v>
+        <v>0</v>
       </c>
       <c r="U25" t="n">
-        <v>230.2634979541059</v>
+        <v>0</v>
       </c>
       <c r="V25" t="n">
         <v>0</v>
@@ -2542,7 +2542,7 @@
         <v>0</v>
       </c>
       <c r="Y25" t="n">
-        <v>0</v>
+        <v>192.5627265154898</v>
       </c>
     </row>
     <row r="26">
@@ -2570,10 +2570,10 @@
         <v>413.784170020795</v>
       </c>
       <c r="H26" t="n">
-        <v>323.9227727643571</v>
+        <v>264.0756743143457</v>
       </c>
       <c r="I26" t="n">
-        <v>151.9313162448613</v>
+        <v>0</v>
       </c>
       <c r="J26" t="n">
         <v>0</v>
@@ -2606,10 +2606,10 @@
         <v>0</v>
       </c>
       <c r="T26" t="n">
-        <v>0</v>
+        <v>216.4483203576578</v>
       </c>
       <c r="U26" t="n">
-        <v>0</v>
+        <v>251.2241675082893</v>
       </c>
       <c r="V26" t="n">
         <v>327.7522584701349</v>
@@ -2621,7 +2621,7 @@
         <v>0</v>
       </c>
       <c r="Y26" t="n">
-        <v>255.8940731710743</v>
+        <v>0</v>
       </c>
     </row>
     <row r="27">
@@ -2652,7 +2652,7 @@
         <v>104.3883541553076</v>
       </c>
       <c r="I27" t="n">
-        <v>61.42221998250819</v>
+        <v>61.42221998250818</v>
       </c>
       <c r="J27" t="n">
         <v>0</v>
@@ -2679,7 +2679,7 @@
         <v>0</v>
       </c>
       <c r="R27" t="n">
-        <v>49.71123688229332</v>
+        <v>49.71123688229331</v>
       </c>
       <c r="S27" t="n">
         <v>156.5912426325231</v>
@@ -2713,19 +2713,19 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C28" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D28" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E28" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F28" t="n">
-        <v>0</v>
+        <v>25.31590541686235</v>
       </c>
       <c r="G28" t="n">
-        <v>43.99240337009266</v>
+        <v>0</v>
       </c>
       <c r="H28" t="n">
         <v>0</v>
@@ -2764,7 +2764,7 @@
         <v>0</v>
       </c>
       <c r="T28" t="n">
-        <v>225.0351054580843</v>
+        <v>0</v>
       </c>
       <c r="U28" t="n">
         <v>0</v>
@@ -2779,7 +2779,7 @@
         <v>0</v>
       </c>
       <c r="Y28" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="29">
@@ -2789,13 +2789,13 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C29" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D29" t="n">
-        <v>289.4705766707309</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E29" t="n">
         <v>0</v>
@@ -2804,7 +2804,7 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G29" t="n">
-        <v>0</v>
+        <v>26.93397378514829</v>
       </c>
       <c r="H29" t="n">
         <v>323.9227727643571</v>
@@ -2837,25 +2837,25 @@
         <v>0</v>
       </c>
       <c r="R29" t="n">
-        <v>54.47840257481172</v>
+        <v>54.47840257481171</v>
       </c>
       <c r="S29" t="n">
-        <v>174.4157128089715</v>
+        <v>0</v>
       </c>
       <c r="T29" t="n">
-        <v>216.4483203576578</v>
+        <v>0</v>
       </c>
       <c r="U29" t="n">
         <v>251.2241675082893</v>
       </c>
       <c r="V29" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W29" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X29" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y29" t="n">
         <v>0</v>
@@ -2889,7 +2889,7 @@
         <v>104.3883541553076</v>
       </c>
       <c r="I30" t="n">
-        <v>61.42221998250819</v>
+        <v>61.42221998250818</v>
       </c>
       <c r="J30" t="n">
         <v>0</v>
@@ -2916,7 +2916,7 @@
         <v>0</v>
       </c>
       <c r="R30" t="n">
-        <v>49.71123688229332</v>
+        <v>49.71123688229331</v>
       </c>
       <c r="S30" t="n">
         <v>156.5912426325231</v>
@@ -2950,7 +2950,7 @@
         <v>0</v>
       </c>
       <c r="C31" t="n">
-        <v>0</v>
+        <v>155.2114886365804</v>
       </c>
       <c r="D31" t="n">
         <v>0</v>
@@ -2959,7 +2959,7 @@
         <v>0</v>
       </c>
       <c r="F31" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G31" t="n">
         <v>0</v>
@@ -2998,25 +2998,25 @@
         <v>0</v>
       </c>
       <c r="S31" t="n">
-        <v>212.1455389500189</v>
+        <v>0</v>
       </c>
       <c r="T31" t="n">
         <v>0</v>
       </c>
       <c r="U31" t="n">
-        <v>91.29290203716377</v>
+        <v>0</v>
       </c>
       <c r="V31" t="n">
         <v>0</v>
       </c>
       <c r="W31" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X31" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y31" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="32">
@@ -3026,28 +3026,28 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>0</v>
+        <v>218.3734398702018</v>
       </c>
       <c r="C32" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D32" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E32" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F32" t="n">
         <v>406.8760457417114</v>
       </c>
       <c r="G32" t="n">
-        <v>0</v>
+        <v>413.784170020795</v>
       </c>
       <c r="H32" t="n">
         <v>323.9227727643571</v>
       </c>
       <c r="I32" t="n">
-        <v>0</v>
+        <v>151.9313162448613</v>
       </c>
       <c r="J32" t="n">
         <v>0</v>
@@ -3074,28 +3074,28 @@
         <v>0</v>
       </c>
       <c r="R32" t="n">
-        <v>54.47840257481172</v>
+        <v>0</v>
       </c>
       <c r="S32" t="n">
-        <v>174.4157128089715</v>
+        <v>0</v>
       </c>
       <c r="T32" t="n">
-        <v>216.4483203576578</v>
+        <v>0</v>
       </c>
       <c r="U32" t="n">
-        <v>251.2241675082893</v>
+        <v>0</v>
       </c>
       <c r="V32" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W32" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X32" t="n">
-        <v>126.1774605064788</v>
+        <v>0</v>
       </c>
       <c r="Y32" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="33">
@@ -3126,7 +3126,7 @@
         <v>104.3883541553076</v>
       </c>
       <c r="I33" t="n">
-        <v>61.42221998250819</v>
+        <v>61.42221998250818</v>
       </c>
       <c r="J33" t="n">
         <v>0</v>
@@ -3153,7 +3153,7 @@
         <v>0</v>
       </c>
       <c r="R33" t="n">
-        <v>49.71123688229332</v>
+        <v>49.71123688229331</v>
       </c>
       <c r="S33" t="n">
         <v>156.5912426325231</v>
@@ -3199,13 +3199,13 @@
         <v>0</v>
       </c>
       <c r="G34" t="n">
-        <v>167.3098022590509</v>
+        <v>0</v>
       </c>
       <c r="H34" t="n">
         <v>0</v>
       </c>
       <c r="I34" t="n">
-        <v>134.9656217923383</v>
+        <v>0</v>
       </c>
       <c r="J34" t="n">
         <v>0</v>
@@ -3241,19 +3241,19 @@
         <v>0</v>
       </c>
       <c r="U34" t="n">
-        <v>0</v>
+        <v>286.2818742419777</v>
       </c>
       <c r="V34" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W34" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X34" t="n">
-        <v>0</v>
+        <v>129.0246247964033</v>
       </c>
       <c r="Y34" t="n">
-        <v>78.64571997422891</v>
+        <v>0</v>
       </c>
     </row>
     <row r="35">
@@ -3275,13 +3275,13 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F35" t="n">
-        <v>0</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G35" t="n">
-        <v>0</v>
+        <v>401.3550844723776</v>
       </c>
       <c r="H35" t="n">
-        <v>0</v>
+        <v>323.9227727643571</v>
       </c>
       <c r="I35" t="n">
         <v>0</v>
@@ -3320,19 +3320,19 @@
         <v>0</v>
       </c>
       <c r="U35" t="n">
-        <v>251.2241675082893</v>
+        <v>0</v>
       </c>
       <c r="V35" t="n">
         <v>0</v>
       </c>
       <c r="W35" t="n">
-        <v>124.9606961356345</v>
+        <v>0</v>
       </c>
       <c r="X35" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y35" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="36">
@@ -3363,7 +3363,7 @@
         <v>104.3883541553076</v>
       </c>
       <c r="I36" t="n">
-        <v>61.42221998250819</v>
+        <v>61.42221998250818</v>
       </c>
       <c r="J36" t="n">
         <v>0</v>
@@ -3390,7 +3390,7 @@
         <v>0</v>
       </c>
       <c r="R36" t="n">
-        <v>49.71123688229332</v>
+        <v>49.71123688229331</v>
       </c>
       <c r="S36" t="n">
         <v>156.5912426325231</v>
@@ -3421,13 +3421,13 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C37" t="n">
         <v>0</v>
       </c>
       <c r="D37" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E37" t="n">
         <v>0</v>
@@ -3469,22 +3469,22 @@
         <v>0</v>
       </c>
       <c r="R37" t="n">
-        <v>52.47369082546835</v>
+        <v>0</v>
       </c>
       <c r="S37" t="n">
         <v>0</v>
       </c>
       <c r="T37" t="n">
-        <v>0</v>
+        <v>129.0246247964033</v>
       </c>
       <c r="U37" t="n">
-        <v>0</v>
+        <v>286.2818742419777</v>
       </c>
       <c r="V37" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W37" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X37" t="n">
         <v>0</v>
@@ -3503,22 +3503,22 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C38" t="n">
-        <v>337.7957471648042</v>
+        <v>0</v>
       </c>
       <c r="D38" t="n">
         <v>0</v>
       </c>
       <c r="E38" t="n">
-        <v>381.9303700722618</v>
+        <v>142.9777266703273</v>
       </c>
       <c r="F38" t="n">
         <v>406.8760457417114</v>
       </c>
       <c r="G38" t="n">
-        <v>413.784170020795</v>
+        <v>0</v>
       </c>
       <c r="H38" t="n">
-        <v>323.9227727643571</v>
+        <v>0</v>
       </c>
       <c r="I38" t="n">
         <v>0</v>
@@ -3557,19 +3557,19 @@
         <v>0</v>
       </c>
       <c r="U38" t="n">
-        <v>0</v>
+        <v>251.2241675082893</v>
       </c>
       <c r="V38" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W38" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X38" t="n">
         <v>369.731100678469</v>
       </c>
       <c r="Y38" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="39">
@@ -3600,7 +3600,7 @@
         <v>104.3883541553076</v>
       </c>
       <c r="I39" t="n">
-        <v>61.42221998250819</v>
+        <v>61.42221998250752</v>
       </c>
       <c r="J39" t="n">
         <v>0</v>
@@ -3627,7 +3627,7 @@
         <v>0</v>
       </c>
       <c r="R39" t="n">
-        <v>49.71123688229332</v>
+        <v>49.71123688229331</v>
       </c>
       <c r="S39" t="n">
         <v>156.5912426325231</v>
@@ -3661,13 +3661,13 @@
         <v>0</v>
       </c>
       <c r="C40" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D40" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E40" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F40" t="n">
         <v>0</v>
@@ -3676,7 +3676,7 @@
         <v>0</v>
       </c>
       <c r="H40" t="n">
-        <v>156.1708888417951</v>
+        <v>0</v>
       </c>
       <c r="I40" t="n">
         <v>0</v>
@@ -3703,13 +3703,13 @@
         <v>0</v>
       </c>
       <c r="Q40" t="n">
-        <v>0</v>
+        <v>29.1227499549143</v>
       </c>
       <c r="R40" t="n">
-        <v>48.97699675700453</v>
+        <v>146.6651919801579</v>
       </c>
       <c r="S40" t="n">
-        <v>0</v>
+        <v>212.1455389500189</v>
       </c>
       <c r="T40" t="n">
         <v>0</v>
@@ -3718,10 +3718,10 @@
         <v>0</v>
       </c>
       <c r="V40" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W40" t="n">
-        <v>0</v>
+        <v>27.37301815328993</v>
       </c>
       <c r="X40" t="n">
         <v>0</v>
@@ -3743,19 +3743,19 @@
         <v>365.2728917710076</v>
       </c>
       <c r="D41" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E41" t="n">
-        <v>219.1825554764755</v>
+        <v>0</v>
       </c>
       <c r="F41" t="n">
-        <v>406.8760457417114</v>
+        <v>0</v>
       </c>
       <c r="G41" t="n">
         <v>413.784170020795</v>
       </c>
       <c r="H41" t="n">
-        <v>0</v>
+        <v>212.8898794115853</v>
       </c>
       <c r="I41" t="n">
         <v>151.9313162448613</v>
@@ -3797,7 +3797,7 @@
         <v>0</v>
       </c>
       <c r="V41" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W41" t="n">
         <v>349.240968717413</v>
@@ -3806,7 +3806,7 @@
         <v>0</v>
       </c>
       <c r="Y41" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="42">
@@ -3837,7 +3837,7 @@
         <v>104.3883541553076</v>
       </c>
       <c r="I42" t="n">
-        <v>61.42221998250819</v>
+        <v>61.42221998250818</v>
       </c>
       <c r="J42" t="n">
         <v>0</v>
@@ -3864,7 +3864,7 @@
         <v>0</v>
       </c>
       <c r="R42" t="n">
-        <v>49.71123688229332</v>
+        <v>49.71123688229331</v>
       </c>
       <c r="S42" t="n">
         <v>156.5912426325231</v>
@@ -3910,10 +3910,10 @@
         <v>0</v>
       </c>
       <c r="G43" t="n">
-        <v>33.42595480754855</v>
+        <v>0</v>
       </c>
       <c r="H43" t="n">
-        <v>156.1708888417951</v>
+        <v>0</v>
       </c>
       <c r="I43" t="n">
         <v>0</v>
@@ -3952,19 +3952,19 @@
         <v>0</v>
       </c>
       <c r="U43" t="n">
-        <v>0</v>
+        <v>286.2818742419777</v>
       </c>
       <c r="V43" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W43" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X43" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y43" t="n">
-        <v>0</v>
+        <v>94.63926978364032</v>
       </c>
     </row>
     <row r="44">
@@ -3974,7 +3974,7 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C44" t="n">
         <v>365.2728917710076</v>
@@ -3989,13 +3989,13 @@
         <v>0</v>
       </c>
       <c r="G44" t="n">
-        <v>413.784170020795</v>
+        <v>0</v>
       </c>
       <c r="H44" t="n">
         <v>0</v>
       </c>
       <c r="I44" t="n">
-        <v>151.9313162448613</v>
+        <v>0</v>
       </c>
       <c r="J44" t="n">
         <v>0</v>
@@ -4022,16 +4022,16 @@
         <v>0</v>
       </c>
       <c r="R44" t="n">
-        <v>0</v>
+        <v>54.47840257481171</v>
       </c>
       <c r="S44" t="n">
         <v>0</v>
       </c>
       <c r="T44" t="n">
-        <v>216.4483203576578</v>
+        <v>26.64360395382558</v>
       </c>
       <c r="U44" t="n">
-        <v>251.2241675082893</v>
+        <v>0</v>
       </c>
       <c r="V44" t="n">
         <v>327.7522584701349</v>
@@ -4040,10 +4040,10 @@
         <v>349.240968717413</v>
       </c>
       <c r="X44" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y44" t="n">
-        <v>186.4369133950372</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="45">
@@ -4074,7 +4074,7 @@
         <v>104.3883541553076</v>
       </c>
       <c r="I45" t="n">
-        <v>61.42221998250819</v>
+        <v>61.42221998250818</v>
       </c>
       <c r="J45" t="n">
         <v>0</v>
@@ -4101,7 +4101,7 @@
         <v>0</v>
       </c>
       <c r="R45" t="n">
-        <v>49.71123688229332</v>
+        <v>49.71123688229331</v>
       </c>
       <c r="S45" t="n">
         <v>156.5912426325231</v>
@@ -4141,22 +4141,22 @@
         <v>0</v>
       </c>
       <c r="E46" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F46" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G46" t="n">
-        <v>0</v>
+        <v>167.3098022590509</v>
       </c>
       <c r="H46" t="n">
-        <v>0</v>
+        <v>22.96159132124588</v>
       </c>
       <c r="I46" t="n">
-        <v>134.9656217923383</v>
+        <v>0</v>
       </c>
       <c r="J46" t="n">
-        <v>28.477970950351</v>
+        <v>0</v>
       </c>
       <c r="K46" t="n">
         <v>0</v>
@@ -4183,16 +4183,16 @@
         <v>0</v>
       </c>
       <c r="S46" t="n">
-        <v>212.1455389500189</v>
+        <v>0</v>
       </c>
       <c r="T46" t="n">
-        <v>0</v>
+        <v>225.0351054580843</v>
       </c>
       <c r="U46" t="n">
         <v>0</v>
       </c>
       <c r="V46" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W46" t="n">
         <v>0</v>
@@ -4304,37 +4304,37 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>885.7444020895362</v>
+        <v>464.928886609972</v>
       </c>
       <c r="C2" t="n">
-        <v>885.7444020895362</v>
+        <v>464.928886609972</v>
       </c>
       <c r="D2" t="n">
-        <v>593.1972104235191</v>
+        <v>464.928886609972</v>
       </c>
       <c r="E2" t="n">
-        <v>207.4089578252748</v>
+        <v>464.928886609972</v>
       </c>
       <c r="F2" t="n">
-        <v>207.4089578252748</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="G2" t="n">
-        <v>207.4089578252748</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="H2" t="n">
-        <v>207.4089578252748</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="I2" t="n">
         <v>53.94298182036445</v>
       </c>
       <c r="J2" t="n">
-        <v>169.7108380533139</v>
+        <v>169.7108380533141</v>
       </c>
       <c r="K2" t="n">
-        <v>463.9616490733126</v>
+        <v>463.9616490733127</v>
       </c>
       <c r="L2" t="n">
-        <v>881.2824271224079</v>
+        <v>881.2824271224076</v>
       </c>
       <c r="M2" t="n">
         <v>1362.238747280443</v>
@@ -4352,28 +4352,28 @@
         <v>2697.149091018222</v>
       </c>
       <c r="R2" t="n">
-        <v>2642.120401548716</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="S2" t="n">
-        <v>2465.942913862886</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="T2" t="n">
-        <v>2247.308246834948</v>
+        <v>2478.514423990285</v>
       </c>
       <c r="U2" t="n">
-        <v>1993.54646147304</v>
+        <v>2298.96535952467</v>
       </c>
       <c r="V2" t="n">
-        <v>1662.48357412947</v>
+        <v>1967.902472181099</v>
       </c>
       <c r="W2" t="n">
-        <v>1662.48357412947</v>
+        <v>1615.133816910985</v>
       </c>
       <c r="X2" t="n">
-        <v>1662.48357412947</v>
+        <v>1241.668058649906</v>
       </c>
       <c r="Y2" t="n">
-        <v>1272.344242153658</v>
+        <v>851.5287266740938</v>
       </c>
     </row>
     <row r="3">
@@ -4407,25 +4407,25 @@
         <v>53.94298182036445</v>
       </c>
       <c r="J3" t="n">
-        <v>129.2001442204943</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="K3" t="n">
-        <v>384.4474646615928</v>
+        <v>309.190302261463</v>
       </c>
       <c r="L3" t="n">
-        <v>789.0633827572647</v>
+        <v>713.8062203571349</v>
       </c>
       <c r="M3" t="n">
-        <v>1313.210296315296</v>
+        <v>1237.953133915166</v>
       </c>
       <c r="N3" t="n">
-        <v>1866.936832414847</v>
+        <v>1791.679670014717</v>
       </c>
       <c r="O3" t="n">
-        <v>2307.072755435191</v>
+        <v>2231.815593035061</v>
       </c>
       <c r="P3" t="n">
-        <v>2643.31756905002</v>
+        <v>2568.06040664989</v>
       </c>
       <c r="Q3" t="n">
         <v>2697.149091018222</v>
@@ -4462,28 +4462,28 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>444.0275768541693</v>
+        <v>108.9687959810048</v>
       </c>
       <c r="C4" t="n">
-        <v>393.6767897220517</v>
+        <v>108.9687959810048</v>
       </c>
       <c r="D4" t="n">
-        <v>393.6767897220517</v>
+        <v>108.9687959810048</v>
       </c>
       <c r="E4" t="n">
-        <v>393.6767897220517</v>
+        <v>108.9687959810048</v>
       </c>
       <c r="F4" t="n">
-        <v>393.6767897220517</v>
+        <v>108.9687959810048</v>
       </c>
       <c r="G4" t="n">
-        <v>393.6767897220517</v>
+        <v>108.9687959810048</v>
       </c>
       <c r="H4" t="n">
-        <v>235.9284171545819</v>
+        <v>108.9687959810048</v>
       </c>
       <c r="I4" t="n">
-        <v>99.59950625323012</v>
+        <v>99.5995062532301</v>
       </c>
       <c r="J4" t="n">
         <v>53.94298182036445</v>
@@ -4492,46 +4492,46 @@
         <v>110.2451748866326</v>
       </c>
       <c r="L4" t="n">
-        <v>237.819032447791</v>
+        <v>237.8190324477911</v>
       </c>
       <c r="M4" t="n">
-        <v>382.7169011658209</v>
+        <v>382.716901165821</v>
       </c>
       <c r="N4" t="n">
-        <v>529.6040388502499</v>
+        <v>529.6040388502502</v>
       </c>
       <c r="O4" t="n">
-        <v>649.2617893594901</v>
+        <v>649.2617893594903</v>
       </c>
       <c r="P4" t="n">
-        <v>728.1289842064342</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="Q4" t="n">
-        <v>698.7120650600561</v>
+        <v>698.7120650600564</v>
       </c>
       <c r="R4" t="n">
-        <v>698.7120650600561</v>
+        <v>550.5654064942404</v>
       </c>
       <c r="S4" t="n">
-        <v>698.7120650600561</v>
+        <v>336.2769833124031</v>
       </c>
       <c r="T4" t="n">
-        <v>698.7120650600561</v>
+        <v>108.9687959810048</v>
       </c>
       <c r="U4" t="n">
-        <v>698.7120650600561</v>
+        <v>108.9687959810048</v>
       </c>
       <c r="V4" t="n">
-        <v>444.0275768541693</v>
+        <v>108.9687959810048</v>
       </c>
       <c r="W4" t="n">
-        <v>444.0275768541693</v>
+        <v>108.9687959810048</v>
       </c>
       <c r="X4" t="n">
-        <v>444.0275768541693</v>
+        <v>108.9687959810048</v>
       </c>
       <c r="Y4" t="n">
-        <v>444.0275768541693</v>
+        <v>108.9687959810048</v>
       </c>
     </row>
     <row r="5">
@@ -4541,19 +4541,19 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>1472.812633166741</v>
+        <v>781.1711973675267</v>
       </c>
       <c r="C5" t="n">
-        <v>1472.812633166741</v>
+        <v>412.2086804271149</v>
       </c>
       <c r="D5" t="n">
-        <v>1114.546934559991</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="E5" t="n">
-        <v>882.8926947117852</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="F5" t="n">
-        <v>471.9067899221776</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="G5" t="n">
         <v>53.94298182036445</v>
@@ -4565,19 +4565,19 @@
         <v>53.94298182036445</v>
       </c>
       <c r="J5" t="n">
-        <v>169.7108380533141</v>
+        <v>169.7108380533139</v>
       </c>
       <c r="K5" t="n">
-        <v>463.9616490733126</v>
+        <v>463.9616490733124</v>
       </c>
       <c r="L5" t="n">
-        <v>881.2824271224074</v>
+        <v>881.2824271224073</v>
       </c>
       <c r="M5" t="n">
         <v>1362.238747280443</v>
       </c>
       <c r="N5" t="n">
-        <v>1836.345445977174</v>
+        <v>1836.345445977175</v>
       </c>
       <c r="O5" t="n">
         <v>2238.843319642689</v>
@@ -4595,22 +4595,22 @@
         <v>2465.942913862886</v>
       </c>
       <c r="T5" t="n">
-        <v>2465.942913862886</v>
+        <v>2247.308246834948</v>
       </c>
       <c r="U5" t="n">
-        <v>2212.181128500977</v>
+        <v>1993.54646147304</v>
       </c>
       <c r="V5" t="n">
-        <v>2212.181128500977</v>
+        <v>1931.37612766854</v>
       </c>
       <c r="W5" t="n">
-        <v>1859.412473230863</v>
+        <v>1931.37612766854</v>
       </c>
       <c r="X5" t="n">
-        <v>1859.412473230863</v>
+        <v>1557.91036940746</v>
       </c>
       <c r="Y5" t="n">
-        <v>1859.412473230863</v>
+        <v>1167.771037431648</v>
       </c>
     </row>
     <row r="6">
@@ -4620,37 +4620,37 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>988.4979752170833</v>
+        <v>988.4979752170825</v>
       </c>
       <c r="C6" t="n">
-        <v>814.0449459359563</v>
+        <v>814.0449459359555</v>
       </c>
       <c r="D6" t="n">
-        <v>665.1105362747051</v>
+        <v>665.1105362747041</v>
       </c>
       <c r="E6" t="n">
-        <v>505.8730812692495</v>
+        <v>505.8730812692486</v>
       </c>
       <c r="F6" t="n">
-        <v>359.3385232961344</v>
+        <v>359.3385232961338</v>
       </c>
       <c r="G6" t="n">
-        <v>221.4284102424006</v>
+        <v>221.4284102424003</v>
       </c>
       <c r="H6" t="n">
-        <v>115.9856282673424</v>
+        <v>115.9856282673422</v>
       </c>
       <c r="I6" t="n">
         <v>53.94298182036445</v>
       </c>
       <c r="J6" t="n">
-        <v>129.2001442204943</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="K6" t="n">
-        <v>266.2060027641994</v>
+        <v>266.206002764199</v>
       </c>
       <c r="L6" t="n">
-        <v>670.8219208598713</v>
+        <v>670.8219208598708</v>
       </c>
       <c r="M6" t="n">
         <v>1194.968834417902</v>
@@ -4665,28 +4665,28 @@
         <v>2525.076107152626</v>
       </c>
       <c r="Q6" t="n">
-        <v>2697.149091018223</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="R6" t="n">
-        <v>2646.935720430048</v>
+        <v>2646.935720430047</v>
       </c>
       <c r="S6" t="n">
-        <v>2488.762748073964</v>
+        <v>2488.762748073963</v>
       </c>
       <c r="T6" t="n">
-        <v>2289.884200196743</v>
+        <v>2289.884200196742</v>
       </c>
       <c r="U6" t="n">
         <v>2061.714576167582</v>
       </c>
       <c r="V6" t="n">
-        <v>1826.56246793584</v>
+        <v>1826.562467935839</v>
       </c>
       <c r="W6" t="n">
-        <v>1572.325111207638</v>
+        <v>1572.325111207637</v>
       </c>
       <c r="X6" t="n">
-        <v>1364.473611002105</v>
+        <v>1364.473611002104</v>
       </c>
       <c r="Y6" t="n">
         <v>1156.713312237151</v>
@@ -4699,28 +4699,28 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>211.6913543878343</v>
+        <v>543.7934291343875</v>
       </c>
       <c r="C7" t="n">
-        <v>211.6913543878343</v>
+        <v>543.7934291343875</v>
       </c>
       <c r="D7" t="n">
-        <v>211.6913543878343</v>
+        <v>393.6767897220517</v>
       </c>
       <c r="E7" t="n">
-        <v>211.6913543878343</v>
+        <v>393.6767897220517</v>
       </c>
       <c r="F7" t="n">
-        <v>211.6913543878343</v>
+        <v>393.6767897220517</v>
       </c>
       <c r="G7" t="n">
-        <v>211.6913543878343</v>
+        <v>393.6767897220517</v>
       </c>
       <c r="H7" t="n">
-        <v>53.94298182036445</v>
+        <v>235.9284171545819</v>
       </c>
       <c r="I7" t="n">
-        <v>53.94298182036445</v>
+        <v>99.59950625323012</v>
       </c>
       <c r="J7" t="n">
         <v>53.94298182036445</v>
@@ -4744,31 +4744,31 @@
         <v>728.1289842064342</v>
       </c>
       <c r="Q7" t="n">
-        <v>728.1289842064342</v>
+        <v>698.7120650600561</v>
       </c>
       <c r="R7" t="n">
-        <v>728.1289842064342</v>
+        <v>550.5654064942401</v>
       </c>
       <c r="S7" t="n">
-        <v>728.1289842064342</v>
+        <v>543.7934291343875</v>
       </c>
       <c r="T7" t="n">
-        <v>500.820796875036</v>
+        <v>543.7934291343875</v>
       </c>
       <c r="U7" t="n">
-        <v>500.820796875036</v>
+        <v>543.7934291343875</v>
       </c>
       <c r="V7" t="n">
-        <v>500.820796875036</v>
+        <v>543.7934291343875</v>
       </c>
       <c r="W7" t="n">
-        <v>211.6913543878343</v>
+        <v>543.7934291343875</v>
       </c>
       <c r="X7" t="n">
-        <v>211.6913543878343</v>
+        <v>543.7934291343875</v>
       </c>
       <c r="Y7" t="n">
-        <v>211.6913543878343</v>
+        <v>543.7934291343875</v>
       </c>
     </row>
     <row r="8">
@@ -4778,43 +4778,43 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>1546.944160717209</v>
+        <v>1249.712458167646</v>
       </c>
       <c r="C8" t="n">
-        <v>1177.981643776797</v>
+        <v>1249.712458167646</v>
       </c>
       <c r="D8" t="n">
-        <v>819.715945170047</v>
+        <v>1249.712458167646</v>
       </c>
       <c r="E8" t="n">
-        <v>433.9276925718028</v>
+        <v>863.9242055694012</v>
       </c>
       <c r="F8" t="n">
-        <v>53.94298182036445</v>
+        <v>452.9383007797937</v>
       </c>
       <c r="G8" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036444</v>
       </c>
       <c r="H8" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036444</v>
       </c>
       <c r="I8" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036444</v>
       </c>
       <c r="J8" t="n">
-        <v>169.7108380533139</v>
+        <v>169.7108380533141</v>
       </c>
       <c r="K8" t="n">
         <v>463.9616490733126</v>
       </c>
       <c r="L8" t="n">
-        <v>881.2824271224079</v>
+        <v>881.2824271224076</v>
       </c>
       <c r="M8" t="n">
         <v>1362.238747280443</v>
       </c>
       <c r="N8" t="n">
-        <v>1836.345445977175</v>
+        <v>1836.345445977174</v>
       </c>
       <c r="O8" t="n">
         <v>2238.843319642689</v>
@@ -4838,16 +4838,16 @@
         <v>2697.149091018222</v>
       </c>
       <c r="V8" t="n">
-        <v>2697.149091018222</v>
+        <v>2366.086203674651</v>
       </c>
       <c r="W8" t="n">
-        <v>2697.149091018222</v>
+        <v>2013.317548404537</v>
       </c>
       <c r="X8" t="n">
-        <v>2323.683332757143</v>
+        <v>1639.851790143457</v>
       </c>
       <c r="Y8" t="n">
-        <v>1933.544000781331</v>
+        <v>1249.712458167646</v>
       </c>
     </row>
     <row r="9">
@@ -4857,28 +4857,28 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>988.4979752170825</v>
+        <v>988.4979752170833</v>
       </c>
       <c r="C9" t="n">
-        <v>814.0449459359555</v>
+        <v>814.0449459359563</v>
       </c>
       <c r="D9" t="n">
-        <v>665.1105362747041</v>
+        <v>665.1105362747051</v>
       </c>
       <c r="E9" t="n">
-        <v>505.8730812692486</v>
+        <v>505.8730812692495</v>
       </c>
       <c r="F9" t="n">
-        <v>359.3385232961338</v>
+        <v>359.3385232961344</v>
       </c>
       <c r="G9" t="n">
-        <v>221.4284102424003</v>
+        <v>221.4284102424006</v>
       </c>
       <c r="H9" t="n">
-        <v>115.9856282673422</v>
+        <v>115.9856282673424</v>
       </c>
       <c r="I9" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036444</v>
       </c>
       <c r="J9" t="n">
         <v>129.2001442204943</v>
@@ -4890,40 +4890,40 @@
         <v>789.0633827572647</v>
       </c>
       <c r="M9" t="n">
-        <v>1313.210296315296</v>
+        <v>1297.64725977017</v>
       </c>
       <c r="N9" t="n">
-        <v>1866.936832414847</v>
+        <v>1851.373795869721</v>
       </c>
       <c r="O9" t="n">
-        <v>2307.072755435191</v>
+        <v>2291.509718890065</v>
       </c>
       <c r="P9" t="n">
-        <v>2643.31756905002</v>
+        <v>2627.754532504894</v>
       </c>
       <c r="Q9" t="n">
-        <v>2697.149091018222</v>
+        <v>2697.149091018223</v>
       </c>
       <c r="R9" t="n">
-        <v>2646.935720430047</v>
+        <v>2646.935720430048</v>
       </c>
       <c r="S9" t="n">
-        <v>2488.762748073963</v>
+        <v>2488.762748073964</v>
       </c>
       <c r="T9" t="n">
-        <v>2289.884200196742</v>
+        <v>2289.884200196743</v>
       </c>
       <c r="U9" t="n">
         <v>2061.714576167582</v>
       </c>
       <c r="V9" t="n">
-        <v>1826.562467935839</v>
+        <v>1826.56246793584</v>
       </c>
       <c r="W9" t="n">
-        <v>1572.325111207637</v>
+        <v>1572.325111207638</v>
       </c>
       <c r="X9" t="n">
-        <v>1364.473611002104</v>
+        <v>1364.473611002105</v>
       </c>
       <c r="Y9" t="n">
         <v>1156.713312237151</v>
@@ -4936,31 +4936,31 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>373.0594214943678</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="C10" t="n">
-        <v>373.0594214943678</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="D10" t="n">
-        <v>222.942782082032</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="E10" t="n">
-        <v>222.942782082032</v>
+        <v>580.2158906240411</v>
       </c>
       <c r="F10" t="n">
-        <v>222.942782082032</v>
+        <v>433.3259431261307</v>
       </c>
       <c r="G10" t="n">
-        <v>53.94298182036445</v>
+        <v>264.3261428644631</v>
       </c>
       <c r="H10" t="n">
-        <v>53.94298182036445</v>
+        <v>106.5777702969933</v>
       </c>
       <c r="I10" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036444</v>
       </c>
       <c r="J10" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036444</v>
       </c>
       <c r="K10" t="n">
         <v>110.2451748866326</v>
@@ -5002,10 +5002,10 @@
         <v>728.1289842064342</v>
       </c>
       <c r="X10" t="n">
-        <v>500.1394333084169</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="Y10" t="n">
-        <v>500.1394333084169</v>
+        <v>728.1289842064342</v>
       </c>
     </row>
     <row r="11">
@@ -5036,22 +5036,22 @@
         <v>207.4089578252748</v>
       </c>
       <c r="I11" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036444</v>
       </c>
       <c r="J11" t="n">
         <v>169.7108380533141</v>
       </c>
       <c r="K11" t="n">
-        <v>463.9616490733127</v>
+        <v>463.9616490733126</v>
       </c>
       <c r="L11" t="n">
-        <v>881.2824271224076</v>
+        <v>881.2824271224075</v>
       </c>
       <c r="M11" t="n">
         <v>1362.238747280443</v>
       </c>
       <c r="N11" t="n">
-        <v>1836.345445977175</v>
+        <v>1836.345445977174</v>
       </c>
       <c r="O11" t="n">
         <v>2238.843319642689</v>
@@ -5063,22 +5063,22 @@
         <v>2697.149091018222</v>
       </c>
       <c r="R11" t="n">
-        <v>2697.149091018222</v>
+        <v>2642.120401548715</v>
       </c>
       <c r="S11" t="n">
-        <v>2697.149091018222</v>
+        <v>2642.120401548715</v>
       </c>
       <c r="T11" t="n">
-        <v>2697.149091018222</v>
+        <v>2476.569858826099</v>
       </c>
       <c r="U11" t="n">
-        <v>2697.149091018222</v>
+        <v>2476.569858826099</v>
       </c>
       <c r="V11" t="n">
-        <v>2697.149091018222</v>
+        <v>2476.569858826099</v>
       </c>
       <c r="W11" t="n">
-        <v>2697.149091018222</v>
+        <v>2476.569858826099</v>
       </c>
       <c r="X11" t="n">
         <v>2476.569858826099</v>
@@ -5094,19 +5094,19 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>988.497975217083</v>
+        <v>988.4979752170833</v>
       </c>
       <c r="C12" t="n">
-        <v>814.044945935956</v>
+        <v>814.0449459359563</v>
       </c>
       <c r="D12" t="n">
-        <v>665.1105362747046</v>
+        <v>665.1105362747051</v>
       </c>
       <c r="E12" t="n">
-        <v>505.873081269249</v>
+        <v>505.8730812692495</v>
       </c>
       <c r="F12" t="n">
-        <v>359.3385232961342</v>
+        <v>359.3385232961344</v>
       </c>
       <c r="G12" t="n">
         <v>221.4284102424006</v>
@@ -5115,46 +5115,46 @@
         <v>115.9856282673424</v>
       </c>
       <c r="I12" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036444</v>
       </c>
       <c r="J12" t="n">
-        <v>129.2001442204943</v>
+        <v>53.94298182036444</v>
       </c>
       <c r="K12" t="n">
-        <v>266.2060027641987</v>
+        <v>309.1903022614629</v>
       </c>
       <c r="L12" t="n">
-        <v>670.8219208598706</v>
+        <v>713.8062203571349</v>
       </c>
       <c r="M12" t="n">
-        <v>1194.968834417901</v>
+        <v>1237.953133915166</v>
       </c>
       <c r="N12" t="n">
-        <v>1748.695370517453</v>
+        <v>1791.679670014717</v>
       </c>
       <c r="O12" t="n">
-        <v>2188.831293537797</v>
+        <v>2231.815593035061</v>
       </c>
       <c r="P12" t="n">
-        <v>2525.076107152626</v>
+        <v>2568.06040664989</v>
       </c>
       <c r="Q12" t="n">
-        <v>2697.149091018222</v>
+        <v>2697.149091018223</v>
       </c>
       <c r="R12" t="n">
         <v>2646.935720430048</v>
       </c>
       <c r="S12" t="n">
-        <v>2488.762748073963</v>
+        <v>2488.762748073964</v>
       </c>
       <c r="T12" t="n">
-        <v>2289.884200196742</v>
+        <v>2289.884200196743</v>
       </c>
       <c r="U12" t="n">
         <v>2061.714576167582</v>
       </c>
       <c r="V12" t="n">
-        <v>1826.562467935839</v>
+        <v>1826.56246793584</v>
       </c>
       <c r="W12" t="n">
         <v>1572.325111207638</v>
@@ -5173,61 +5173,61 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036444</v>
       </c>
       <c r="C13" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036444</v>
       </c>
       <c r="D13" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036444</v>
       </c>
       <c r="E13" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036444</v>
       </c>
       <c r="F13" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036444</v>
       </c>
       <c r="G13" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036444</v>
       </c>
       <c r="H13" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036444</v>
       </c>
       <c r="I13" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036444</v>
       </c>
       <c r="J13" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036444</v>
       </c>
       <c r="K13" t="n">
         <v>110.2451748866326</v>
       </c>
       <c r="L13" t="n">
-        <v>237.8190324477911</v>
+        <v>237.819032447791</v>
       </c>
       <c r="M13" t="n">
-        <v>382.716901165821</v>
+        <v>382.7169011658209</v>
       </c>
       <c r="N13" t="n">
-        <v>529.6040388502502</v>
+        <v>529.6040388502499</v>
       </c>
       <c r="O13" t="n">
-        <v>649.2617893594903</v>
+        <v>649.2617893594901</v>
       </c>
       <c r="P13" t="n">
-        <v>728.1289842064344</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="Q13" t="n">
-        <v>698.7120650600564</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="R13" t="n">
-        <v>698.7120650600564</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="S13" t="n">
-        <v>698.7120650600564</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="T13" t="n">
-        <v>698.7120650600564</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="U13" t="n">
         <v>598.0446400632119</v>
@@ -5236,13 +5236,13 @@
         <v>343.360151857325</v>
       </c>
       <c r="W13" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036444</v>
       </c>
       <c r="X13" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036444</v>
       </c>
       <c r="Y13" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036444</v>
       </c>
     </row>
     <row r="14">
@@ -5252,28 +5252,28 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>781.1711973675267</v>
+        <v>1250.638474227114</v>
       </c>
       <c r="C14" t="n">
-        <v>412.2086804271149</v>
+        <v>1250.638474227114</v>
       </c>
       <c r="D14" t="n">
-        <v>53.94298182036445</v>
+        <v>1250.638474227114</v>
       </c>
       <c r="E14" t="n">
-        <v>53.94298182036445</v>
+        <v>1250.638474227114</v>
       </c>
       <c r="F14" t="n">
-        <v>53.94298182036445</v>
+        <v>839.6525694375064</v>
       </c>
       <c r="G14" t="n">
-        <v>53.94298182036445</v>
+        <v>534.603677789272</v>
       </c>
       <c r="H14" t="n">
-        <v>53.94298182036445</v>
+        <v>207.4089578252748</v>
       </c>
       <c r="I14" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036444</v>
       </c>
       <c r="J14" t="n">
         <v>169.7108380533141</v>
@@ -5300,28 +5300,28 @@
         <v>2697.149091018222</v>
       </c>
       <c r="R14" t="n">
-        <v>2697.149091018222</v>
+        <v>2642.120401548715</v>
       </c>
       <c r="S14" t="n">
-        <v>2697.149091018222</v>
+        <v>2465.942913862885</v>
       </c>
       <c r="T14" t="n">
-        <v>2537.906568300563</v>
+        <v>2247.308246834948</v>
       </c>
       <c r="U14" t="n">
-        <v>2284.144782938654</v>
+        <v>1993.54646147304</v>
       </c>
       <c r="V14" t="n">
-        <v>2284.144782938654</v>
+        <v>1993.54646147304</v>
       </c>
       <c r="W14" t="n">
-        <v>1931.37612766854</v>
+        <v>1640.777806202926</v>
       </c>
       <c r="X14" t="n">
-        <v>1557.91036940746</v>
+        <v>1640.777806202926</v>
       </c>
       <c r="Y14" t="n">
-        <v>1167.771037431648</v>
+        <v>1250.638474227114</v>
       </c>
     </row>
     <row r="15">
@@ -5352,28 +5352,28 @@
         <v>115.9856282673424</v>
       </c>
       <c r="I15" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036444</v>
       </c>
       <c r="J15" t="n">
-        <v>53.94298182036445</v>
+        <v>129.2001442204943</v>
       </c>
       <c r="K15" t="n">
-        <v>309.190302261463</v>
+        <v>384.4474646615928</v>
       </c>
       <c r="L15" t="n">
-        <v>713.8062203571349</v>
+        <v>789.0633827572647</v>
       </c>
       <c r="M15" t="n">
-        <v>1194.968834417902</v>
+        <v>1313.210296315296</v>
       </c>
       <c r="N15" t="n">
-        <v>1748.695370517453</v>
+        <v>1866.936832414847</v>
       </c>
       <c r="O15" t="n">
-        <v>2188.831293537797</v>
+        <v>2307.072755435191</v>
       </c>
       <c r="P15" t="n">
-        <v>2525.076107152626</v>
+        <v>2643.31756905002</v>
       </c>
       <c r="Q15" t="n">
         <v>2697.149091018223</v>
@@ -5410,31 +5410,31 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>268.5993065148977</v>
+        <v>562.6765899837194</v>
       </c>
       <c r="C16" t="n">
-        <v>268.5993065148977</v>
+        <v>562.6765899837194</v>
       </c>
       <c r="D16" t="n">
-        <v>268.5993065148977</v>
+        <v>562.6765899837194</v>
       </c>
       <c r="E16" t="n">
-        <v>268.5993065148977</v>
+        <v>562.6765899837194</v>
       </c>
       <c r="F16" t="n">
-        <v>268.5993065148977</v>
+        <v>562.6765899837194</v>
       </c>
       <c r="G16" t="n">
-        <v>99.59950625323012</v>
+        <v>393.6767897220518</v>
       </c>
       <c r="H16" t="n">
-        <v>99.59950625323012</v>
+        <v>235.9284171545819</v>
       </c>
       <c r="I16" t="n">
-        <v>99.59950625323012</v>
+        <v>99.5995062532301</v>
       </c>
       <c r="J16" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036444</v>
       </c>
       <c r="K16" t="n">
         <v>110.2451748866326</v>
@@ -5455,31 +5455,31 @@
         <v>728.1289842064342</v>
       </c>
       <c r="Q16" t="n">
-        <v>698.7120650600561</v>
+        <v>710.8232485495355</v>
       </c>
       <c r="R16" t="n">
-        <v>698.7120650600561</v>
+        <v>562.6765899837194</v>
       </c>
       <c r="S16" t="n">
-        <v>698.7120650600561</v>
+        <v>562.6765899837194</v>
       </c>
       <c r="T16" t="n">
-        <v>698.7120650600561</v>
+        <v>562.6765899837194</v>
       </c>
       <c r="U16" t="n">
-        <v>409.5384547146241</v>
+        <v>562.6765899837194</v>
       </c>
       <c r="V16" t="n">
-        <v>409.5384547146241</v>
+        <v>562.6765899837194</v>
       </c>
       <c r="W16" t="n">
-        <v>268.5993065148977</v>
+        <v>562.6765899837194</v>
       </c>
       <c r="X16" t="n">
-        <v>268.5993065148977</v>
+        <v>562.6765899837194</v>
       </c>
       <c r="Y16" t="n">
-        <v>268.5993065148977</v>
+        <v>562.6765899837194</v>
       </c>
     </row>
     <row r="17">
@@ -5489,28 +5489,28 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>777.3160057778002</v>
+        <v>2476.569858826099</v>
       </c>
       <c r="C17" t="n">
-        <v>408.3534888373885</v>
+        <v>2107.607341885688</v>
       </c>
       <c r="D17" t="n">
-        <v>408.3534888373885</v>
+        <v>1749.341643278937</v>
       </c>
       <c r="E17" t="n">
-        <v>207.4089578252748</v>
+        <v>1363.553390680693</v>
       </c>
       <c r="F17" t="n">
-        <v>207.4089578252748</v>
+        <v>952.5674858910851</v>
       </c>
       <c r="G17" t="n">
-        <v>207.4089578252748</v>
+        <v>534.603677789272</v>
       </c>
       <c r="H17" t="n">
         <v>207.4089578252748</v>
       </c>
       <c r="I17" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036443</v>
       </c>
       <c r="J17" t="n">
         <v>169.7108380533141</v>
@@ -5531,34 +5531,34 @@
         <v>2238.843319642689</v>
       </c>
       <c r="P17" t="n">
-        <v>2544.691559791252</v>
+        <v>2544.691559791251</v>
       </c>
       <c r="Q17" t="n">
-        <v>2697.149091018222</v>
+        <v>2697.149091018221</v>
       </c>
       <c r="R17" t="n">
-        <v>2697.149091018222</v>
+        <v>2697.149091018221</v>
       </c>
       <c r="S17" t="n">
-        <v>2697.149091018222</v>
+        <v>2520.971603332392</v>
       </c>
       <c r="T17" t="n">
-        <v>2478.514423990285</v>
+        <v>2520.971603332392</v>
       </c>
       <c r="U17" t="n">
-        <v>2224.752638628377</v>
+        <v>2520.971603332392</v>
       </c>
       <c r="V17" t="n">
-        <v>1893.689751284806</v>
+        <v>2520.971603332392</v>
       </c>
       <c r="W17" t="n">
-        <v>1540.921096014692</v>
+        <v>2520.971603332392</v>
       </c>
       <c r="X17" t="n">
-        <v>1167.455337753612</v>
+        <v>2520.971603332392</v>
       </c>
       <c r="Y17" t="n">
-        <v>777.3160057778002</v>
+        <v>2520.971603332392</v>
       </c>
     </row>
     <row r="18">
@@ -5589,28 +5589,28 @@
         <v>115.9856282673424</v>
       </c>
       <c r="I18" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036443</v>
       </c>
       <c r="J18" t="n">
-        <v>129.2001442204943</v>
+        <v>129.2001442204942</v>
       </c>
       <c r="K18" t="n">
-        <v>384.4474646615928</v>
+        <v>384.4474646615927</v>
       </c>
       <c r="L18" t="n">
-        <v>789.0633827572647</v>
+        <v>670.8219208598714</v>
       </c>
       <c r="M18" t="n">
-        <v>1313.210296315296</v>
+        <v>1194.968834417902</v>
       </c>
       <c r="N18" t="n">
-        <v>1866.936832414847</v>
+        <v>1748.695370517453</v>
       </c>
       <c r="O18" t="n">
-        <v>2307.072755435191</v>
+        <v>2188.831293537797</v>
       </c>
       <c r="P18" t="n">
-        <v>2643.31756905002</v>
+        <v>2525.076107152626</v>
       </c>
       <c r="Q18" t="n">
         <v>2697.149091018223</v>
@@ -5647,31 +5647,31 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>222.8791647482714</v>
+        <v>204.0596212327002</v>
       </c>
       <c r="C19" t="n">
-        <v>53.94298182036445</v>
+        <v>204.0596212327002</v>
       </c>
       <c r="D19" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036443</v>
       </c>
       <c r="E19" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036443</v>
       </c>
       <c r="F19" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036443</v>
       </c>
       <c r="G19" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036443</v>
       </c>
       <c r="H19" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036443</v>
       </c>
       <c r="I19" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036443</v>
       </c>
       <c r="J19" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036443</v>
       </c>
       <c r="K19" t="n">
         <v>110.2451748866326</v>
@@ -5680,43 +5680,43 @@
         <v>237.819032447791</v>
       </c>
       <c r="M19" t="n">
-        <v>382.7169011658209</v>
+        <v>382.7169011658208</v>
       </c>
       <c r="N19" t="n">
-        <v>529.6040388502499</v>
+        <v>529.6040388502498</v>
       </c>
       <c r="O19" t="n">
-        <v>649.2617893594901</v>
+        <v>649.26178935949</v>
       </c>
       <c r="P19" t="n">
-        <v>728.1289842064342</v>
+        <v>728.1289842064341</v>
       </c>
       <c r="Q19" t="n">
-        <v>698.7120650600561</v>
+        <v>728.1289842064341</v>
       </c>
       <c r="R19" t="n">
-        <v>693.9447996154718</v>
+        <v>728.1289842064341</v>
       </c>
       <c r="S19" t="n">
-        <v>693.9447996154718</v>
+        <v>728.1289842064341</v>
       </c>
       <c r="T19" t="n">
-        <v>693.9447996154718</v>
+        <v>728.1289842064341</v>
       </c>
       <c r="U19" t="n">
-        <v>693.9447996154718</v>
+        <v>493.4767912696608</v>
       </c>
       <c r="V19" t="n">
-        <v>693.9447996154718</v>
+        <v>493.4767912696608</v>
       </c>
       <c r="W19" t="n">
-        <v>404.5276295785111</v>
+        <v>204.0596212327002</v>
       </c>
       <c r="X19" t="n">
-        <v>404.5276295785111</v>
+        <v>204.0596212327002</v>
       </c>
       <c r="Y19" t="n">
-        <v>404.5276295785111</v>
+        <v>204.0596212327002</v>
       </c>
     </row>
     <row r="20">
@@ -5726,37 +5726,37 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>1791.109440255352</v>
+        <v>2169.72394915887</v>
       </c>
       <c r="C20" t="n">
-        <v>1422.14692331494</v>
+        <v>1800.761432218458</v>
       </c>
       <c r="D20" t="n">
-        <v>1422.14692331494</v>
+        <v>1442.495733611708</v>
       </c>
       <c r="E20" t="n">
-        <v>1036.358670716696</v>
+        <v>1056.707481013463</v>
       </c>
       <c r="F20" t="n">
-        <v>625.3727659270879</v>
+        <v>645.7215762238559</v>
       </c>
       <c r="G20" t="n">
-        <v>207.4089578252748</v>
+        <v>227.7577681220428</v>
       </c>
       <c r="H20" t="n">
-        <v>207.4089578252748</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="I20" t="n">
         <v>53.94298182036445</v>
       </c>
       <c r="J20" t="n">
-        <v>169.710838053314</v>
+        <v>169.7108380533141</v>
       </c>
       <c r="K20" t="n">
-        <v>463.9616490733125</v>
+        <v>463.9616490733126</v>
       </c>
       <c r="L20" t="n">
-        <v>881.2824271224073</v>
+        <v>881.2824271224075</v>
       </c>
       <c r="M20" t="n">
         <v>1362.238747280443</v>
@@ -5786,16 +5786,16 @@
         <v>2169.72394915887</v>
       </c>
       <c r="V20" t="n">
-        <v>1838.661061815299</v>
+        <v>2169.72394915887</v>
       </c>
       <c r="W20" t="n">
-        <v>1838.661061815299</v>
+        <v>2169.72394915887</v>
       </c>
       <c r="X20" t="n">
-        <v>1838.661061815299</v>
+        <v>2169.72394915887</v>
       </c>
       <c r="Y20" t="n">
-        <v>1838.661061815299</v>
+        <v>2169.72394915887</v>
       </c>
     </row>
     <row r="21">
@@ -5829,22 +5829,22 @@
         <v>53.94298182036445</v>
       </c>
       <c r="J21" t="n">
-        <v>53.94298182036445</v>
+        <v>129.2001442204943</v>
       </c>
       <c r="K21" t="n">
-        <v>309.190302261463</v>
+        <v>384.4474646615928</v>
       </c>
       <c r="L21" t="n">
-        <v>713.8062203571349</v>
+        <v>789.0633827572647</v>
       </c>
       <c r="M21" t="n">
-        <v>1237.953133915166</v>
+        <v>1313.210296315296</v>
       </c>
       <c r="N21" t="n">
-        <v>1748.695370517453</v>
+        <v>1866.936832414847</v>
       </c>
       <c r="O21" t="n">
-        <v>2188.831293537797</v>
+        <v>2307.072755435191</v>
       </c>
       <c r="P21" t="n">
         <v>2525.076107152626</v>
@@ -5884,19 +5884,19 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>369.8327295799424</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="C22" t="n">
-        <v>369.8327295799424</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="D22" t="n">
-        <v>369.8327295799424</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="E22" t="n">
-        <v>369.8327295799424</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="F22" t="n">
-        <v>222.942782082032</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="G22" t="n">
         <v>53.94298182036445</v>
@@ -5929,31 +5929,31 @@
         <v>728.1289842064342</v>
       </c>
       <c r="Q22" t="n">
-        <v>698.7120650600561</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="R22" t="n">
-        <v>698.7120650600561</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="S22" t="n">
-        <v>698.7120650600561</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="T22" t="n">
-        <v>698.7120650600561</v>
+        <v>597.8010803716834</v>
       </c>
       <c r="U22" t="n">
-        <v>409.5384547146241</v>
+        <v>308.6274700262513</v>
       </c>
       <c r="V22" t="n">
-        <v>409.5384547146241</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="W22" t="n">
-        <v>369.8327295799424</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="X22" t="n">
-        <v>369.8327295799424</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="Y22" t="n">
-        <v>369.8327295799424</v>
+        <v>53.94298182036445</v>
       </c>
     </row>
     <row r="23">
@@ -5963,22 +5963,22 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>589.4492616060802</v>
+        <v>1546.944160717209</v>
       </c>
       <c r="C23" t="n">
-        <v>220.4867446656685</v>
+        <v>1177.981643776797</v>
       </c>
       <c r="D23" t="n">
-        <v>220.4867446656685</v>
+        <v>819.715945170047</v>
       </c>
       <c r="E23" t="n">
-        <v>220.4867446656685</v>
+        <v>819.715945170047</v>
       </c>
       <c r="F23" t="n">
-        <v>220.4867446656685</v>
+        <v>408.7300403804394</v>
       </c>
       <c r="G23" t="n">
-        <v>220.4867446656685</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="H23" t="n">
         <v>53.94298182036445</v>
@@ -5987,13 +5987,13 @@
         <v>53.94298182036445</v>
       </c>
       <c r="J23" t="n">
-        <v>169.7108380533142</v>
+        <v>169.7108380533141</v>
       </c>
       <c r="K23" t="n">
         <v>463.9616490733126</v>
       </c>
       <c r="L23" t="n">
-        <v>881.2824271224074</v>
+        <v>881.2824271224075</v>
       </c>
       <c r="M23" t="n">
         <v>1362.238747280443</v>
@@ -6011,28 +6011,28 @@
         <v>2697.149091018222</v>
       </c>
       <c r="R23" t="n">
-        <v>2642.120401548716</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="S23" t="n">
-        <v>2642.120401548716</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="T23" t="n">
-        <v>2423.485734520778</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="U23" t="n">
-        <v>2423.485734520778</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="V23" t="n">
-        <v>2092.422847177208</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="W23" t="n">
-        <v>1739.654191907093</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="X23" t="n">
-        <v>1366.188433646014</v>
+        <v>2323.683332757143</v>
       </c>
       <c r="Y23" t="n">
-        <v>976.0491016702019</v>
+        <v>1933.544000781331</v>
       </c>
     </row>
     <row r="24">
@@ -6078,13 +6078,13 @@
         <v>1313.210296315296</v>
       </c>
       <c r="N24" t="n">
-        <v>1748.695370517453</v>
+        <v>1866.936832414847</v>
       </c>
       <c r="O24" t="n">
-        <v>2188.831293537797</v>
+        <v>2291.509718890065</v>
       </c>
       <c r="P24" t="n">
-        <v>2525.076107152626</v>
+        <v>2627.754532504894</v>
       </c>
       <c r="Q24" t="n">
         <v>2697.149091018223</v>
@@ -6121,76 +6121,76 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>53.94298182036445</v>
+        <v>2320.992821626882</v>
       </c>
       <c r="C25" t="n">
-        <v>53.94298182036445</v>
+        <v>2320.992821626882</v>
       </c>
       <c r="D25" t="n">
-        <v>53.94298182036445</v>
+        <v>2170.876182214546</v>
       </c>
       <c r="E25" t="n">
-        <v>53.94298182036445</v>
+        <v>2022.963088632153</v>
       </c>
       <c r="F25" t="n">
-        <v>53.94298182036445</v>
+        <v>2022.963088632153</v>
       </c>
       <c r="G25" t="n">
-        <v>53.94298182036445</v>
+        <v>2022.963088632153</v>
       </c>
       <c r="H25" t="n">
-        <v>53.94298182036445</v>
+        <v>2022.963088632153</v>
       </c>
       <c r="I25" t="n">
-        <v>53.94298182036445</v>
+        <v>2022.963088632153</v>
       </c>
       <c r="J25" t="n">
-        <v>53.94298182036445</v>
+        <v>2022.963088632153</v>
       </c>
       <c r="K25" t="n">
-        <v>110.2451748866326</v>
+        <v>2079.265281698421</v>
       </c>
       <c r="L25" t="n">
-        <v>237.819032447791</v>
+        <v>2206.839139259579</v>
       </c>
       <c r="M25" t="n">
-        <v>382.7169011658209</v>
+        <v>2351.737007977609</v>
       </c>
       <c r="N25" t="n">
-        <v>529.6040388502499</v>
+        <v>2498.624145662038</v>
       </c>
       <c r="O25" t="n">
-        <v>649.2617893594901</v>
+        <v>2618.281896171278</v>
       </c>
       <c r="P25" t="n">
-        <v>728.1289842064342</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="Q25" t="n">
-        <v>728.1289842064342</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="R25" t="n">
-        <v>728.1289842064342</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="S25" t="n">
-        <v>513.8405610245969</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="T25" t="n">
-        <v>286.5323736931987</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="U25" t="n">
-        <v>53.94298182036445</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="V25" t="n">
-        <v>53.94298182036445</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="W25" t="n">
-        <v>53.94298182036445</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="X25" t="n">
-        <v>53.94298182036445</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="Y25" t="n">
-        <v>53.94298182036445</v>
+        <v>2502.641286457122</v>
       </c>
     </row>
     <row r="26">
@@ -6200,25 +6200,25 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>2107.607341885688</v>
+        <v>1893.689751284806</v>
       </c>
       <c r="C26" t="n">
-        <v>2107.607341885688</v>
+        <v>1893.689751284806</v>
       </c>
       <c r="D26" t="n">
-        <v>1749.341643278937</v>
+        <v>1535.424052678055</v>
       </c>
       <c r="E26" t="n">
-        <v>1363.553390680693</v>
+        <v>1149.635800079811</v>
       </c>
       <c r="F26" t="n">
-        <v>952.5674858910851</v>
+        <v>738.6498952902036</v>
       </c>
       <c r="G26" t="n">
-        <v>534.603677789272</v>
+        <v>320.6860871883905</v>
       </c>
       <c r="H26" t="n">
-        <v>207.4089578252748</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="I26" t="n">
         <v>53.94298182036445</v>
@@ -6230,7 +6230,7 @@
         <v>463.9616490733126</v>
       </c>
       <c r="L26" t="n">
-        <v>881.2824271224074</v>
+        <v>881.2824271224075</v>
       </c>
       <c r="M26" t="n">
         <v>1362.238747280443</v>
@@ -6254,22 +6254,22 @@
         <v>2697.149091018222</v>
       </c>
       <c r="T26" t="n">
-        <v>2697.149091018222</v>
+        <v>2478.514423990285</v>
       </c>
       <c r="U26" t="n">
-        <v>2697.149091018222</v>
+        <v>2224.752638628377</v>
       </c>
       <c r="V26" t="n">
-        <v>2366.086203674652</v>
+        <v>1893.689751284806</v>
       </c>
       <c r="W26" t="n">
-        <v>2366.086203674652</v>
+        <v>1893.689751284806</v>
       </c>
       <c r="X26" t="n">
-        <v>2366.086203674652</v>
+        <v>1893.689751284806</v>
       </c>
       <c r="Y26" t="n">
-        <v>2107.607341885688</v>
+        <v>1893.689751284806</v>
       </c>
     </row>
     <row r="27">
@@ -6279,22 +6279,22 @@
         </is>
       </c>
       <c r="B27" t="n">
-        <v>988.4979752170833</v>
+        <v>988.497975217083</v>
       </c>
       <c r="C27" t="n">
-        <v>814.0449459359563</v>
+        <v>814.044945935956</v>
       </c>
       <c r="D27" t="n">
-        <v>665.1105362747051</v>
+        <v>665.1105362747046</v>
       </c>
       <c r="E27" t="n">
-        <v>505.8730812692495</v>
+        <v>505.873081269249</v>
       </c>
       <c r="F27" t="n">
-        <v>359.3385232961344</v>
+        <v>359.3385232961342</v>
       </c>
       <c r="G27" t="n">
-        <v>221.4284102424006</v>
+        <v>221.4284102424003</v>
       </c>
       <c r="H27" t="n">
         <v>115.9856282673424</v>
@@ -6303,43 +6303,43 @@
         <v>53.94298182036445</v>
       </c>
       <c r="J27" t="n">
-        <v>53.94298182036445</v>
+        <v>129.2001442204943</v>
       </c>
       <c r="K27" t="n">
-        <v>309.190302261463</v>
+        <v>384.4474646615928</v>
       </c>
       <c r="L27" t="n">
-        <v>713.8062203571349</v>
+        <v>789.0633827572647</v>
       </c>
       <c r="M27" t="n">
-        <v>1237.953133915166</v>
+        <v>1313.210296315296</v>
       </c>
       <c r="N27" t="n">
-        <v>1791.679670014717</v>
+        <v>1866.936832414847</v>
       </c>
       <c r="O27" t="n">
-        <v>2231.815593035061</v>
+        <v>2307.072755435191</v>
       </c>
       <c r="P27" t="n">
-        <v>2568.06040664989</v>
+        <v>2643.31756905002</v>
       </c>
       <c r="Q27" t="n">
-        <v>2697.149091018223</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="R27" t="n">
-        <v>2646.935720430048</v>
+        <v>2646.935720430047</v>
       </c>
       <c r="S27" t="n">
-        <v>2488.762748073964</v>
+        <v>2488.762748073963</v>
       </c>
       <c r="T27" t="n">
-        <v>2289.884200196743</v>
+        <v>2289.884200196742</v>
       </c>
       <c r="U27" t="n">
         <v>2061.714576167582</v>
       </c>
       <c r="V27" t="n">
-        <v>1826.56246793584</v>
+        <v>1826.562467935839</v>
       </c>
       <c r="W27" t="n">
         <v>1572.325111207638</v>
@@ -6358,19 +6358,19 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>98.37975290126613</v>
+        <v>546.4805193761945</v>
       </c>
       <c r="C28" t="n">
-        <v>98.37975290126613</v>
+        <v>377.5443364482876</v>
       </c>
       <c r="D28" t="n">
-        <v>98.37975290126613</v>
+        <v>227.4276970359519</v>
       </c>
       <c r="E28" t="n">
-        <v>98.37975290126613</v>
+        <v>79.51460345355875</v>
       </c>
       <c r="F28" t="n">
-        <v>98.37975290126613</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="G28" t="n">
         <v>53.94298182036445</v>
@@ -6412,22 +6412,22 @@
         <v>728.1289842064342</v>
       </c>
       <c r="T28" t="n">
-        <v>500.820796875036</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="U28" t="n">
-        <v>500.820796875036</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="V28" t="n">
-        <v>500.820796875036</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="W28" t="n">
-        <v>500.820796875036</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="X28" t="n">
-        <v>500.820796875036</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="Y28" t="n">
-        <v>280.0282177315058</v>
+        <v>728.1289842064342</v>
       </c>
     </row>
     <row r="29">
@@ -6437,19 +6437,19 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>1606.946621408918</v>
+        <v>1331.061315312042</v>
       </c>
       <c r="C29" t="n">
-        <v>1237.984104468507</v>
+        <v>1331.061315312042</v>
       </c>
       <c r="D29" t="n">
-        <v>945.5895825788796</v>
+        <v>972.7956167052919</v>
       </c>
       <c r="E29" t="n">
-        <v>945.5895825788796</v>
+        <v>972.7956167052919</v>
       </c>
       <c r="F29" t="n">
-        <v>534.603677789272</v>
+        <v>561.8097119156844</v>
       </c>
       <c r="G29" t="n">
         <v>534.603677789272</v>
@@ -6467,7 +6467,7 @@
         <v>463.9616490733126</v>
       </c>
       <c r="L29" t="n">
-        <v>881.2824271224074</v>
+        <v>881.2824271224075</v>
       </c>
       <c r="M29" t="n">
         <v>1362.238747280443</v>
@@ -6488,25 +6488,25 @@
         <v>2642.120401548716</v>
       </c>
       <c r="S29" t="n">
-        <v>2465.942913862886</v>
+        <v>2642.120401548716</v>
       </c>
       <c r="T29" t="n">
-        <v>2247.308246834948</v>
+        <v>2642.120401548716</v>
       </c>
       <c r="U29" t="n">
-        <v>1993.54646147304</v>
+        <v>2388.358616186807</v>
       </c>
       <c r="V29" t="n">
-        <v>1993.54646147304</v>
+        <v>2057.295728843236</v>
       </c>
       <c r="W29" t="n">
-        <v>1993.54646147304</v>
+        <v>1704.527073573122</v>
       </c>
       <c r="X29" t="n">
-        <v>1993.54646147304</v>
+        <v>1331.061315312042</v>
       </c>
       <c r="Y29" t="n">
-        <v>1993.54646147304</v>
+        <v>1331.061315312042</v>
       </c>
     </row>
     <row r="30">
@@ -6552,13 +6552,13 @@
         <v>1313.210296315296</v>
       </c>
       <c r="N30" t="n">
-        <v>1748.695370517453</v>
+        <v>1866.936832414847</v>
       </c>
       <c r="O30" t="n">
-        <v>2188.831293537797</v>
+        <v>2307.072755435191</v>
       </c>
       <c r="P30" t="n">
-        <v>2525.076107152626</v>
+        <v>2643.31756905002</v>
       </c>
       <c r="Q30" t="n">
         <v>2697.149091018223</v>
@@ -6595,16 +6595,16 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>2169.853036130063</v>
+        <v>2179.742370083244</v>
       </c>
       <c r="C31" t="n">
-        <v>2169.853036130063</v>
+        <v>2022.963088632153</v>
       </c>
       <c r="D31" t="n">
-        <v>2169.853036130063</v>
+        <v>2022.963088632153</v>
       </c>
       <c r="E31" t="n">
-        <v>2169.853036130063</v>
+        <v>2022.963088632153</v>
       </c>
       <c r="F31" t="n">
         <v>2022.963088632153</v>
@@ -6646,25 +6646,25 @@
         <v>2697.149091018222</v>
       </c>
       <c r="S31" t="n">
-        <v>2482.860667836385</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="T31" t="n">
-        <v>2482.860667836385</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="U31" t="n">
-        <v>2390.645615273593</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="V31" t="n">
-        <v>2390.645615273593</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="W31" t="n">
-        <v>2390.645615273593</v>
+        <v>2407.731920981262</v>
       </c>
       <c r="X31" t="n">
-        <v>2390.645615273593</v>
+        <v>2179.742370083244</v>
       </c>
       <c r="Y31" t="n">
-        <v>2169.853036130063</v>
+        <v>2179.742370083244</v>
       </c>
     </row>
     <row r="32">
@@ -6674,31 +6674,31 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>792.1236065739693</v>
+        <v>2476.569858826099</v>
       </c>
       <c r="C32" t="n">
-        <v>792.1236065739693</v>
+        <v>2107.607341885688</v>
       </c>
       <c r="D32" t="n">
-        <v>792.1236065739693</v>
+        <v>1749.341643278937</v>
       </c>
       <c r="E32" t="n">
-        <v>792.1236065739693</v>
+        <v>1363.553390680693</v>
       </c>
       <c r="F32" t="n">
-        <v>381.1377017843616</v>
+        <v>952.5674858910851</v>
       </c>
       <c r="G32" t="n">
-        <v>381.1377017843616</v>
+        <v>534.603677789272</v>
       </c>
       <c r="H32" t="n">
-        <v>53.94298182036445</v>
+        <v>207.4089578252748</v>
       </c>
       <c r="I32" t="n">
         <v>53.94298182036445</v>
       </c>
       <c r="J32" t="n">
-        <v>169.7108380533141</v>
+        <v>169.7108380533142</v>
       </c>
       <c r="K32" t="n">
         <v>463.9616490733126</v>
@@ -6722,28 +6722,28 @@
         <v>2697.149091018222</v>
       </c>
       <c r="R32" t="n">
-        <v>2642.120401548716</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="S32" t="n">
-        <v>2465.942913862886</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="T32" t="n">
-        <v>2247.308246834948</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="U32" t="n">
-        <v>1993.54646147304</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="V32" t="n">
-        <v>1662.48357412947</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="W32" t="n">
-        <v>1309.714918859356</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="X32" t="n">
-        <v>1182.262938549781</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="Y32" t="n">
-        <v>792.1236065739693</v>
+        <v>2697.149091018222</v>
       </c>
     </row>
     <row r="33">
@@ -6753,67 +6753,67 @@
         </is>
       </c>
       <c r="B33" t="n">
-        <v>988.497975217083</v>
+        <v>988.4979752170833</v>
       </c>
       <c r="C33" t="n">
-        <v>814.044945935956</v>
+        <v>814.0449459359563</v>
       </c>
       <c r="D33" t="n">
-        <v>665.1105362747047</v>
+        <v>665.1105362747051</v>
       </c>
       <c r="E33" t="n">
-        <v>505.8730812692492</v>
+        <v>505.8730812692495</v>
       </c>
       <c r="F33" t="n">
-        <v>359.3385232961342</v>
+        <v>359.3385232961344</v>
       </c>
       <c r="G33" t="n">
-        <v>221.4284102424003</v>
+        <v>221.4284102424006</v>
       </c>
       <c r="H33" t="n">
-        <v>115.9856282673422</v>
+        <v>115.9856282673424</v>
       </c>
       <c r="I33" t="n">
-        <v>53.94298182036422</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="J33" t="n">
-        <v>129.200144220494</v>
+        <v>129.2001442204943</v>
       </c>
       <c r="K33" t="n">
-        <v>384.4474646615926</v>
+        <v>384.4474646615928</v>
       </c>
       <c r="L33" t="n">
-        <v>789.0633827572644</v>
+        <v>789.0633827572647</v>
       </c>
       <c r="M33" t="n">
-        <v>1313.210296315295</v>
+        <v>1313.210296315296</v>
       </c>
       <c r="N33" t="n">
-        <v>1866.936832414846</v>
+        <v>1866.936832414847</v>
       </c>
       <c r="O33" t="n">
-        <v>2307.07275543519</v>
+        <v>2307.072755435191</v>
       </c>
       <c r="P33" t="n">
-        <v>2643.317569050019</v>
+        <v>2643.31756905002</v>
       </c>
       <c r="Q33" t="n">
-        <v>2697.149091018222</v>
+        <v>2697.149091018223</v>
       </c>
       <c r="R33" t="n">
-        <v>2646.935720430047</v>
+        <v>2646.935720430048</v>
       </c>
       <c r="S33" t="n">
-        <v>2488.762748073963</v>
+        <v>2488.762748073964</v>
       </c>
       <c r="T33" t="n">
-        <v>2289.884200196742</v>
+        <v>2289.884200196743</v>
       </c>
       <c r="U33" t="n">
         <v>2061.714576167582</v>
       </c>
       <c r="V33" t="n">
-        <v>1826.562467935839</v>
+        <v>1826.56246793584</v>
       </c>
       <c r="W33" t="n">
         <v>1572.325111207638</v>
@@ -6832,25 +6832,25 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>359.2716929833838</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="C34" t="n">
-        <v>359.2716929833838</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="D34" t="n">
-        <v>359.2716929833838</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="E34" t="n">
-        <v>359.2716929833838</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="F34" t="n">
-        <v>359.2716929833838</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="G34" t="n">
-        <v>190.2718927217162</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="H34" t="n">
-        <v>190.2718927217162</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="I34" t="n">
         <v>53.94298182036445</v>
@@ -6889,19 +6889,19 @@
         <v>728.1289842064342</v>
       </c>
       <c r="U34" t="n">
-        <v>728.1289842064342</v>
+        <v>438.9553738610022</v>
       </c>
       <c r="V34" t="n">
-        <v>728.1289842064342</v>
+        <v>184.2708856551153</v>
       </c>
       <c r="W34" t="n">
-        <v>438.7118141694736</v>
+        <v>184.2708856551153</v>
       </c>
       <c r="X34" t="n">
-        <v>438.7118141694736</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="Y34" t="n">
-        <v>359.2716929833838</v>
+        <v>53.94298182036445</v>
       </c>
     </row>
     <row r="35">
@@ -6911,22 +6911,22 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>1166.959449965771</v>
+        <v>2310.5492509541</v>
       </c>
       <c r="C35" t="n">
-        <v>797.9969330253591</v>
+        <v>1941.586734013689</v>
       </c>
       <c r="D35" t="n">
-        <v>439.7312344186087</v>
+        <v>1583.321035406938</v>
       </c>
       <c r="E35" t="n">
-        <v>53.94298182036445</v>
+        <v>1197.532782808694</v>
       </c>
       <c r="F35" t="n">
-        <v>53.94298182036445</v>
+        <v>786.5468780190865</v>
       </c>
       <c r="G35" t="n">
-        <v>53.94298182036445</v>
+        <v>381.1377017843616</v>
       </c>
       <c r="H35" t="n">
         <v>53.94298182036445</v>
@@ -6941,13 +6941,13 @@
         <v>463.9616490733126</v>
       </c>
       <c r="L35" t="n">
-        <v>881.2824271224074</v>
+        <v>881.2824271224079</v>
       </c>
       <c r="M35" t="n">
         <v>1362.238747280443</v>
       </c>
       <c r="N35" t="n">
-        <v>1836.345445977174</v>
+        <v>1836.345445977175</v>
       </c>
       <c r="O35" t="n">
         <v>2238.843319642689</v>
@@ -6968,19 +6968,19 @@
         <v>2697.149091018222</v>
       </c>
       <c r="U35" t="n">
-        <v>2443.387305656314</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="V35" t="n">
-        <v>2443.387305656314</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="W35" t="n">
-        <v>2317.164380266784</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="X35" t="n">
-        <v>1943.698622005704</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="Y35" t="n">
-        <v>1553.559290029893</v>
+        <v>2697.149091018222</v>
       </c>
     </row>
     <row r="36">
@@ -7014,25 +7014,25 @@
         <v>53.94298182036445</v>
       </c>
       <c r="J36" t="n">
-        <v>53.94298182036445</v>
+        <v>129.2001442204943</v>
       </c>
       <c r="K36" t="n">
-        <v>309.190302261463</v>
+        <v>384.4474646615928</v>
       </c>
       <c r="L36" t="n">
-        <v>713.8062203571349</v>
+        <v>789.0633827572647</v>
       </c>
       <c r="M36" t="n">
-        <v>1194.968834417902</v>
+        <v>1313.210296315296</v>
       </c>
       <c r="N36" t="n">
-        <v>1748.695370517453</v>
+        <v>1866.936832414847</v>
       </c>
       <c r="O36" t="n">
-        <v>2188.831293537797</v>
+        <v>2307.072755435191</v>
       </c>
       <c r="P36" t="n">
-        <v>2525.076107152626</v>
+        <v>2643.31756905002</v>
       </c>
       <c r="Q36" t="n">
         <v>2697.149091018223</v>
@@ -7069,10 +7069,10 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>204.0596212327002</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="C37" t="n">
-        <v>204.0596212327002</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="D37" t="n">
         <v>53.94298182036445</v>
@@ -7117,28 +7117,28 @@
         <v>728.1289842064342</v>
       </c>
       <c r="R37" t="n">
-        <v>675.1252560999005</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="S37" t="n">
-        <v>675.1252560999005</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="T37" t="n">
-        <v>675.1252560999005</v>
+        <v>597.8010803716834</v>
       </c>
       <c r="U37" t="n">
-        <v>675.1252560999005</v>
+        <v>308.6274700262513</v>
       </c>
       <c r="V37" t="n">
-        <v>675.1252560999005</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="W37" t="n">
-        <v>385.7080860629399</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="X37" t="n">
-        <v>385.7080860629399</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="Y37" t="n">
-        <v>385.7080860629399</v>
+        <v>53.94298182036445</v>
       </c>
     </row>
     <row r="38">
@@ -7148,37 +7148,37 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>1937.083492693021</v>
+        <v>609.3508327416157</v>
       </c>
       <c r="C38" t="n">
-        <v>1595.875667274027</v>
+        <v>609.3508327416157</v>
       </c>
       <c r="D38" t="n">
-        <v>1595.875667274027</v>
+        <v>609.3508327416157</v>
       </c>
       <c r="E38" t="n">
-        <v>1210.087414675782</v>
+        <v>464.928886609972</v>
       </c>
       <c r="F38" t="n">
-        <v>799.1015098861748</v>
+        <v>53.94298182036444</v>
       </c>
       <c r="G38" t="n">
-        <v>381.1377017843616</v>
+        <v>53.94298182036444</v>
       </c>
       <c r="H38" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036444</v>
       </c>
       <c r="I38" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036444</v>
       </c>
       <c r="J38" t="n">
-        <v>169.7108380533142</v>
+        <v>169.7108380533141</v>
       </c>
       <c r="K38" t="n">
-        <v>463.9616490733125</v>
+        <v>463.9616490733126</v>
       </c>
       <c r="L38" t="n">
-        <v>881.2824271224073</v>
+        <v>881.2824271224074</v>
       </c>
       <c r="M38" t="n">
         <v>1362.238747280443</v>
@@ -7205,19 +7205,19 @@
         <v>2697.149091018222</v>
       </c>
       <c r="U38" t="n">
-        <v>2697.149091018222</v>
+        <v>2443.387305656314</v>
       </c>
       <c r="V38" t="n">
-        <v>2697.149091018222</v>
+        <v>2112.324418312743</v>
       </c>
       <c r="W38" t="n">
-        <v>2697.149091018222</v>
+        <v>1759.555763042629</v>
       </c>
       <c r="X38" t="n">
-        <v>2323.683332757143</v>
+        <v>1386.090004781549</v>
       </c>
       <c r="Y38" t="n">
-        <v>2323.683332757143</v>
+        <v>995.9506728057374</v>
       </c>
     </row>
     <row r="39">
@@ -7227,28 +7227,28 @@
         </is>
       </c>
       <c r="B39" t="n">
-        <v>988.4979752170833</v>
+        <v>988.4979752170825</v>
       </c>
       <c r="C39" t="n">
-        <v>814.0449459359563</v>
+        <v>814.0449459359555</v>
       </c>
       <c r="D39" t="n">
-        <v>665.1105362747051</v>
+        <v>665.1105362747043</v>
       </c>
       <c r="E39" t="n">
-        <v>505.8730812692495</v>
+        <v>505.8730812692488</v>
       </c>
       <c r="F39" t="n">
-        <v>359.3385232961344</v>
+        <v>359.3385232961338</v>
       </c>
       <c r="G39" t="n">
-        <v>221.4284102424006</v>
+        <v>221.4284102423999</v>
       </c>
       <c r="H39" t="n">
-        <v>115.9856282673424</v>
+        <v>115.9856282673417</v>
       </c>
       <c r="I39" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036444</v>
       </c>
       <c r="J39" t="n">
         <v>129.2001442204943</v>
@@ -7263,37 +7263,37 @@
         <v>1313.210296315296</v>
       </c>
       <c r="N39" t="n">
-        <v>1866.936832414847</v>
+        <v>1748.695370517452</v>
       </c>
       <c r="O39" t="n">
-        <v>2307.072755435191</v>
+        <v>2188.831293537796</v>
       </c>
       <c r="P39" t="n">
-        <v>2643.31756905002</v>
+        <v>2525.076107152625</v>
       </c>
       <c r="Q39" t="n">
-        <v>2697.149091018223</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="R39" t="n">
-        <v>2646.935720430048</v>
+        <v>2646.935720430047</v>
       </c>
       <c r="S39" t="n">
-        <v>2488.762748073964</v>
+        <v>2488.762748073963</v>
       </c>
       <c r="T39" t="n">
-        <v>2289.884200196743</v>
+        <v>2289.884200196742</v>
       </c>
       <c r="U39" t="n">
         <v>2061.714576167582</v>
       </c>
       <c r="V39" t="n">
-        <v>1826.56246793584</v>
+        <v>1826.562467935839</v>
       </c>
       <c r="W39" t="n">
-        <v>1572.325111207638</v>
+        <v>1572.325111207637</v>
       </c>
       <c r="X39" t="n">
-        <v>1364.473611002105</v>
+        <v>1364.473611002104</v>
       </c>
       <c r="Y39" t="n">
         <v>1156.713312237151</v>
@@ -7306,31 +7306,31 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>678.65727031047</v>
+        <v>53.94298182036444</v>
       </c>
       <c r="C40" t="n">
-        <v>509.7210873825632</v>
+        <v>53.94298182036444</v>
       </c>
       <c r="D40" t="n">
-        <v>359.6044479702274</v>
+        <v>53.94298182036444</v>
       </c>
       <c r="E40" t="n">
-        <v>211.6913543878343</v>
+        <v>53.94298182036444</v>
       </c>
       <c r="F40" t="n">
-        <v>211.6913543878343</v>
+        <v>53.94298182036444</v>
       </c>
       <c r="G40" t="n">
-        <v>211.6913543878343</v>
+        <v>53.94298182036444</v>
       </c>
       <c r="H40" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036444</v>
       </c>
       <c r="I40" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036444</v>
       </c>
       <c r="J40" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036444</v>
       </c>
       <c r="K40" t="n">
         <v>110.2451748866326</v>
@@ -7351,31 +7351,31 @@
         <v>728.1289842064342</v>
       </c>
       <c r="Q40" t="n">
-        <v>728.1289842064342</v>
+        <v>698.7120650600561</v>
       </c>
       <c r="R40" t="n">
-        <v>678.65727031047</v>
+        <v>550.5654064942401</v>
       </c>
       <c r="S40" t="n">
-        <v>678.65727031047</v>
+        <v>336.2769833124028</v>
       </c>
       <c r="T40" t="n">
-        <v>678.65727031047</v>
+        <v>336.2769833124028</v>
       </c>
       <c r="U40" t="n">
-        <v>678.65727031047</v>
+        <v>336.2769833124028</v>
       </c>
       <c r="V40" t="n">
-        <v>678.65727031047</v>
+        <v>81.59249510651588</v>
       </c>
       <c r="W40" t="n">
-        <v>678.65727031047</v>
+        <v>53.94298182036444</v>
       </c>
       <c r="X40" t="n">
-        <v>678.65727031047</v>
+        <v>53.94298182036444</v>
       </c>
       <c r="Y40" t="n">
-        <v>678.65727031047</v>
+        <v>53.94298182036444</v>
       </c>
     </row>
     <row r="41">
@@ -7385,22 +7385,22 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>1626.717708340416</v>
+        <v>1567.641263708175</v>
       </c>
       <c r="C41" t="n">
-        <v>1257.755191400004</v>
+        <v>1198.678746767763</v>
       </c>
       <c r="D41" t="n">
-        <v>1257.755191400004</v>
+        <v>840.4130481610125</v>
       </c>
       <c r="E41" t="n">
-        <v>1036.358670716696</v>
+        <v>840.4130481610125</v>
       </c>
       <c r="F41" t="n">
-        <v>625.3727659270879</v>
+        <v>840.4130481610125</v>
       </c>
       <c r="G41" t="n">
-        <v>207.4089578252748</v>
+        <v>422.4492400591994</v>
       </c>
       <c r="H41" t="n">
         <v>207.4089578252748</v>
@@ -7412,16 +7412,16 @@
         <v>169.7108380533141</v>
       </c>
       <c r="K41" t="n">
-        <v>463.9616490733124</v>
+        <v>463.9616490733126</v>
       </c>
       <c r="L41" t="n">
-        <v>881.2824271224073</v>
+        <v>881.2824271224079</v>
       </c>
       <c r="M41" t="n">
         <v>1362.238747280443</v>
       </c>
       <c r="N41" t="n">
-        <v>1836.345445977174</v>
+        <v>1836.345445977175</v>
       </c>
       <c r="O41" t="n">
         <v>2238.843319642689</v>
@@ -7445,16 +7445,16 @@
         <v>2697.149091018222</v>
       </c>
       <c r="V41" t="n">
-        <v>2366.086203674652</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="W41" t="n">
-        <v>2013.317548404538</v>
+        <v>2344.380435748108</v>
       </c>
       <c r="X41" t="n">
-        <v>2013.317548404538</v>
+        <v>2344.380435748108</v>
       </c>
       <c r="Y41" t="n">
-        <v>2013.317548404538</v>
+        <v>1954.241103772296</v>
       </c>
     </row>
     <row r="42">
@@ -7488,25 +7488,25 @@
         <v>53.94298182036445</v>
       </c>
       <c r="J42" t="n">
-        <v>53.94298182036445</v>
+        <v>129.2001442204943</v>
       </c>
       <c r="K42" t="n">
-        <v>309.190302261463</v>
+        <v>384.4474646615928</v>
       </c>
       <c r="L42" t="n">
-        <v>713.8062203571349</v>
+        <v>789.0633827572647</v>
       </c>
       <c r="M42" t="n">
-        <v>1237.953133915166</v>
+        <v>1313.210296315296</v>
       </c>
       <c r="N42" t="n">
-        <v>1791.679670014717</v>
+        <v>1866.936832414847</v>
       </c>
       <c r="O42" t="n">
-        <v>2231.815593035061</v>
+        <v>2307.072755435191</v>
       </c>
       <c r="P42" t="n">
-        <v>2568.06040664989</v>
+        <v>2643.31756905002</v>
       </c>
       <c r="Q42" t="n">
         <v>2697.149091018223</v>
@@ -7543,76 +7543,76 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>2214.475051914318</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="C43" t="n">
-        <v>2214.475051914318</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="D43" t="n">
-        <v>2214.475051914318</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="E43" t="n">
-        <v>2214.475051914318</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="F43" t="n">
-        <v>2214.475051914318</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="G43" t="n">
-        <v>2180.711461199623</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="H43" t="n">
-        <v>2022.963088632153</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="I43" t="n">
-        <v>2022.963088632153</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="J43" t="n">
-        <v>2022.963088632153</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="K43" t="n">
-        <v>2079.265281698421</v>
+        <v>110.2451748866326</v>
       </c>
       <c r="L43" t="n">
-        <v>2206.839139259579</v>
+        <v>237.819032447791</v>
       </c>
       <c r="M43" t="n">
-        <v>2351.737007977609</v>
+        <v>382.7169011658209</v>
       </c>
       <c r="N43" t="n">
-        <v>2498.624145662038</v>
+        <v>529.6040388502499</v>
       </c>
       <c r="O43" t="n">
-        <v>2618.281896171278</v>
+        <v>649.2617893594901</v>
       </c>
       <c r="P43" t="n">
-        <v>2697.149091018222</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="Q43" t="n">
-        <v>2697.149091018222</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="R43" t="n">
-        <v>2697.149091018222</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="S43" t="n">
-        <v>2697.149091018222</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="T43" t="n">
-        <v>2697.149091018222</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="U43" t="n">
-        <v>2697.149091018222</v>
+        <v>438.9553738610022</v>
       </c>
       <c r="V43" t="n">
-        <v>2442.464602812336</v>
+        <v>438.9553738610022</v>
       </c>
       <c r="W43" t="n">
-        <v>2442.464602812336</v>
+        <v>149.5382038240415</v>
       </c>
       <c r="X43" t="n">
-        <v>2214.475051914318</v>
+        <v>149.5382038240415</v>
       </c>
       <c r="Y43" t="n">
-        <v>2214.475051914318</v>
+        <v>53.94298182036445</v>
       </c>
     </row>
     <row r="44">
@@ -7622,43 +7622,43 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>1352.60098147425</v>
+        <v>781.1711973675267</v>
       </c>
       <c r="C44" t="n">
-        <v>983.6384645338385</v>
+        <v>412.2086804271149</v>
       </c>
       <c r="D44" t="n">
-        <v>625.3727659270879</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="E44" t="n">
-        <v>625.3727659270879</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="F44" t="n">
-        <v>625.3727659270879</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="G44" t="n">
-        <v>207.4089578252748</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="H44" t="n">
-        <v>207.4089578252748</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="I44" t="n">
         <v>53.94298182036445</v>
       </c>
       <c r="J44" t="n">
-        <v>169.7108380533141</v>
+        <v>169.7108380533142</v>
       </c>
       <c r="K44" t="n">
-        <v>463.9616490733129</v>
+        <v>463.9616490733126</v>
       </c>
       <c r="L44" t="n">
-        <v>881.2824271224081</v>
+        <v>881.2824271224074</v>
       </c>
       <c r="M44" t="n">
         <v>1362.238747280443</v>
       </c>
       <c r="N44" t="n">
-        <v>1836.345445977175</v>
+        <v>1836.345445977174</v>
       </c>
       <c r="O44" t="n">
         <v>2238.843319642689</v>
@@ -7670,28 +7670,28 @@
         <v>2697.149091018222</v>
       </c>
       <c r="R44" t="n">
-        <v>2697.149091018222</v>
+        <v>2642.120401548716</v>
       </c>
       <c r="S44" t="n">
-        <v>2697.149091018222</v>
+        <v>2642.120401548716</v>
       </c>
       <c r="T44" t="n">
-        <v>2478.514423990285</v>
+        <v>2615.207670282225</v>
       </c>
       <c r="U44" t="n">
-        <v>2224.752638628377</v>
+        <v>2615.207670282225</v>
       </c>
       <c r="V44" t="n">
-        <v>1893.689751284806</v>
+        <v>2284.144782938654</v>
       </c>
       <c r="W44" t="n">
-        <v>1540.921096014692</v>
+        <v>1931.37612766854</v>
       </c>
       <c r="X44" t="n">
-        <v>1540.921096014692</v>
+        <v>1557.91036940746</v>
       </c>
       <c r="Y44" t="n">
-        <v>1352.60098147425</v>
+        <v>1167.771037431648</v>
       </c>
     </row>
     <row r="45">
@@ -7701,22 +7701,22 @@
         </is>
       </c>
       <c r="B45" t="n">
-        <v>988.497975217083</v>
+        <v>988.4979752170833</v>
       </c>
       <c r="C45" t="n">
-        <v>814.044945935956</v>
+        <v>814.0449459359563</v>
       </c>
       <c r="D45" t="n">
-        <v>665.1105362747046</v>
+        <v>665.1105362747051</v>
       </c>
       <c r="E45" t="n">
-        <v>505.873081269249</v>
+        <v>505.8730812692495</v>
       </c>
       <c r="F45" t="n">
-        <v>359.3385232961342</v>
+        <v>359.3385232961344</v>
       </c>
       <c r="G45" t="n">
-        <v>221.4284102424003</v>
+        <v>221.4284102424006</v>
       </c>
       <c r="H45" t="n">
         <v>115.9856282673424</v>
@@ -7728,13 +7728,13 @@
         <v>129.2001442204943</v>
       </c>
       <c r="K45" t="n">
-        <v>266.206002764199</v>
+        <v>384.4474646615928</v>
       </c>
       <c r="L45" t="n">
-        <v>670.8219208598708</v>
+        <v>789.0633827572647</v>
       </c>
       <c r="M45" t="n">
-        <v>1194.968834417902</v>
+        <v>1313.210296315296</v>
       </c>
       <c r="N45" t="n">
         <v>1748.695370517453</v>
@@ -7746,22 +7746,22 @@
         <v>2525.076107152626</v>
       </c>
       <c r="Q45" t="n">
-        <v>2697.149091018222</v>
+        <v>2697.149091018223</v>
       </c>
       <c r="R45" t="n">
-        <v>2646.935720430047</v>
+        <v>2646.935720430048</v>
       </c>
       <c r="S45" t="n">
-        <v>2488.762748073963</v>
+        <v>2488.762748073964</v>
       </c>
       <c r="T45" t="n">
-        <v>2289.884200196742</v>
+        <v>2289.884200196743</v>
       </c>
       <c r="U45" t="n">
         <v>2061.714576167582</v>
       </c>
       <c r="V45" t="n">
-        <v>1826.562467935839</v>
+        <v>1826.56246793584</v>
       </c>
       <c r="W45" t="n">
         <v>1572.325111207638</v>
@@ -7780,76 +7780,76 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>2482.860667836385</v>
+        <v>246.1363086691491</v>
       </c>
       <c r="C46" t="n">
-        <v>2482.860667836385</v>
+        <v>246.1363086691491</v>
       </c>
       <c r="D46" t="n">
-        <v>2482.860667836385</v>
+        <v>246.1363086691491</v>
       </c>
       <c r="E46" t="n">
-        <v>2334.947574253992</v>
+        <v>246.1363086691491</v>
       </c>
       <c r="F46" t="n">
-        <v>2188.057626756081</v>
+        <v>246.1363086691491</v>
       </c>
       <c r="G46" t="n">
-        <v>2188.057626756081</v>
+        <v>77.1365084074815</v>
       </c>
       <c r="H46" t="n">
-        <v>2188.057626756081</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="I46" t="n">
-        <v>2051.72871585473</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="J46" t="n">
-        <v>2022.963088632153</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="K46" t="n">
-        <v>2079.265281698421</v>
+        <v>110.2451748866326</v>
       </c>
       <c r="L46" t="n">
-        <v>2206.839139259579</v>
+        <v>237.819032447791</v>
       </c>
       <c r="M46" t="n">
-        <v>2351.737007977609</v>
+        <v>382.7169011658209</v>
       </c>
       <c r="N46" t="n">
-        <v>2498.624145662038</v>
+        <v>529.6040388502499</v>
       </c>
       <c r="O46" t="n">
-        <v>2618.281896171278</v>
+        <v>649.2617893594901</v>
       </c>
       <c r="P46" t="n">
-        <v>2697.149091018222</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="Q46" t="n">
-        <v>2697.149091018222</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="R46" t="n">
-        <v>2697.149091018222</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="S46" t="n">
-        <v>2482.860667836385</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="T46" t="n">
-        <v>2482.860667836385</v>
+        <v>500.820796875036</v>
       </c>
       <c r="U46" t="n">
-        <v>2482.860667836385</v>
+        <v>500.820796875036</v>
       </c>
       <c r="V46" t="n">
-        <v>2482.860667836385</v>
+        <v>246.1363086691491</v>
       </c>
       <c r="W46" t="n">
-        <v>2482.860667836385</v>
+        <v>246.1363086691491</v>
       </c>
       <c r="X46" t="n">
-        <v>2482.860667836385</v>
+        <v>246.1363086691491</v>
       </c>
       <c r="Y46" t="n">
-        <v>2482.860667836385</v>
+        <v>246.1363086691491</v>
       </c>
     </row>
   </sheetData>
@@ -8076,7 +8076,7 @@
         <v>318.4627686399372</v>
       </c>
       <c r="Q3" t="n">
-        <v>90.64146763747121</v>
+        <v>166.6588033951776</v>
       </c>
       <c r="R3" t="n">
         <v>45.52166981132082</v>
@@ -8292,10 +8292,10 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J6" t="n">
-        <v>126.0910353404088</v>
+        <v>50.07369958270193</v>
       </c>
       <c r="K6" t="n">
-        <v>145.0294169142015</v>
+        <v>221.0467526719079</v>
       </c>
       <c r="L6" t="n">
         <v>370.8403453034592</v>
@@ -8550,7 +8550,7 @@
         <v>318.4627686399372</v>
       </c>
       <c r="Q9" t="n">
-        <v>90.64146763747121</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R9" t="n">
         <v>45.52166981132082</v>
@@ -8769,7 +8769,7 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K12" t="n">
-        <v>145.0294169142008</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L12" t="n">
         <v>370.8403453034592</v>
@@ -9003,7 +9003,7 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J15" t="n">
-        <v>50.07369958270195</v>
+        <v>126.0910353404088</v>
       </c>
       <c r="K15" t="n">
         <v>264.4652370125786</v>
@@ -9012,7 +9012,7 @@
         <v>370.8403453034592</v>
       </c>
       <c r="M15" t="n">
-        <v>422.2865794093296</v>
+        <v>465.7050637499999</v>
       </c>
       <c r="N15" t="n">
         <v>479.3423743435536</v>
@@ -9024,7 +9024,7 @@
         <v>318.4627686399372</v>
       </c>
       <c r="Q15" t="n">
-        <v>210.0772877358491</v>
+        <v>194.3570488013782</v>
       </c>
       <c r="R15" t="n">
         <v>45.52166981132082</v>
@@ -9261,7 +9261,7 @@
         <v>318.4627686399372</v>
       </c>
       <c r="Q18" t="n">
-        <v>90.64146763747169</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R18" t="n">
         <v>45.52166981132082</v>
@@ -9398,7 +9398,7 @@
         <v>0</v>
       </c>
       <c r="J20" t="n">
-        <v>169.0966151720736</v>
+        <v>169.0966151720738</v>
       </c>
       <c r="K20" t="n">
         <v>324.1454125711647</v>
@@ -9477,7 +9477,7 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J21" t="n">
-        <v>50.07369958270195</v>
+        <v>126.0910353404088</v>
       </c>
       <c r="K21" t="n">
         <v>264.4652370125786</v>
@@ -9489,13 +9489,13 @@
         <v>465.7050637499999</v>
       </c>
       <c r="N21" t="n">
-        <v>435.923890002883</v>
+        <v>479.3423743435536</v>
       </c>
       <c r="O21" t="n">
         <v>393.8623192767295</v>
       </c>
       <c r="P21" t="n">
-        <v>318.4627686399372</v>
+        <v>199.02694854156</v>
       </c>
       <c r="Q21" t="n">
         <v>210.0772877358491</v>
@@ -9726,7 +9726,7 @@
         <v>465.7050637499999</v>
       </c>
       <c r="N24" t="n">
-        <v>359.9065542451761</v>
+        <v>479.3423743435536</v>
       </c>
       <c r="O24" t="n">
         <v>393.8623192767295</v>
@@ -9951,7 +9951,7 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J27" t="n">
-        <v>50.07369958270195</v>
+        <v>126.0910353404088</v>
       </c>
       <c r="K27" t="n">
         <v>264.4652370125786</v>
@@ -9972,7 +9972,7 @@
         <v>318.4627686399372</v>
       </c>
       <c r="Q27" t="n">
-        <v>166.6588033951786</v>
+        <v>90.64146763747121</v>
       </c>
       <c r="R27" t="n">
         <v>45.52166981132082</v>
@@ -10200,7 +10200,7 @@
         <v>465.7050637499999</v>
       </c>
       <c r="N30" t="n">
-        <v>359.9065542451761</v>
+        <v>479.3423743435536</v>
       </c>
       <c r="O30" t="n">
         <v>393.8623192767295</v>
@@ -10209,7 +10209,7 @@
         <v>318.4627686399372</v>
       </c>
       <c r="Q30" t="n">
-        <v>210.0772877358491</v>
+        <v>90.64146763747166</v>
       </c>
       <c r="R30" t="n">
         <v>45.52166981132082</v>
@@ -10446,7 +10446,7 @@
         <v>318.4627686399372</v>
       </c>
       <c r="Q33" t="n">
-        <v>90.64146763747169</v>
+        <v>90.64146763747166</v>
       </c>
       <c r="R33" t="n">
         <v>45.52166981132082</v>
@@ -10662,7 +10662,7 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J36" t="n">
-        <v>50.07369958270195</v>
+        <v>126.0910353404088</v>
       </c>
       <c r="K36" t="n">
         <v>264.4652370125786</v>
@@ -10671,7 +10671,7 @@
         <v>370.8403453034592</v>
       </c>
       <c r="M36" t="n">
-        <v>422.2865794093296</v>
+        <v>465.7050637499999</v>
       </c>
       <c r="N36" t="n">
         <v>479.3423743435536</v>
@@ -10683,7 +10683,7 @@
         <v>318.4627686399372</v>
       </c>
       <c r="Q36" t="n">
-        <v>210.0772877358491</v>
+        <v>90.64146763747166</v>
       </c>
       <c r="R36" t="n">
         <v>45.52166981132082</v>
@@ -10823,7 +10823,7 @@
         <v>169.0966151720738</v>
       </c>
       <c r="K38" t="n">
-        <v>324.1454125711646</v>
+        <v>324.1454125711647</v>
       </c>
       <c r="L38" t="n">
         <v>417.6612145504504</v>
@@ -10911,7 +10911,7 @@
         <v>465.7050637499999</v>
       </c>
       <c r="N39" t="n">
-        <v>479.3423743435536</v>
+        <v>359.9065542451751</v>
       </c>
       <c r="O39" t="n">
         <v>393.8623192767295</v>
@@ -10920,7 +10920,7 @@
         <v>318.4627686399372</v>
       </c>
       <c r="Q39" t="n">
-        <v>90.64146763747169</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R39" t="n">
         <v>45.52166981132082</v>
@@ -11136,7 +11136,7 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J42" t="n">
-        <v>50.07369958270195</v>
+        <v>126.0910353404088</v>
       </c>
       <c r="K42" t="n">
         <v>264.4652370125786</v>
@@ -11157,7 +11157,7 @@
         <v>318.4627686399372</v>
       </c>
       <c r="Q42" t="n">
-        <v>166.6588033951786</v>
+        <v>90.64146763747166</v>
       </c>
       <c r="R42" t="n">
         <v>45.52166981132082</v>
@@ -11376,7 +11376,7 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K45" t="n">
-        <v>145.029416914201</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L45" t="n">
         <v>370.8403453034592</v>
@@ -11385,7 +11385,7 @@
         <v>465.7050637499999</v>
       </c>
       <c r="N45" t="n">
-        <v>479.3423743435536</v>
+        <v>359.906554245176</v>
       </c>
       <c r="O45" t="n">
         <v>393.8623192767295</v>
@@ -22550,13 +22550,13 @@
         <v>365.2728917710076</v>
       </c>
       <c r="D2" t="n">
-        <v>65.06132187132607</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E2" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F2" t="n">
-        <v>406.8760457417114</v>
+        <v>0</v>
       </c>
       <c r="G2" t="n">
         <v>413.784170020795</v>
@@ -22565,7 +22565,7 @@
         <v>323.9227727643571</v>
       </c>
       <c r="I2" t="n">
-        <v>0</v>
+        <v>151.9313162448613</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -22592,25 +22592,25 @@
         <v>0</v>
       </c>
       <c r="R2" t="n">
-        <v>0</v>
+        <v>54.4784025748117</v>
       </c>
       <c r="S2" t="n">
-        <v>0</v>
+        <v>174.4157128089715</v>
       </c>
       <c r="T2" t="n">
         <v>0</v>
       </c>
       <c r="U2" t="n">
-        <v>0</v>
+        <v>73.47059368733028</v>
       </c>
       <c r="V2" t="n">
         <v>0</v>
       </c>
       <c r="W2" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X2" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y2" t="n">
         <v>0</v>
@@ -22705,7 +22705,7 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C4" t="n">
-        <v>117.3995418378314</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D4" t="n">
         <v>148.6154730182124</v>
@@ -22720,10 +22720,10 @@
         <v>167.3098022590509</v>
       </c>
       <c r="H4" t="n">
-        <v>0</v>
+        <v>156.1708888417951</v>
       </c>
       <c r="I4" t="n">
-        <v>0</v>
+        <v>125.6900249618412</v>
       </c>
       <c r="J4" t="n">
         <v>0</v>
@@ -22750,19 +22750,19 @@
         <v>0</v>
       </c>
       <c r="R4" t="n">
-        <v>146.6651919801579</v>
+        <v>0</v>
       </c>
       <c r="S4" t="n">
-        <v>212.1455389500189</v>
+        <v>0</v>
       </c>
       <c r="T4" t="n">
-        <v>225.0351054580843</v>
+        <v>0</v>
       </c>
       <c r="U4" t="n">
         <v>286.2818742419777</v>
       </c>
       <c r="V4" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W4" t="n">
         <v>286.522998336591</v>
@@ -22784,19 +22784,19 @@
         <v>0</v>
       </c>
       <c r="C5" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D5" t="n">
         <v>0</v>
       </c>
       <c r="E5" t="n">
-        <v>152.5926726225382</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F5" t="n">
-        <v>0</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G5" t="n">
-        <v>0</v>
+        <v>413.784170020795</v>
       </c>
       <c r="H5" t="n">
         <v>323.9227727643571</v>
@@ -22835,22 +22835,22 @@
         <v>0</v>
       </c>
       <c r="T5" t="n">
-        <v>216.4483203576578</v>
+        <v>0</v>
       </c>
       <c r="U5" t="n">
         <v>0</v>
       </c>
       <c r="V5" t="n">
-        <v>327.7522584701349</v>
+        <v>266.2036280036797</v>
       </c>
       <c r="W5" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X5" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y5" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="6">
@@ -22945,7 +22945,7 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D7" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E7" t="n">
         <v>146.4339626465692</v>
@@ -22960,10 +22960,10 @@
         <v>0</v>
       </c>
       <c r="I7" t="n">
-        <v>134.9656217923383</v>
+        <v>0</v>
       </c>
       <c r="J7" t="n">
-        <v>45.19995918853701</v>
+        <v>0</v>
       </c>
       <c r="K7" t="n">
         <v>0</v>
@@ -22984,16 +22984,16 @@
         <v>0</v>
       </c>
       <c r="Q7" t="n">
-        <v>29.12274995491431</v>
+        <v>0</v>
       </c>
       <c r="R7" t="n">
-        <v>146.6651919801579</v>
+        <v>0</v>
       </c>
       <c r="S7" t="n">
-        <v>212.1455389500189</v>
+        <v>205.4412813637648</v>
       </c>
       <c r="T7" t="n">
-        <v>0</v>
+        <v>225.0351054580843</v>
       </c>
       <c r="U7" t="n">
         <v>286.2818742419777</v>
@@ -23002,7 +23002,7 @@
         <v>252.137643323828</v>
       </c>
       <c r="W7" t="n">
-        <v>0.2848502742613732</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X7" t="n">
         <v>225.7096553890372</v>
@@ -23018,22 +23018,22 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C8" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D8" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E8" t="n">
         <v>0</v>
       </c>
       <c r="F8" t="n">
-        <v>30.69118209778748</v>
+        <v>0</v>
       </c>
       <c r="G8" t="n">
-        <v>413.784170020795</v>
+        <v>18.77880425096004</v>
       </c>
       <c r="H8" t="n">
         <v>323.9227727643571</v>
@@ -23066,7 +23066,7 @@
         <v>0</v>
       </c>
       <c r="R8" t="n">
-        <v>54.47840257481171</v>
+        <v>54.47840257481172</v>
       </c>
       <c r="S8" t="n">
         <v>174.4157128089715</v>
@@ -23078,10 +23078,10 @@
         <v>251.2241675082893</v>
       </c>
       <c r="V8" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W8" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X8" t="n">
         <v>0</v>
@@ -23176,31 +23176,31 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>54.0227684860287</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C10" t="n">
         <v>167.2468210986278</v>
       </c>
       <c r="D10" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E10" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F10" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G10" t="n">
         <v>0</v>
       </c>
       <c r="H10" t="n">
-        <v>156.1708888417951</v>
+        <v>0</v>
       </c>
       <c r="I10" t="n">
-        <v>134.9656217923382</v>
+        <v>82.85718120047571</v>
       </c>
       <c r="J10" t="n">
-        <v>45.199959188537</v>
+        <v>45.19995918853701</v>
       </c>
       <c r="K10" t="n">
         <v>0</v>
@@ -23221,7 +23221,7 @@
         <v>0</v>
       </c>
       <c r="Q10" t="n">
-        <v>29.1227499549143</v>
+        <v>29.12274995491431</v>
       </c>
       <c r="R10" t="n">
         <v>146.6651919801579</v>
@@ -23242,7 +23242,7 @@
         <v>286.522998336591</v>
       </c>
       <c r="X10" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y10" t="n">
         <v>218.5846533520948</v>
@@ -23303,13 +23303,13 @@
         <v>0</v>
       </c>
       <c r="R11" t="n">
-        <v>54.4784025748117</v>
+        <v>0</v>
       </c>
       <c r="S11" t="n">
         <v>174.4157128089715</v>
       </c>
       <c r="T11" t="n">
-        <v>216.4483203576578</v>
+        <v>52.55328306226818</v>
       </c>
       <c r="U11" t="n">
         <v>251.2241675082893</v>
@@ -23321,7 +23321,7 @@
         <v>349.240968717413</v>
       </c>
       <c r="X11" t="n">
-        <v>151.3576608082672</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y11" t="n">
         <v>386.2379386560536</v>
@@ -23434,10 +23434,10 @@
         <v>156.1708888417951</v>
       </c>
       <c r="I13" t="n">
-        <v>134.9656217923382</v>
+        <v>134.9656217923383</v>
       </c>
       <c r="J13" t="n">
-        <v>45.19995918853699</v>
+        <v>45.19995918853701</v>
       </c>
       <c r="K13" t="n">
         <v>0</v>
@@ -23458,10 +23458,10 @@
         <v>0</v>
       </c>
       <c r="Q13" t="n">
-        <v>0</v>
+        <v>29.12274995491431</v>
       </c>
       <c r="R13" t="n">
-        <v>146.6651919801578</v>
+        <v>146.6651919801579</v>
       </c>
       <c r="S13" t="n">
         <v>212.1455389500189</v>
@@ -23470,7 +23470,7 @@
         <v>225.0351054580843</v>
       </c>
       <c r="U13" t="n">
-        <v>186.6211234951017</v>
+        <v>157.4983735401876</v>
       </c>
       <c r="V13" t="n">
         <v>0</v>
@@ -23492,28 +23492,28 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C14" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D14" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E14" t="n">
         <v>381.9303700722618</v>
       </c>
       <c r="F14" t="n">
-        <v>406.8760457417114</v>
+        <v>0</v>
       </c>
       <c r="G14" t="n">
-        <v>413.784170020795</v>
+        <v>111.785767289043</v>
       </c>
       <c r="H14" t="n">
-        <v>323.9227727643571</v>
+        <v>0</v>
       </c>
       <c r="I14" t="n">
-        <v>151.9313162448613</v>
+        <v>0</v>
       </c>
       <c r="J14" t="n">
         <v>0</v>
@@ -23540,13 +23540,13 @@
         <v>0</v>
       </c>
       <c r="R14" t="n">
-        <v>54.47840257481172</v>
+        <v>0</v>
       </c>
       <c r="S14" t="n">
-        <v>174.4157128089715</v>
+        <v>0</v>
       </c>
       <c r="T14" t="n">
-        <v>58.79822286717487</v>
+        <v>0</v>
       </c>
       <c r="U14" t="n">
         <v>0</v>
@@ -23558,7 +23558,7 @@
         <v>0</v>
       </c>
       <c r="X14" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y14" t="n">
         <v>0</v>
@@ -23668,10 +23668,10 @@
         <v>0</v>
       </c>
       <c r="H16" t="n">
-        <v>156.1708888417951</v>
+        <v>0</v>
       </c>
       <c r="I16" t="n">
-        <v>134.9656217923383</v>
+        <v>0</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -23695,10 +23695,10 @@
         <v>0</v>
       </c>
       <c r="Q16" t="n">
-        <v>0</v>
+        <v>11.99007165458458</v>
       </c>
       <c r="R16" t="n">
-        <v>146.6651919801579</v>
+        <v>0</v>
       </c>
       <c r="S16" t="n">
         <v>212.1455389500189</v>
@@ -23707,13 +23707,13 @@
         <v>225.0351054580843</v>
       </c>
       <c r="U16" t="n">
-        <v>0</v>
+        <v>286.2818742419777</v>
       </c>
       <c r="V16" t="n">
         <v>252.137643323828</v>
       </c>
       <c r="W16" t="n">
-        <v>146.9932416188619</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X16" t="n">
         <v>225.7096553890372</v>
@@ -23729,25 +23729,25 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>382.7338416634806</v>
+        <v>338.7761146022512</v>
       </c>
       <c r="C17" t="n">
         <v>0</v>
       </c>
       <c r="D17" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E17" t="n">
-        <v>182.9952843702692</v>
+        <v>0</v>
       </c>
       <c r="F17" t="n">
-        <v>406.8760457417114</v>
+        <v>0</v>
       </c>
       <c r="G17" t="n">
-        <v>413.784170020795</v>
+        <v>0</v>
       </c>
       <c r="H17" t="n">
-        <v>323.9227727643571</v>
+        <v>0</v>
       </c>
       <c r="I17" t="n">
         <v>0</v>
@@ -23777,28 +23777,28 @@
         <v>0</v>
       </c>
       <c r="R17" t="n">
-        <v>54.47840257481172</v>
+        <v>54.47840257481174</v>
       </c>
       <c r="S17" t="n">
-        <v>174.4157128089715</v>
+        <v>0</v>
       </c>
       <c r="T17" t="n">
-        <v>0</v>
+        <v>216.4483203576578</v>
       </c>
       <c r="U17" t="n">
-        <v>0</v>
+        <v>251.2241675082893</v>
       </c>
       <c r="V17" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W17" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X17" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y17" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="18">
@@ -23887,13 +23887,13 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C19" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D19" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E19" t="n">
         <v>146.4339626465692</v>
@@ -23911,7 +23911,7 @@
         <v>134.9656217923383</v>
       </c>
       <c r="J19" t="n">
-        <v>45.19995918853701</v>
+        <v>45.19995918853702</v>
       </c>
       <c r="K19" t="n">
         <v>0</v>
@@ -23932,10 +23932,10 @@
         <v>0</v>
       </c>
       <c r="Q19" t="n">
-        <v>0</v>
+        <v>29.12274995491433</v>
       </c>
       <c r="R19" t="n">
-        <v>141.9455991900193</v>
+        <v>146.6651919801579</v>
       </c>
       <c r="S19" t="n">
         <v>212.1455389500189</v>
@@ -23944,7 +23944,7 @@
         <v>225.0351054580843</v>
       </c>
       <c r="U19" t="n">
-        <v>286.2818742419777</v>
+        <v>53.97620323457218</v>
       </c>
       <c r="V19" t="n">
         <v>252.137643323828</v>
@@ -23966,13 +23966,13 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>335.6577363191325</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C20" t="n">
         <v>0</v>
       </c>
       <c r="D20" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E20" t="n">
         <v>0</v>
@@ -23984,10 +23984,10 @@
         <v>0</v>
       </c>
       <c r="H20" t="n">
-        <v>323.9227727643571</v>
+        <v>151.8461343256956</v>
       </c>
       <c r="I20" t="n">
-        <v>0</v>
+        <v>151.9313162448613</v>
       </c>
       <c r="J20" t="n">
         <v>0</v>
@@ -24026,7 +24026,7 @@
         <v>0</v>
       </c>
       <c r="V20" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W20" t="n">
         <v>349.240968717413</v>
@@ -24136,19 +24136,19 @@
         <v>146.4339626465692</v>
       </c>
       <c r="F22" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G22" t="n">
-        <v>0</v>
+        <v>167.3098022590509</v>
       </c>
       <c r="H22" t="n">
         <v>156.1708888417951</v>
       </c>
       <c r="I22" t="n">
-        <v>134.9656217923383</v>
+        <v>134.9656217923382</v>
       </c>
       <c r="J22" t="n">
-        <v>45.19995918853701</v>
+        <v>45.199959188537</v>
       </c>
       <c r="K22" t="n">
         <v>0</v>
@@ -24169,7 +24169,7 @@
         <v>0</v>
       </c>
       <c r="Q22" t="n">
-        <v>0</v>
+        <v>29.1227499549143</v>
       </c>
       <c r="R22" t="n">
         <v>146.6651919801579</v>
@@ -24178,16 +24178,16 @@
         <v>212.1455389500189</v>
       </c>
       <c r="T22" t="n">
-        <v>225.0351054580843</v>
+        <v>96.01048066168096</v>
       </c>
       <c r="U22" t="n">
         <v>0</v>
       </c>
       <c r="V22" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W22" t="n">
-        <v>247.2143304532561</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X22" t="n">
         <v>225.7096553890372</v>
@@ -24209,19 +24209,19 @@
         <v>0</v>
       </c>
       <c r="D23" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E23" t="n">
         <v>381.9303700722618</v>
       </c>
       <c r="F23" t="n">
-        <v>406.8760457417114</v>
+        <v>0</v>
       </c>
       <c r="G23" t="n">
-        <v>413.784170020795</v>
+        <v>62.54498204632074</v>
       </c>
       <c r="H23" t="n">
-        <v>159.0444475475062</v>
+        <v>323.9227727643571</v>
       </c>
       <c r="I23" t="n">
         <v>151.9313162448613</v>
@@ -24251,22 +24251,22 @@
         <v>0</v>
       </c>
       <c r="R23" t="n">
-        <v>0</v>
+        <v>54.47840257481171</v>
       </c>
       <c r="S23" t="n">
         <v>174.4157128089715</v>
       </c>
       <c r="T23" t="n">
-        <v>0</v>
+        <v>216.4483203576578</v>
       </c>
       <c r="U23" t="n">
         <v>251.2241675082893</v>
       </c>
       <c r="V23" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W23" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X23" t="n">
         <v>0</v>
@@ -24361,16 +24361,16 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C25" t="n">
         <v>167.2468210986278</v>
       </c>
       <c r="D25" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E25" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F25" t="n">
         <v>145.4210480229312</v>
@@ -24382,10 +24382,10 @@
         <v>156.1708888417951</v>
       </c>
       <c r="I25" t="n">
-        <v>134.9656217923383</v>
+        <v>134.9656217923382</v>
       </c>
       <c r="J25" t="n">
-        <v>45.19995918853701</v>
+        <v>45.199959188537</v>
       </c>
       <c r="K25" t="n">
         <v>0</v>
@@ -24406,19 +24406,19 @@
         <v>0</v>
       </c>
       <c r="Q25" t="n">
-        <v>29.12274995491431</v>
+        <v>29.1227499549143</v>
       </c>
       <c r="R25" t="n">
         <v>146.6651919801579</v>
       </c>
       <c r="S25" t="n">
-        <v>0</v>
+        <v>212.1455389500189</v>
       </c>
       <c r="T25" t="n">
-        <v>0</v>
+        <v>225.0351054580843</v>
       </c>
       <c r="U25" t="n">
-        <v>56.01837628787186</v>
+        <v>286.2818742419777</v>
       </c>
       <c r="V25" t="n">
         <v>252.137643323828</v>
@@ -24430,7 +24430,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y25" t="n">
-        <v>218.5846533520948</v>
+        <v>26.02192683660502</v>
       </c>
     </row>
     <row r="26">
@@ -24458,10 +24458,10 @@
         <v>0</v>
       </c>
       <c r="H26" t="n">
-        <v>0</v>
+        <v>59.8470984500114</v>
       </c>
       <c r="I26" t="n">
-        <v>0</v>
+        <v>151.9313162448613</v>
       </c>
       <c r="J26" t="n">
         <v>0</v>
@@ -24488,16 +24488,16 @@
         <v>0</v>
       </c>
       <c r="R26" t="n">
-        <v>54.47840257481172</v>
+        <v>54.47840257481171</v>
       </c>
       <c r="S26" t="n">
         <v>174.4157128089715</v>
       </c>
       <c r="T26" t="n">
-        <v>216.4483203576578</v>
+        <v>0</v>
       </c>
       <c r="U26" t="n">
-        <v>251.2241675082893</v>
+        <v>0</v>
       </c>
       <c r="V26" t="n">
         <v>0</v>
@@ -24509,7 +24509,7 @@
         <v>369.731100678469</v>
       </c>
       <c r="Y26" t="n">
-        <v>130.3438654849793</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="27">
@@ -24601,28 +24601,28 @@
         <v>0</v>
       </c>
       <c r="C28" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D28" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E28" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F28" t="n">
-        <v>145.4210480229312</v>
+        <v>120.1051426060689</v>
       </c>
       <c r="G28" t="n">
-        <v>123.3173988889583</v>
+        <v>167.3098022590509</v>
       </c>
       <c r="H28" t="n">
         <v>156.1708888417951</v>
       </c>
       <c r="I28" t="n">
-        <v>134.9656217923383</v>
+        <v>134.9656217923382</v>
       </c>
       <c r="J28" t="n">
-        <v>45.19995918853701</v>
+        <v>45.199959188537</v>
       </c>
       <c r="K28" t="n">
         <v>0</v>
@@ -24643,7 +24643,7 @@
         <v>0</v>
       </c>
       <c r="Q28" t="n">
-        <v>29.12274995491431</v>
+        <v>29.1227499549143</v>
       </c>
       <c r="R28" t="n">
         <v>146.6651919801579</v>
@@ -24652,7 +24652,7 @@
         <v>212.1455389500189</v>
       </c>
       <c r="T28" t="n">
-        <v>0</v>
+        <v>225.0351054580843</v>
       </c>
       <c r="U28" t="n">
         <v>286.2818742419777</v>
@@ -24667,7 +24667,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y28" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="29">
@@ -24677,13 +24677,13 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C29" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D29" t="n">
-        <v>65.21246494995205</v>
+        <v>0</v>
       </c>
       <c r="E29" t="n">
         <v>381.9303700722618</v>
@@ -24692,7 +24692,7 @@
         <v>0</v>
       </c>
       <c r="G29" t="n">
-        <v>413.784170020795</v>
+        <v>386.8501962356467</v>
       </c>
       <c r="H29" t="n">
         <v>0</v>
@@ -24728,22 +24728,22 @@
         <v>0</v>
       </c>
       <c r="S29" t="n">
-        <v>0</v>
+        <v>174.4157128089715</v>
       </c>
       <c r="T29" t="n">
-        <v>0</v>
+        <v>216.4483203576578</v>
       </c>
       <c r="U29" t="n">
         <v>0</v>
       </c>
       <c r="V29" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W29" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X29" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y29" t="n">
         <v>386.2379386560536</v>
@@ -24838,7 +24838,7 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C31" t="n">
-        <v>167.2468210986278</v>
+        <v>12.03533246204748</v>
       </c>
       <c r="D31" t="n">
         <v>148.6154730182124</v>
@@ -24847,7 +24847,7 @@
         <v>146.4339626465692</v>
       </c>
       <c r="F31" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G31" t="n">
         <v>167.3098022590509</v>
@@ -24856,10 +24856,10 @@
         <v>156.1708888417951</v>
       </c>
       <c r="I31" t="n">
-        <v>134.9656217923383</v>
+        <v>134.9656217923382</v>
       </c>
       <c r="J31" t="n">
-        <v>45.19995918853701</v>
+        <v>45.199959188537</v>
       </c>
       <c r="K31" t="n">
         <v>0</v>
@@ -24880,31 +24880,31 @@
         <v>0</v>
       </c>
       <c r="Q31" t="n">
-        <v>29.12274995491431</v>
+        <v>29.1227499549143</v>
       </c>
       <c r="R31" t="n">
         <v>146.6651919801579</v>
       </c>
       <c r="S31" t="n">
-        <v>0</v>
+        <v>212.1455389500189</v>
       </c>
       <c r="T31" t="n">
         <v>225.0351054580843</v>
       </c>
       <c r="U31" t="n">
-        <v>194.988972204814</v>
+        <v>286.2818742419777</v>
       </c>
       <c r="V31" t="n">
         <v>252.137643323828</v>
       </c>
       <c r="W31" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X31" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y31" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="32">
@@ -24914,28 +24914,28 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>382.7338416634806</v>
+        <v>164.3604017932788</v>
       </c>
       <c r="C32" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D32" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E32" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F32" t="n">
         <v>0</v>
       </c>
       <c r="G32" t="n">
-        <v>413.784170020795</v>
+        <v>0</v>
       </c>
       <c r="H32" t="n">
         <v>0</v>
       </c>
       <c r="I32" t="n">
-        <v>151.9313162448613</v>
+        <v>0</v>
       </c>
       <c r="J32" t="n">
         <v>0</v>
@@ -24962,28 +24962,28 @@
         <v>0</v>
       </c>
       <c r="R32" t="n">
-        <v>0</v>
+        <v>54.47840257481171</v>
       </c>
       <c r="S32" t="n">
-        <v>0</v>
+        <v>174.4157128089715</v>
       </c>
       <c r="T32" t="n">
-        <v>0</v>
+        <v>216.4483203576578</v>
       </c>
       <c r="U32" t="n">
-        <v>0</v>
+        <v>251.2241675082893</v>
       </c>
       <c r="V32" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W32" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X32" t="n">
-        <v>243.5536401719903</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y32" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="33">
@@ -25087,16 +25087,16 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G34" t="n">
-        <v>0</v>
+        <v>167.3098022590509</v>
       </c>
       <c r="H34" t="n">
         <v>156.1708888417951</v>
       </c>
       <c r="I34" t="n">
-        <v>0</v>
+        <v>134.9656217923382</v>
       </c>
       <c r="J34" t="n">
-        <v>45.19995918853701</v>
+        <v>45.199959188537</v>
       </c>
       <c r="K34" t="n">
         <v>0</v>
@@ -25117,7 +25117,7 @@
         <v>0</v>
       </c>
       <c r="Q34" t="n">
-        <v>29.12274995491431</v>
+        <v>29.1227499549143</v>
       </c>
       <c r="R34" t="n">
         <v>146.6651919801579</v>
@@ -25129,19 +25129,19 @@
         <v>225.0351054580843</v>
       </c>
       <c r="U34" t="n">
-        <v>286.2818742419777</v>
+        <v>0</v>
       </c>
       <c r="V34" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W34" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X34" t="n">
-        <v>225.7096553890372</v>
+        <v>96.68503059263384</v>
       </c>
       <c r="Y34" t="n">
-        <v>139.9389333778659</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="35">
@@ -25163,13 +25163,13 @@
         <v>0</v>
       </c>
       <c r="F35" t="n">
-        <v>406.8760457417114</v>
+        <v>0</v>
       </c>
       <c r="G35" t="n">
-        <v>413.784170020795</v>
+        <v>12.42908554841739</v>
       </c>
       <c r="H35" t="n">
-        <v>323.9227727643571</v>
+        <v>0</v>
       </c>
       <c r="I35" t="n">
         <v>151.9313162448613</v>
@@ -25199,7 +25199,7 @@
         <v>0</v>
       </c>
       <c r="R35" t="n">
-        <v>54.47840257481172</v>
+        <v>54.47840257481171</v>
       </c>
       <c r="S35" t="n">
         <v>174.4157128089715</v>
@@ -25208,19 +25208,19 @@
         <v>216.4483203576578</v>
       </c>
       <c r="U35" t="n">
-        <v>0</v>
+        <v>251.2241675082893</v>
       </c>
       <c r="V35" t="n">
         <v>327.7522584701349</v>
       </c>
       <c r="W35" t="n">
-        <v>224.2802725817785</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X35" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y35" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="36">
@@ -25309,13 +25309,13 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C37" t="n">
         <v>167.2468210986278</v>
       </c>
       <c r="D37" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E37" t="n">
         <v>146.4339626465692</v>
@@ -25330,10 +25330,10 @@
         <v>156.1708888417951</v>
       </c>
       <c r="I37" t="n">
-        <v>134.9656217923383</v>
+        <v>134.9656217923382</v>
       </c>
       <c r="J37" t="n">
-        <v>45.19995918853701</v>
+        <v>45.199959188537</v>
       </c>
       <c r="K37" t="n">
         <v>0</v>
@@ -25354,25 +25354,25 @@
         <v>0</v>
       </c>
       <c r="Q37" t="n">
-        <v>29.12274995491431</v>
+        <v>29.1227499549143</v>
       </c>
       <c r="R37" t="n">
-        <v>94.19150115468952</v>
+        <v>146.6651919801579</v>
       </c>
       <c r="S37" t="n">
         <v>212.1455389500189</v>
       </c>
       <c r="T37" t="n">
-        <v>225.0351054580843</v>
+        <v>96.01048066168096</v>
       </c>
       <c r="U37" t="n">
-        <v>286.2818742419777</v>
+        <v>0</v>
       </c>
       <c r="V37" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W37" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X37" t="n">
         <v>225.7096553890372</v>
@@ -25391,22 +25391,22 @@
         <v>0</v>
       </c>
       <c r="C38" t="n">
-        <v>27.47714460620335</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D38" t="n">
         <v>354.683041620683</v>
       </c>
       <c r="E38" t="n">
-        <v>0</v>
+        <v>238.9526434019345</v>
       </c>
       <c r="F38" t="n">
         <v>0</v>
       </c>
       <c r="G38" t="n">
-        <v>0</v>
+        <v>413.784170020795</v>
       </c>
       <c r="H38" t="n">
-        <v>0</v>
+        <v>323.9227727643571</v>
       </c>
       <c r="I38" t="n">
         <v>151.9313162448613</v>
@@ -25436,7 +25436,7 @@
         <v>0</v>
       </c>
       <c r="R38" t="n">
-        <v>54.47840257481172</v>
+        <v>54.47840257481171</v>
       </c>
       <c r="S38" t="n">
         <v>174.4157128089715</v>
@@ -25445,19 +25445,19 @@
         <v>216.4483203576578</v>
       </c>
       <c r="U38" t="n">
-        <v>251.2241675082893</v>
+        <v>0</v>
       </c>
       <c r="V38" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W38" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X38" t="n">
         <v>0</v>
       </c>
       <c r="Y38" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="39">
@@ -25549,13 +25549,13 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C40" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D40" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E40" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F40" t="n">
         <v>145.4210480229312</v>
@@ -25564,13 +25564,13 @@
         <v>167.3098022590509</v>
       </c>
       <c r="H40" t="n">
-        <v>0</v>
+        <v>156.1708888417951</v>
       </c>
       <c r="I40" t="n">
-        <v>134.9656217923383</v>
+        <v>134.9656217923382</v>
       </c>
       <c r="J40" t="n">
-        <v>45.19995918853701</v>
+        <v>45.199959188537</v>
       </c>
       <c r="K40" t="n">
         <v>0</v>
@@ -25591,13 +25591,13 @@
         <v>0</v>
       </c>
       <c r="Q40" t="n">
-        <v>29.12274995491431</v>
+        <v>0</v>
       </c>
       <c r="R40" t="n">
-        <v>97.68819522315333</v>
+        <v>0</v>
       </c>
       <c r="S40" t="n">
-        <v>212.1455389500189</v>
+        <v>0</v>
       </c>
       <c r="T40" t="n">
         <v>225.0351054580843</v>
@@ -25606,10 +25606,10 @@
         <v>286.2818742419777</v>
       </c>
       <c r="V40" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W40" t="n">
-        <v>286.522998336591</v>
+        <v>259.1499801833011</v>
       </c>
       <c r="X40" t="n">
         <v>225.7096553890372</v>
@@ -25631,19 +25631,19 @@
         <v>0</v>
       </c>
       <c r="D41" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E41" t="n">
-        <v>162.7478145957863</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F41" t="n">
-        <v>0</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G41" t="n">
         <v>0</v>
       </c>
       <c r="H41" t="n">
-        <v>323.9227727643571</v>
+        <v>111.0328933527719</v>
       </c>
       <c r="I41" t="n">
         <v>0</v>
@@ -25673,7 +25673,7 @@
         <v>0</v>
       </c>
       <c r="R41" t="n">
-        <v>54.47840257481172</v>
+        <v>54.47840257481171</v>
       </c>
       <c r="S41" t="n">
         <v>174.4157128089715</v>
@@ -25685,7 +25685,7 @@
         <v>251.2241675082893</v>
       </c>
       <c r="V41" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W41" t="n">
         <v>0</v>
@@ -25694,7 +25694,7 @@
         <v>369.731100678469</v>
       </c>
       <c r="Y41" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="42">
@@ -25798,16 +25798,16 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G43" t="n">
-        <v>133.8838474515024</v>
+        <v>167.3098022590509</v>
       </c>
       <c r="H43" t="n">
-        <v>0</v>
+        <v>156.1708888417951</v>
       </c>
       <c r="I43" t="n">
-        <v>134.9656217923383</v>
+        <v>134.9656217923382</v>
       </c>
       <c r="J43" t="n">
-        <v>45.19995918853701</v>
+        <v>45.199959188537</v>
       </c>
       <c r="K43" t="n">
         <v>0</v>
@@ -25828,7 +25828,7 @@
         <v>0</v>
       </c>
       <c r="Q43" t="n">
-        <v>29.12274995491431</v>
+        <v>29.1227499549143</v>
       </c>
       <c r="R43" t="n">
         <v>146.6651919801579</v>
@@ -25840,19 +25840,19 @@
         <v>225.0351054580843</v>
       </c>
       <c r="U43" t="n">
-        <v>286.2818742419777</v>
+        <v>0</v>
       </c>
       <c r="V43" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W43" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X43" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y43" t="n">
-        <v>218.5846533520948</v>
+        <v>123.9453835684545</v>
       </c>
     </row>
     <row r="44">
@@ -25862,7 +25862,7 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C44" t="n">
         <v>0</v>
@@ -25877,13 +25877,13 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G44" t="n">
-        <v>0</v>
+        <v>413.784170020795</v>
       </c>
       <c r="H44" t="n">
         <v>323.9227727643571</v>
       </c>
       <c r="I44" t="n">
-        <v>0</v>
+        <v>151.9313162448613</v>
       </c>
       <c r="J44" t="n">
         <v>0</v>
@@ -25910,16 +25910,16 @@
         <v>0</v>
       </c>
       <c r="R44" t="n">
-        <v>54.47840257481172</v>
+        <v>0</v>
       </c>
       <c r="S44" t="n">
         <v>174.4157128089715</v>
       </c>
       <c r="T44" t="n">
-        <v>0</v>
+        <v>189.8047164038322</v>
       </c>
       <c r="U44" t="n">
-        <v>0</v>
+        <v>251.2241675082893</v>
       </c>
       <c r="V44" t="n">
         <v>0</v>
@@ -25928,10 +25928,10 @@
         <v>0</v>
       </c>
       <c r="X44" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y44" t="n">
-        <v>199.8010252610164</v>
+        <v>0</v>
       </c>
     </row>
     <row r="45">
@@ -26029,22 +26029,22 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E46" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F46" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G46" t="n">
-        <v>167.3098022590509</v>
+        <v>0</v>
       </c>
       <c r="H46" t="n">
-        <v>156.1708888417951</v>
+        <v>133.2092975205493</v>
       </c>
       <c r="I46" t="n">
-        <v>0</v>
+        <v>134.9656217923382</v>
       </c>
       <c r="J46" t="n">
-        <v>16.72198823818601</v>
+        <v>45.199959188537</v>
       </c>
       <c r="K46" t="n">
         <v>0</v>
@@ -26065,22 +26065,22 @@
         <v>0</v>
       </c>
       <c r="Q46" t="n">
-        <v>29.12274995491431</v>
+        <v>29.1227499549143</v>
       </c>
       <c r="R46" t="n">
         <v>146.6651919801579</v>
       </c>
       <c r="S46" t="n">
-        <v>0</v>
+        <v>212.1455389500189</v>
       </c>
       <c r="T46" t="n">
-        <v>225.0351054580843</v>
+        <v>0</v>
       </c>
       <c r="U46" t="n">
         <v>286.2818742419777</v>
       </c>
       <c r="V46" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W46" t="n">
         <v>286.522998336591</v>
@@ -26131,7 +26131,7 @@
         <v>1</v>
       </c>
       <c r="B3" t="n">
-        <v>693966.2640378184</v>
+        <v>693966.2640378186</v>
       </c>
     </row>
     <row r="4">
@@ -26139,7 +26139,7 @@
         <v>2</v>
       </c>
       <c r="B4" t="n">
-        <v>693966.2640378185</v>
+        <v>693966.2640378184</v>
       </c>
     </row>
     <row r="5">
@@ -26147,7 +26147,7 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>693966.2640378185</v>
+        <v>693966.2640378184</v>
       </c>
     </row>
     <row r="6">
@@ -26155,7 +26155,7 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>693966.2640378185</v>
+        <v>693966.2640378184</v>
       </c>
     </row>
     <row r="7">
@@ -26171,7 +26171,7 @@
         <v>6</v>
       </c>
       <c r="B8" t="n">
-        <v>693966.2640378185</v>
+        <v>693966.2640378184</v>
       </c>
     </row>
     <row r="9">
@@ -26195,7 +26195,7 @@
         <v>9</v>
       </c>
       <c r="B11" t="n">
-        <v>693966.2640378185</v>
+        <v>693966.2640378184</v>
       </c>
     </row>
     <row r="12">
@@ -26235,7 +26235,7 @@
         <v>14</v>
       </c>
       <c r="B16" t="n">
-        <v>693966.2640378185</v>
+        <v>693966.2640378184</v>
       </c>
     </row>
   </sheetData>
@@ -26311,25 +26311,25 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>318067.8710173334</v>
+        <v>318067.8710173335</v>
       </c>
       <c r="C2" t="n">
-        <v>318067.8710173332</v>
+        <v>318067.8710173335</v>
       </c>
       <c r="D2" t="n">
         <v>318067.8710173335</v>
       </c>
       <c r="E2" t="n">
-        <v>318067.8710173333</v>
+        <v>318067.8710173334</v>
       </c>
       <c r="F2" t="n">
-        <v>318067.8710173334</v>
+        <v>318067.8710173335</v>
       </c>
       <c r="G2" t="n">
+        <v>318067.8710173332</v>
+      </c>
+      <c r="H2" t="n">
         <v>318067.8710173335</v>
-      </c>
-      <c r="H2" t="n">
-        <v>318067.8710173334</v>
       </c>
       <c r="I2" t="n">
         <v>318067.8710173334</v>
@@ -26338,22 +26338,22 @@
         <v>318067.8710173334</v>
       </c>
       <c r="K2" t="n">
-        <v>318067.8710173332</v>
+        <v>318067.8710173334</v>
       </c>
       <c r="L2" t="n">
         <v>318067.8710173334</v>
       </c>
       <c r="M2" t="n">
-        <v>318067.8710173334</v>
+        <v>318067.8710173333</v>
       </c>
       <c r="N2" t="n">
-        <v>318067.8710173333</v>
+        <v>318067.8710173335</v>
       </c>
       <c r="O2" t="n">
         <v>318067.8710173334</v>
       </c>
       <c r="P2" t="n">
-        <v>318067.8710173334</v>
+        <v>318067.8710173335</v>
       </c>
     </row>
     <row r="3">
@@ -26363,7 +26363,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>589967.8792145444</v>
+        <v>589967.8792145445</v>
       </c>
       <c r="C3" t="n">
         <v>0</v>
@@ -26415,49 +26415,49 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>3973.229411286961</v>
+        <v>513.1084990597035</v>
       </c>
       <c r="C4" t="n">
-        <v>3973.229411286961</v>
+        <v>513.1084990597035</v>
       </c>
       <c r="D4" t="n">
-        <v>3973.229411286961</v>
+        <v>513.1084990597035</v>
       </c>
       <c r="E4" t="n">
-        <v>3973.229411286961</v>
+        <v>513.1084990597035</v>
       </c>
       <c r="F4" t="n">
-        <v>3973.229411286961</v>
+        <v>513.1084990597035</v>
       </c>
       <c r="G4" t="n">
-        <v>3973.229411286961</v>
+        <v>513.1084990597034</v>
       </c>
       <c r="H4" t="n">
-        <v>3973.229411286961</v>
+        <v>513.1084990597035</v>
       </c>
       <c r="I4" t="n">
-        <v>3973.229411286961</v>
+        <v>513.1084990597035</v>
       </c>
       <c r="J4" t="n">
-        <v>3973.229411286961</v>
+        <v>513.1084990597035</v>
       </c>
       <c r="K4" t="n">
-        <v>3973.229411286961</v>
+        <v>513.1084990597035</v>
       </c>
       <c r="L4" t="n">
-        <v>3973.229411286961</v>
+        <v>513.1084990597035</v>
       </c>
       <c r="M4" t="n">
-        <v>3973.229411286961</v>
+        <v>513.1084990597035</v>
       </c>
       <c r="N4" t="n">
-        <v>3973.229411286961</v>
+        <v>513.1084990597034</v>
       </c>
       <c r="O4" t="n">
-        <v>3973.229411286961</v>
+        <v>513.1084990597035</v>
       </c>
       <c r="P4" t="n">
-        <v>3973.229411286961</v>
+        <v>513.1084990597035</v>
       </c>
     </row>
     <row r="5">
@@ -26482,7 +26482,7 @@
         <v>49231.47806340946</v>
       </c>
       <c r="G5" t="n">
-        <v>49231.47806340946</v>
+        <v>49231.47806340945</v>
       </c>
       <c r="H5" t="n">
         <v>49231.47806340946</v>
@@ -26519,49 +26519,49 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-358732.3156719074</v>
+        <v>-355272.1947596801</v>
       </c>
       <c r="C6" t="n">
-        <v>231235.5635426368</v>
+        <v>234695.6844548644</v>
       </c>
       <c r="D6" t="n">
-        <v>231235.5635426371</v>
+        <v>234695.6844548643</v>
       </c>
       <c r="E6" t="n">
-        <v>264863.1635426369</v>
+        <v>268323.2844548642</v>
       </c>
       <c r="F6" t="n">
-        <v>264863.163542637</v>
+        <v>268323.2844548643</v>
       </c>
       <c r="G6" t="n">
-        <v>264863.1635426371</v>
+        <v>268323.284454864</v>
       </c>
       <c r="H6" t="n">
-        <v>264863.163542637</v>
+        <v>268323.2844548643</v>
       </c>
       <c r="I6" t="n">
-        <v>264863.163542637</v>
+        <v>268323.2844548642</v>
       </c>
       <c r="J6" t="n">
-        <v>88439.94435004397</v>
+        <v>91900.0652622713</v>
       </c>
       <c r="K6" t="n">
-        <v>264863.1635426368</v>
+        <v>268323.2844548643</v>
       </c>
       <c r="L6" t="n">
-        <v>264863.163542637</v>
+        <v>268323.2844548642</v>
       </c>
       <c r="M6" t="n">
-        <v>264863.163542637</v>
+        <v>268323.2844548642</v>
       </c>
       <c r="N6" t="n">
-        <v>264863.1635426369</v>
+        <v>268323.2844548643</v>
       </c>
       <c r="O6" t="n">
-        <v>264863.163542637</v>
+        <v>268323.2844548643</v>
       </c>
       <c r="P6" t="n">
-        <v>264863.163542637</v>
+        <v>268323.2844548643</v>
       </c>
     </row>
   </sheetData>
@@ -26735,7 +26735,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>377.7436642170866</v>
+        <v>377.7436642170867</v>
       </c>
       <c r="C3" t="n">
         <v>377.7436642170866</v>
@@ -26744,13 +26744,13 @@
         <v>377.7436642170866</v>
       </c>
       <c r="E3" t="n">
-        <v>377.7436642170867</v>
+        <v>377.7436642170866</v>
       </c>
       <c r="F3" t="n">
         <v>377.7436642170866</v>
       </c>
       <c r="G3" t="n">
-        <v>377.7436642170866</v>
+        <v>377.7436642170865</v>
       </c>
       <c r="H3" t="n">
         <v>377.7436642170866</v>
@@ -26793,16 +26793,16 @@
         <v>674.2872727545556</v>
       </c>
       <c r="D4" t="n">
-        <v>674.2872727545556</v>
+        <v>674.2872727545555</v>
       </c>
       <c r="E4" t="n">
-        <v>674.2872727545556</v>
+        <v>674.2872727545555</v>
       </c>
       <c r="F4" t="n">
-        <v>674.2872727545556</v>
+        <v>674.2872727545555</v>
       </c>
       <c r="G4" t="n">
-        <v>674.2872727545556</v>
+        <v>674.2872727545554</v>
       </c>
       <c r="H4" t="n">
         <v>674.2872727545556</v>
@@ -26823,7 +26823,7 @@
         <v>674.2872727545556</v>
       </c>
       <c r="N4" t="n">
-        <v>674.2872727545556</v>
+        <v>674.2872727545555</v>
       </c>
       <c r="O4" t="n">
         <v>674.2872727545556</v>
@@ -26957,7 +26957,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>377.7436642170866</v>
+        <v>377.7436642170867</v>
       </c>
       <c r="C3" t="n">
         <v>0</v>
@@ -31045,19 +31045,19 @@
         <v>15.55202935141</v>
       </c>
       <c r="I2" t="n">
-        <v>58.54457332554467</v>
+        <v>58.54457332554468</v>
       </c>
       <c r="J2" t="n">
         <v>128.8865178727436</v>
       </c>
       <c r="K2" t="n">
-        <v>193.1674799081577</v>
+        <v>193.1674799081578</v>
       </c>
       <c r="L2" t="n">
-        <v>239.6413398630669</v>
+        <v>239.641339863067</v>
       </c>
       <c r="M2" t="n">
-        <v>266.6471645405367</v>
+        <v>266.6471645405368</v>
       </c>
       <c r="N2" t="n">
         <v>270.9617944338304</v>
@@ -31072,13 +31072,13 @@
         <v>163.9882055044137</v>
       </c>
       <c r="R2" t="n">
-        <v>95.39071536633797</v>
+        <v>95.39071536633799</v>
       </c>
       <c r="S2" t="n">
-        <v>34.60435677727382</v>
+        <v>34.60435677727383</v>
       </c>
       <c r="T2" t="n">
-        <v>6.647529206473553</v>
+        <v>6.647529206473554</v>
       </c>
       <c r="U2" t="n">
         <v>0.1214853995472036</v>
@@ -31118,16 +31118,16 @@
         <v>0</v>
       </c>
       <c r="G3" t="n">
-        <v>0.812505240014111</v>
+        <v>0.8125052400141111</v>
       </c>
       <c r="H3" t="n">
-        <v>7.847090081188914</v>
+        <v>7.847090081188916</v>
       </c>
       <c r="I3" t="n">
-        <v>27.97441286890689</v>
+        <v>27.9744128689069</v>
       </c>
       <c r="J3" t="n">
-        <v>76.76392708396476</v>
+        <v>0.7465913262578567</v>
       </c>
       <c r="K3" t="n">
         <v>131.2017781649102</v>
@@ -31145,22 +31145,22 @@
         <v>193.3156655923047</v>
       </c>
       <c r="P3" t="n">
-        <v>155.1528646479577</v>
+        <v>155.1528646479578</v>
       </c>
       <c r="Q3" t="n">
         <v>103.7155811639065</v>
       </c>
       <c r="R3" t="n">
-        <v>50.44659727034982</v>
+        <v>50.44659727034983</v>
       </c>
       <c r="S3" t="n">
         <v>15.09192847131473</v>
       </c>
       <c r="T3" t="n">
-        <v>3.274966296372665</v>
+        <v>3.274966296372666</v>
       </c>
       <c r="U3" t="n">
-        <v>0.05345429210619153</v>
+        <v>0.05345429210619154</v>
       </c>
       <c r="V3" t="n">
         <v>0</v>
@@ -31197,16 +31197,16 @@
         <v>0</v>
       </c>
       <c r="G4" t="n">
-        <v>0.6811770994078611</v>
+        <v>0.6811770994078612</v>
       </c>
       <c r="H4" t="n">
-        <v>6.056283665644442</v>
+        <v>6.056283665644443</v>
       </c>
       <c r="I4" t="n">
         <v>20.48485313492005</v>
       </c>
       <c r="J4" t="n">
-        <v>48.15922092813577</v>
+        <v>48.15922092813578</v>
       </c>
       <c r="K4" t="n">
         <v>79.14039391302239</v>
@@ -31221,16 +31221,16 @@
         <v>104.2386737666594</v>
       </c>
       <c r="O4" t="n">
-        <v>96.28128674175844</v>
+        <v>96.28128674175845</v>
       </c>
       <c r="P4" t="n">
         <v>82.38527391383801</v>
       </c>
       <c r="Q4" t="n">
-        <v>57.03929329678008</v>
+        <v>57.03929329678009</v>
       </c>
       <c r="R4" t="n">
-        <v>30.62819939701163</v>
+        <v>30.62819939701164</v>
       </c>
       <c r="S4" t="n">
         <v>11.87105908695336</v>
@@ -31276,13 +31276,13 @@
         <v>0</v>
       </c>
       <c r="G5" t="n">
-        <v>1.518567494340045</v>
+        <v>1.518567494340046</v>
       </c>
       <c r="H5" t="n">
-        <v>15.55202935140999</v>
+        <v>15.55202935141</v>
       </c>
       <c r="I5" t="n">
-        <v>58.54457332554465</v>
+        <v>58.54457332554467</v>
       </c>
       <c r="J5" t="n">
         <v>128.8865178727436</v>
@@ -31300,22 +31300,22 @@
         <v>270.9617944338304</v>
       </c>
       <c r="O5" t="n">
-        <v>255.8615389119865</v>
+        <v>255.8615389119866</v>
       </c>
       <c r="P5" t="n">
-        <v>218.3719038954666</v>
+        <v>218.3719038954667</v>
       </c>
       <c r="Q5" t="n">
         <v>163.9882055044137</v>
       </c>
       <c r="R5" t="n">
-        <v>95.39071536633796</v>
+        <v>95.39071536633797</v>
       </c>
       <c r="S5" t="n">
         <v>34.60435677727382</v>
       </c>
       <c r="T5" t="n">
-        <v>6.647529206473552</v>
+        <v>6.647529206473553</v>
       </c>
       <c r="U5" t="n">
         <v>0.1214853995472036</v>
@@ -31355,16 +31355,16 @@
         <v>0</v>
       </c>
       <c r="G6" t="n">
-        <v>0.8125052400141107</v>
+        <v>0.812505240014111</v>
       </c>
       <c r="H6" t="n">
-        <v>7.847090081188913</v>
+        <v>7.847090081188914</v>
       </c>
       <c r="I6" t="n">
         <v>27.97441286890689</v>
       </c>
       <c r="J6" t="n">
-        <v>76.76392708396475</v>
+        <v>76.76392708396476</v>
       </c>
       <c r="K6" t="n">
         <v>131.2017781649102</v>
@@ -31388,16 +31388,16 @@
         <v>103.7155811639065</v>
       </c>
       <c r="R6" t="n">
-        <v>50.44659727034981</v>
+        <v>50.44659727034982</v>
       </c>
       <c r="S6" t="n">
-        <v>15.09192847131472</v>
+        <v>15.09192847131473</v>
       </c>
       <c r="T6" t="n">
         <v>3.274966296372665</v>
       </c>
       <c r="U6" t="n">
-        <v>0.05345429210619152</v>
+        <v>0.05345429210619153</v>
       </c>
       <c r="V6" t="n">
         <v>0</v>
@@ -31434,19 +31434,19 @@
         <v>0</v>
       </c>
       <c r="G7" t="n">
-        <v>0.681177099407861</v>
+        <v>0.6811770994078611</v>
       </c>
       <c r="H7" t="n">
-        <v>6.056283665644441</v>
+        <v>6.056283665644442</v>
       </c>
       <c r="I7" t="n">
-        <v>20.48485313492004</v>
+        <v>20.48485313492005</v>
       </c>
       <c r="J7" t="n">
         <v>48.15922092813577</v>
       </c>
       <c r="K7" t="n">
-        <v>79.14039391302238</v>
+        <v>79.14039391302239</v>
       </c>
       <c r="L7" t="n">
         <v>101.2724571246924</v>
@@ -31458,13 +31458,13 @@
         <v>104.2386737666594</v>
       </c>
       <c r="O7" t="n">
-        <v>96.28128674175842</v>
+        <v>96.28128674175844</v>
       </c>
       <c r="P7" t="n">
-        <v>82.38527391383799</v>
+        <v>82.38527391383801</v>
       </c>
       <c r="Q7" t="n">
-        <v>57.03929329678007</v>
+        <v>57.03929329678008</v>
       </c>
       <c r="R7" t="n">
         <v>30.62819939701163</v>
@@ -31473,7 +31473,7 @@
         <v>11.87105908695336</v>
       </c>
       <c r="T7" t="n">
-        <v>2.910483970197223</v>
+        <v>2.910483970197224</v>
       </c>
       <c r="U7" t="n">
         <v>0.0371551145131561</v>
@@ -31513,13 +31513,13 @@
         <v>0</v>
       </c>
       <c r="G8" t="n">
-        <v>1.518567494340046</v>
+        <v>1.518567494340045</v>
       </c>
       <c r="H8" t="n">
-        <v>15.55202935141</v>
+        <v>15.55202935140999</v>
       </c>
       <c r="I8" t="n">
-        <v>58.54457332554467</v>
+        <v>58.54457332554465</v>
       </c>
       <c r="J8" t="n">
         <v>128.8865178727436</v>
@@ -31537,22 +31537,22 @@
         <v>270.9617944338304</v>
       </c>
       <c r="O8" t="n">
-        <v>255.8615389119866</v>
+        <v>255.8615389119865</v>
       </c>
       <c r="P8" t="n">
-        <v>218.3719038954667</v>
+        <v>218.3719038954666</v>
       </c>
       <c r="Q8" t="n">
         <v>163.9882055044137</v>
       </c>
       <c r="R8" t="n">
-        <v>95.39071536633797</v>
+        <v>95.39071536633796</v>
       </c>
       <c r="S8" t="n">
         <v>34.60435677727382</v>
       </c>
       <c r="T8" t="n">
-        <v>6.647529206473553</v>
+        <v>6.647529206473552</v>
       </c>
       <c r="U8" t="n">
         <v>0.1214853995472036</v>
@@ -31592,16 +31592,16 @@
         <v>0</v>
       </c>
       <c r="G9" t="n">
-        <v>0.812505240014111</v>
+        <v>0.8125052400141107</v>
       </c>
       <c r="H9" t="n">
-        <v>7.847090081188914</v>
+        <v>7.847090081188913</v>
       </c>
       <c r="I9" t="n">
         <v>27.97441286890689</v>
       </c>
       <c r="J9" t="n">
-        <v>76.76392708396476</v>
+        <v>76.76392708396475</v>
       </c>
       <c r="K9" t="n">
         <v>131.2017781649102</v>
@@ -31610,7 +31610,7 @@
         <v>176.4169820478007</v>
       </c>
       <c r="M9" t="n">
-        <v>205.8702969983122</v>
+        <v>190.1500580638415</v>
       </c>
       <c r="N9" t="n">
         <v>211.31907117367</v>
@@ -31622,19 +31622,19 @@
         <v>155.1528646479577</v>
       </c>
       <c r="Q9" t="n">
-        <v>103.7155811639065</v>
+        <v>0</v>
       </c>
       <c r="R9" t="n">
-        <v>50.44659727034982</v>
+        <v>50.44659727034981</v>
       </c>
       <c r="S9" t="n">
-        <v>15.09192847131473</v>
+        <v>15.09192847131472</v>
       </c>
       <c r="T9" t="n">
         <v>3.274966296372665</v>
       </c>
       <c r="U9" t="n">
-        <v>0.05345429210619153</v>
+        <v>0.05345429210619152</v>
       </c>
       <c r="V9" t="n">
         <v>0</v>
@@ -31671,19 +31671,19 @@
         <v>0</v>
       </c>
       <c r="G10" t="n">
-        <v>0.6811770994078611</v>
+        <v>0.681177099407861</v>
       </c>
       <c r="H10" t="n">
-        <v>6.056283665644442</v>
+        <v>6.056283665644441</v>
       </c>
       <c r="I10" t="n">
-        <v>20.48485313492005</v>
+        <v>20.48485313492004</v>
       </c>
       <c r="J10" t="n">
         <v>48.15922092813577</v>
       </c>
       <c r="K10" t="n">
-        <v>79.14039391302239</v>
+        <v>79.14039391302238</v>
       </c>
       <c r="L10" t="n">
         <v>101.2724571246924</v>
@@ -31695,13 +31695,13 @@
         <v>104.2386737666594</v>
       </c>
       <c r="O10" t="n">
-        <v>96.28128674175844</v>
+        <v>96.28128674175842</v>
       </c>
       <c r="P10" t="n">
-        <v>82.38527391383801</v>
+        <v>82.38527391383799</v>
       </c>
       <c r="Q10" t="n">
-        <v>57.03929329678008</v>
+        <v>57.03929329678007</v>
       </c>
       <c r="R10" t="n">
         <v>30.62819939701163</v>
@@ -31710,7 +31710,7 @@
         <v>11.87105908695336</v>
       </c>
       <c r="T10" t="n">
-        <v>2.910483970197224</v>
+        <v>2.910483970197223</v>
       </c>
       <c r="U10" t="n">
         <v>0.0371551145131561</v>
@@ -31750,46 +31750,46 @@
         <v>0</v>
       </c>
       <c r="G11" t="n">
-        <v>1.518567494340046</v>
+        <v>1.518567494340045</v>
       </c>
       <c r="H11" t="n">
-        <v>15.55202935141</v>
+        <v>15.55202935140999</v>
       </c>
       <c r="I11" t="n">
-        <v>58.54457332554468</v>
+        <v>58.54457332554465</v>
       </c>
       <c r="J11" t="n">
         <v>128.8865178727436</v>
       </c>
       <c r="K11" t="n">
-        <v>193.1674799081578</v>
+        <v>193.1674799081577</v>
       </c>
       <c r="L11" t="n">
-        <v>239.641339863067</v>
+        <v>239.6413398630669</v>
       </c>
       <c r="M11" t="n">
-        <v>266.6471645405368</v>
+        <v>266.6471645405367</v>
       </c>
       <c r="N11" t="n">
         <v>270.9617944338304</v>
       </c>
       <c r="O11" t="n">
-        <v>255.8615389119866</v>
+        <v>255.8615389119865</v>
       </c>
       <c r="P11" t="n">
-        <v>218.3719038954667</v>
+        <v>218.3719038954666</v>
       </c>
       <c r="Q11" t="n">
         <v>163.9882055044137</v>
       </c>
       <c r="R11" t="n">
-        <v>95.39071536633799</v>
+        <v>95.39071536633796</v>
       </c>
       <c r="S11" t="n">
-        <v>34.60435677727383</v>
+        <v>34.60435677727382</v>
       </c>
       <c r="T11" t="n">
-        <v>6.647529206473554</v>
+        <v>6.647529206473552</v>
       </c>
       <c r="U11" t="n">
         <v>0.1214853995472036</v>
@@ -31829,16 +31829,16 @@
         <v>0</v>
       </c>
       <c r="G12" t="n">
-        <v>0.8125052400141111</v>
+        <v>0.8125052400141107</v>
       </c>
       <c r="H12" t="n">
-        <v>7.847090081188916</v>
+        <v>7.847090081188913</v>
       </c>
       <c r="I12" t="n">
-        <v>27.9744128689069</v>
+        <v>27.97441286890689</v>
       </c>
       <c r="J12" t="n">
-        <v>76.76392708396477</v>
+        <v>0.7465913262578567</v>
       </c>
       <c r="K12" t="n">
         <v>131.2017781649102</v>
@@ -31856,22 +31856,22 @@
         <v>193.3156655923047</v>
       </c>
       <c r="P12" t="n">
-        <v>155.1528646479578</v>
+        <v>155.1528646479577</v>
       </c>
       <c r="Q12" t="n">
-        <v>103.7155811639065</v>
+        <v>60.29709682323596</v>
       </c>
       <c r="R12" t="n">
-        <v>50.44659727034983</v>
+        <v>50.44659727034981</v>
       </c>
       <c r="S12" t="n">
-        <v>15.09192847131473</v>
+        <v>15.09192847131472</v>
       </c>
       <c r="T12" t="n">
-        <v>3.274966296372666</v>
+        <v>3.274966296372665</v>
       </c>
       <c r="U12" t="n">
-        <v>0.05345429210619154</v>
+        <v>0.05345429210619152</v>
       </c>
       <c r="V12" t="n">
         <v>0</v>
@@ -31908,19 +31908,19 @@
         <v>0</v>
       </c>
       <c r="G13" t="n">
-        <v>0.6811770994078612</v>
+        <v>0.681177099407861</v>
       </c>
       <c r="H13" t="n">
-        <v>6.056283665644443</v>
+        <v>6.056283665644441</v>
       </c>
       <c r="I13" t="n">
-        <v>20.48485313492005</v>
+        <v>20.48485313492004</v>
       </c>
       <c r="J13" t="n">
-        <v>48.15922092813578</v>
+        <v>48.15922092813577</v>
       </c>
       <c r="K13" t="n">
-        <v>79.14039391302239</v>
+        <v>79.14039391302238</v>
       </c>
       <c r="L13" t="n">
         <v>101.2724571246924</v>
@@ -31932,22 +31932,22 @@
         <v>104.2386737666594</v>
       </c>
       <c r="O13" t="n">
-        <v>96.28128674175845</v>
+        <v>96.28128674175842</v>
       </c>
       <c r="P13" t="n">
-        <v>82.38527391383801</v>
+        <v>82.38527391383799</v>
       </c>
       <c r="Q13" t="n">
-        <v>57.03929329678009</v>
+        <v>57.03929329678007</v>
       </c>
       <c r="R13" t="n">
-        <v>30.62819939701164</v>
+        <v>30.62819939701163</v>
       </c>
       <c r="S13" t="n">
         <v>11.87105908695336</v>
       </c>
       <c r="T13" t="n">
-        <v>2.910483970197224</v>
+        <v>2.910483970197223</v>
       </c>
       <c r="U13" t="n">
         <v>0.0371551145131561</v>
@@ -32096,7 +32096,7 @@
         <v>155.1528646479577</v>
       </c>
       <c r="Q15" t="n">
-        <v>103.7155811639065</v>
+        <v>0</v>
       </c>
       <c r="R15" t="n">
         <v>50.44659727034981</v>
@@ -32233,7 +32233,7 @@
         <v>58.54457332554465</v>
       </c>
       <c r="J17" t="n">
-        <v>128.8865178727436</v>
+        <v>128.8865178727435</v>
       </c>
       <c r="K17" t="n">
         <v>193.1674799081577</v>
@@ -32245,7 +32245,7 @@
         <v>266.6471645405367</v>
       </c>
       <c r="N17" t="n">
-        <v>270.9617944338304</v>
+        <v>270.9617944338303</v>
       </c>
       <c r="O17" t="n">
         <v>255.8615389119865</v>
@@ -32257,13 +32257,13 @@
         <v>163.9882055044137</v>
       </c>
       <c r="R17" t="n">
-        <v>95.39071536633796</v>
+        <v>95.39071536633794</v>
       </c>
       <c r="S17" t="n">
-        <v>34.60435677727382</v>
+        <v>34.60435677727381</v>
       </c>
       <c r="T17" t="n">
-        <v>6.647529206473552</v>
+        <v>6.647529206473551</v>
       </c>
       <c r="U17" t="n">
         <v>0.1214853995472036</v>
@@ -32303,31 +32303,31 @@
         <v>0</v>
       </c>
       <c r="G18" t="n">
-        <v>0.8125052400141107</v>
+        <v>0.8125052400141106</v>
       </c>
       <c r="H18" t="n">
-        <v>7.847090081188913</v>
+        <v>7.847090081188912</v>
       </c>
       <c r="I18" t="n">
-        <v>27.97441286890689</v>
+        <v>27.97441286890688</v>
       </c>
       <c r="J18" t="n">
-        <v>76.76392708396475</v>
+        <v>76.76392708396473</v>
       </c>
       <c r="K18" t="n">
-        <v>131.2017781649102</v>
+        <v>131.2017781649101</v>
       </c>
       <c r="L18" t="n">
-        <v>176.4169820478007</v>
+        <v>56.98116194942384</v>
       </c>
       <c r="M18" t="n">
-        <v>205.8702969983122</v>
+        <v>205.8702969983121</v>
       </c>
       <c r="N18" t="n">
         <v>211.31907117367</v>
       </c>
       <c r="O18" t="n">
-        <v>193.3156655923047</v>
+        <v>193.3156655923046</v>
       </c>
       <c r="P18" t="n">
         <v>155.1528646479577</v>
@@ -32336,16 +32336,16 @@
         <v>103.7155811639065</v>
       </c>
       <c r="R18" t="n">
-        <v>50.44659727034981</v>
+        <v>50.4465972703498</v>
       </c>
       <c r="S18" t="n">
         <v>15.09192847131472</v>
       </c>
       <c r="T18" t="n">
-        <v>3.274966296372665</v>
+        <v>3.274966296372664</v>
       </c>
       <c r="U18" t="n">
-        <v>0.05345429210619152</v>
+        <v>0.05345429210619151</v>
       </c>
       <c r="V18" t="n">
         <v>0</v>
@@ -32382,49 +32382,49 @@
         <v>0</v>
       </c>
       <c r="G19" t="n">
-        <v>0.681177099407861</v>
+        <v>0.6811770994078609</v>
       </c>
       <c r="H19" t="n">
-        <v>6.056283665644441</v>
+        <v>6.05628366564444</v>
       </c>
       <c r="I19" t="n">
         <v>20.48485313492004</v>
       </c>
       <c r="J19" t="n">
-        <v>48.15922092813577</v>
+        <v>48.15922092813576</v>
       </c>
       <c r="K19" t="n">
-        <v>79.14039391302238</v>
+        <v>79.14039391302236</v>
       </c>
       <c r="L19" t="n">
         <v>101.2724571246924</v>
       </c>
       <c r="M19" t="n">
-        <v>106.777606591725</v>
+        <v>106.7776065917249</v>
       </c>
       <c r="N19" t="n">
         <v>104.2386737666594</v>
       </c>
       <c r="O19" t="n">
-        <v>96.28128674175842</v>
+        <v>96.28128674175841</v>
       </c>
       <c r="P19" t="n">
-        <v>82.38527391383799</v>
+        <v>82.38527391383798</v>
       </c>
       <c r="Q19" t="n">
-        <v>57.03929329678007</v>
+        <v>57.03929329678006</v>
       </c>
       <c r="R19" t="n">
         <v>30.62819939701163</v>
       </c>
       <c r="S19" t="n">
-        <v>11.87105908695336</v>
+        <v>11.87105908695335</v>
       </c>
       <c r="T19" t="n">
         <v>2.910483970197223</v>
       </c>
       <c r="U19" t="n">
-        <v>0.0371551145131561</v>
+        <v>0.03715511451315609</v>
       </c>
       <c r="V19" t="n">
         <v>0</v>
@@ -32461,13 +32461,13 @@
         <v>0</v>
       </c>
       <c r="G20" t="n">
-        <v>1.518567494340045</v>
+        <v>1.518567494340046</v>
       </c>
       <c r="H20" t="n">
-        <v>15.55202935140999</v>
+        <v>15.55202935141</v>
       </c>
       <c r="I20" t="n">
-        <v>58.54457332554465</v>
+        <v>58.54457332554467</v>
       </c>
       <c r="J20" t="n">
         <v>128.8865178727436</v>
@@ -32485,22 +32485,22 @@
         <v>270.9617944338304</v>
       </c>
       <c r="O20" t="n">
-        <v>255.8615389119865</v>
+        <v>255.8615389119866</v>
       </c>
       <c r="P20" t="n">
-        <v>218.3719038954666</v>
+        <v>218.3719038954667</v>
       </c>
       <c r="Q20" t="n">
         <v>163.9882055044137</v>
       </c>
       <c r="R20" t="n">
-        <v>95.39071536633796</v>
+        <v>95.39071536633797</v>
       </c>
       <c r="S20" t="n">
         <v>34.60435677727382</v>
       </c>
       <c r="T20" t="n">
-        <v>6.647529206473552</v>
+        <v>6.647529206473553</v>
       </c>
       <c r="U20" t="n">
         <v>0.1214853995472036</v>
@@ -32540,16 +32540,16 @@
         <v>0</v>
       </c>
       <c r="G21" t="n">
-        <v>0.8125052400141107</v>
+        <v>0.812505240014111</v>
       </c>
       <c r="H21" t="n">
-        <v>7.847090081188913</v>
+        <v>7.847090081188914</v>
       </c>
       <c r="I21" t="n">
         <v>27.97441286890689</v>
       </c>
       <c r="J21" t="n">
-        <v>76.76392708396475</v>
+        <v>76.76392708396476</v>
       </c>
       <c r="K21" t="n">
         <v>131.2017781649102</v>
@@ -32573,16 +32573,16 @@
         <v>103.7155811639065</v>
       </c>
       <c r="R21" t="n">
-        <v>50.44659727034981</v>
+        <v>50.44659727034982</v>
       </c>
       <c r="S21" t="n">
-        <v>15.09192847131472</v>
+        <v>15.09192847131473</v>
       </c>
       <c r="T21" t="n">
         <v>3.274966296372665</v>
       </c>
       <c r="U21" t="n">
-        <v>0.05345429210619152</v>
+        <v>0.05345429210619153</v>
       </c>
       <c r="V21" t="n">
         <v>0</v>
@@ -32619,19 +32619,19 @@
         <v>0</v>
       </c>
       <c r="G22" t="n">
-        <v>0.681177099407861</v>
+        <v>0.6811770994078611</v>
       </c>
       <c r="H22" t="n">
-        <v>6.056283665644441</v>
+        <v>6.056283665644442</v>
       </c>
       <c r="I22" t="n">
-        <v>20.48485313492004</v>
+        <v>20.48485313492005</v>
       </c>
       <c r="J22" t="n">
         <v>48.15922092813577</v>
       </c>
       <c r="K22" t="n">
-        <v>79.14039391302238</v>
+        <v>79.14039391302239</v>
       </c>
       <c r="L22" t="n">
         <v>101.2724571246924</v>
@@ -32643,13 +32643,13 @@
         <v>104.2386737666594</v>
       </c>
       <c r="O22" t="n">
-        <v>96.28128674175842</v>
+        <v>96.28128674175844</v>
       </c>
       <c r="P22" t="n">
-        <v>82.38527391383799</v>
+        <v>82.38527391383801</v>
       </c>
       <c r="Q22" t="n">
-        <v>57.03929329678007</v>
+        <v>57.03929329678008</v>
       </c>
       <c r="R22" t="n">
         <v>30.62819939701163</v>
@@ -32658,7 +32658,7 @@
         <v>11.87105908695336</v>
       </c>
       <c r="T22" t="n">
-        <v>2.910483970197223</v>
+        <v>2.910483970197224</v>
       </c>
       <c r="U22" t="n">
         <v>0.0371551145131561</v>
@@ -32698,13 +32698,13 @@
         <v>0</v>
       </c>
       <c r="G23" t="n">
-        <v>1.518567494340045</v>
+        <v>1.518567494340046</v>
       </c>
       <c r="H23" t="n">
-        <v>15.55202935140999</v>
+        <v>15.55202935141</v>
       </c>
       <c r="I23" t="n">
-        <v>58.54457332554465</v>
+        <v>58.54457332554467</v>
       </c>
       <c r="J23" t="n">
         <v>128.8865178727436</v>
@@ -32722,22 +32722,22 @@
         <v>270.9617944338304</v>
       </c>
       <c r="O23" t="n">
-        <v>255.8615389119865</v>
+        <v>255.8615389119866</v>
       </c>
       <c r="P23" t="n">
-        <v>218.3719038954666</v>
+        <v>218.3719038954667</v>
       </c>
       <c r="Q23" t="n">
         <v>163.9882055044137</v>
       </c>
       <c r="R23" t="n">
-        <v>95.39071536633796</v>
+        <v>95.39071536633797</v>
       </c>
       <c r="S23" t="n">
         <v>34.60435677727382</v>
       </c>
       <c r="T23" t="n">
-        <v>6.647529206473552</v>
+        <v>6.647529206473553</v>
       </c>
       <c r="U23" t="n">
         <v>0.1214853995472036</v>
@@ -32777,16 +32777,16 @@
         <v>0</v>
       </c>
       <c r="G24" t="n">
-        <v>0.8125052400141107</v>
+        <v>0.812505240014111</v>
       </c>
       <c r="H24" t="n">
-        <v>7.847090081188913</v>
+        <v>7.847090081188914</v>
       </c>
       <c r="I24" t="n">
         <v>27.97441286890689</v>
       </c>
       <c r="J24" t="n">
-        <v>76.76392708396475</v>
+        <v>76.76392708396476</v>
       </c>
       <c r="K24" t="n">
         <v>131.2017781649102</v>
@@ -32801,25 +32801,25 @@
         <v>211.31907117367</v>
       </c>
       <c r="O24" t="n">
-        <v>193.3156655923047</v>
+        <v>177.5954266578339</v>
       </c>
       <c r="P24" t="n">
         <v>155.1528646479577</v>
       </c>
       <c r="Q24" t="n">
-        <v>103.7155811639065</v>
+        <v>0</v>
       </c>
       <c r="R24" t="n">
-        <v>50.44659727034981</v>
+        <v>50.44659727034982</v>
       </c>
       <c r="S24" t="n">
-        <v>15.09192847131472</v>
+        <v>15.09192847131473</v>
       </c>
       <c r="T24" t="n">
         <v>3.274966296372665</v>
       </c>
       <c r="U24" t="n">
-        <v>0.05345429210619152</v>
+        <v>0.05345429210619153</v>
       </c>
       <c r="V24" t="n">
         <v>0</v>
@@ -32856,19 +32856,19 @@
         <v>0</v>
       </c>
       <c r="G25" t="n">
-        <v>0.681177099407861</v>
+        <v>0.6811770994078611</v>
       </c>
       <c r="H25" t="n">
-        <v>6.056283665644441</v>
+        <v>6.056283665644442</v>
       </c>
       <c r="I25" t="n">
-        <v>20.48485313492004</v>
+        <v>20.48485313492005</v>
       </c>
       <c r="J25" t="n">
         <v>48.15922092813577</v>
       </c>
       <c r="K25" t="n">
-        <v>79.14039391302238</v>
+        <v>79.14039391302239</v>
       </c>
       <c r="L25" t="n">
         <v>101.2724571246924</v>
@@ -32880,13 +32880,13 @@
         <v>104.2386737666594</v>
       </c>
       <c r="O25" t="n">
-        <v>96.28128674175842</v>
+        <v>96.28128674175844</v>
       </c>
       <c r="P25" t="n">
-        <v>82.38527391383799</v>
+        <v>82.38527391383801</v>
       </c>
       <c r="Q25" t="n">
-        <v>57.03929329678007</v>
+        <v>57.03929329678008</v>
       </c>
       <c r="R25" t="n">
         <v>30.62819939701163</v>
@@ -32895,7 +32895,7 @@
         <v>11.87105908695336</v>
       </c>
       <c r="T25" t="n">
-        <v>2.910483970197223</v>
+        <v>2.910483970197224</v>
       </c>
       <c r="U25" t="n">
         <v>0.0371551145131561</v>
@@ -32935,13 +32935,13 @@
         <v>0</v>
       </c>
       <c r="G26" t="n">
-        <v>1.518567494340045</v>
+        <v>1.518567494340046</v>
       </c>
       <c r="H26" t="n">
-        <v>15.55202935140999</v>
+        <v>15.55202935141</v>
       </c>
       <c r="I26" t="n">
-        <v>58.54457332554465</v>
+        <v>58.54457332554467</v>
       </c>
       <c r="J26" t="n">
         <v>128.8865178727436</v>
@@ -32959,22 +32959,22 @@
         <v>270.9617944338304</v>
       </c>
       <c r="O26" t="n">
-        <v>255.8615389119865</v>
+        <v>255.8615389119866</v>
       </c>
       <c r="P26" t="n">
-        <v>218.3719038954666</v>
+        <v>218.3719038954667</v>
       </c>
       <c r="Q26" t="n">
         <v>163.9882055044137</v>
       </c>
       <c r="R26" t="n">
-        <v>95.39071536633796</v>
+        <v>95.39071536633797</v>
       </c>
       <c r="S26" t="n">
         <v>34.60435677727382</v>
       </c>
       <c r="T26" t="n">
-        <v>6.647529206473552</v>
+        <v>6.647529206473553</v>
       </c>
       <c r="U26" t="n">
         <v>0.1214853995472036</v>
@@ -33014,16 +33014,16 @@
         <v>0</v>
       </c>
       <c r="G27" t="n">
-        <v>0.8125052400141107</v>
+        <v>0.812505240014111</v>
       </c>
       <c r="H27" t="n">
-        <v>7.847090081188913</v>
+        <v>7.847090081188914</v>
       </c>
       <c r="I27" t="n">
         <v>27.97441286890689</v>
       </c>
       <c r="J27" t="n">
-        <v>76.76392708396475</v>
+        <v>76.76392708396476</v>
       </c>
       <c r="K27" t="n">
         <v>131.2017781649102</v>
@@ -33047,16 +33047,16 @@
         <v>103.7155811639065</v>
       </c>
       <c r="R27" t="n">
-        <v>50.44659727034981</v>
+        <v>50.44659727034982</v>
       </c>
       <c r="S27" t="n">
-        <v>15.09192847131472</v>
+        <v>15.09192847131473</v>
       </c>
       <c r="T27" t="n">
         <v>3.274966296372665</v>
       </c>
       <c r="U27" t="n">
-        <v>0.05345429210619152</v>
+        <v>0.05345429210619153</v>
       </c>
       <c r="V27" t="n">
         <v>0</v>
@@ -33093,19 +33093,19 @@
         <v>0</v>
       </c>
       <c r="G28" t="n">
-        <v>0.681177099407861</v>
+        <v>0.6811770994078611</v>
       </c>
       <c r="H28" t="n">
-        <v>6.056283665644441</v>
+        <v>6.056283665644442</v>
       </c>
       <c r="I28" t="n">
-        <v>20.48485313492004</v>
+        <v>20.48485313492005</v>
       </c>
       <c r="J28" t="n">
         <v>48.15922092813577</v>
       </c>
       <c r="K28" t="n">
-        <v>79.14039391302238</v>
+        <v>79.14039391302239</v>
       </c>
       <c r="L28" t="n">
         <v>101.2724571246924</v>
@@ -33117,13 +33117,13 @@
         <v>104.2386737666594</v>
       </c>
       <c r="O28" t="n">
-        <v>96.28128674175842</v>
+        <v>96.28128674175844</v>
       </c>
       <c r="P28" t="n">
-        <v>82.38527391383799</v>
+        <v>82.38527391383801</v>
       </c>
       <c r="Q28" t="n">
-        <v>57.03929329678007</v>
+        <v>57.03929329678008</v>
       </c>
       <c r="R28" t="n">
         <v>30.62819939701163</v>
@@ -33132,7 +33132,7 @@
         <v>11.87105908695336</v>
       </c>
       <c r="T28" t="n">
-        <v>2.910483970197223</v>
+        <v>2.910483970197224</v>
       </c>
       <c r="U28" t="n">
         <v>0.0371551145131561</v>
@@ -33172,13 +33172,13 @@
         <v>0</v>
       </c>
       <c r="G29" t="n">
-        <v>1.518567494340045</v>
+        <v>1.518567494340046</v>
       </c>
       <c r="H29" t="n">
-        <v>15.55202935140999</v>
+        <v>15.55202935141</v>
       </c>
       <c r="I29" t="n">
-        <v>58.54457332554465</v>
+        <v>58.54457332554467</v>
       </c>
       <c r="J29" t="n">
         <v>128.8865178727436</v>
@@ -33196,22 +33196,22 @@
         <v>270.9617944338304</v>
       </c>
       <c r="O29" t="n">
-        <v>255.8615389119865</v>
+        <v>255.8615389119866</v>
       </c>
       <c r="P29" t="n">
-        <v>218.3719038954666</v>
+        <v>218.3719038954667</v>
       </c>
       <c r="Q29" t="n">
         <v>163.9882055044137</v>
       </c>
       <c r="R29" t="n">
-        <v>95.39071536633796</v>
+        <v>95.39071536633797</v>
       </c>
       <c r="S29" t="n">
         <v>34.60435677727382</v>
       </c>
       <c r="T29" t="n">
-        <v>6.647529206473552</v>
+        <v>6.647529206473553</v>
       </c>
       <c r="U29" t="n">
         <v>0.1214853995472036</v>
@@ -33251,16 +33251,16 @@
         <v>0</v>
       </c>
       <c r="G30" t="n">
-        <v>0.8125052400141107</v>
+        <v>0.812505240014111</v>
       </c>
       <c r="H30" t="n">
-        <v>7.847090081188913</v>
+        <v>7.847090081188914</v>
       </c>
       <c r="I30" t="n">
         <v>27.97441286890689</v>
       </c>
       <c r="J30" t="n">
-        <v>76.76392708396475</v>
+        <v>76.76392708396476</v>
       </c>
       <c r="K30" t="n">
         <v>131.2017781649102</v>
@@ -33284,16 +33284,16 @@
         <v>103.7155811639065</v>
       </c>
       <c r="R30" t="n">
-        <v>50.44659727034981</v>
+        <v>50.44659727034982</v>
       </c>
       <c r="S30" t="n">
-        <v>15.09192847131472</v>
+        <v>15.09192847131473</v>
       </c>
       <c r="T30" t="n">
         <v>3.274966296372665</v>
       </c>
       <c r="U30" t="n">
-        <v>0.05345429210619152</v>
+        <v>0.05345429210619153</v>
       </c>
       <c r="V30" t="n">
         <v>0</v>
@@ -33330,19 +33330,19 @@
         <v>0</v>
       </c>
       <c r="G31" t="n">
-        <v>0.681177099407861</v>
+        <v>0.6811770994078611</v>
       </c>
       <c r="H31" t="n">
-        <v>6.056283665644441</v>
+        <v>6.056283665644442</v>
       </c>
       <c r="I31" t="n">
-        <v>20.48485313492004</v>
+        <v>20.48485313492005</v>
       </c>
       <c r="J31" t="n">
         <v>48.15922092813577</v>
       </c>
       <c r="K31" t="n">
-        <v>79.14039391302238</v>
+        <v>79.14039391302239</v>
       </c>
       <c r="L31" t="n">
         <v>101.2724571246924</v>
@@ -33354,13 +33354,13 @@
         <v>104.2386737666594</v>
       </c>
       <c r="O31" t="n">
-        <v>96.28128674175842</v>
+        <v>96.28128674175844</v>
       </c>
       <c r="P31" t="n">
-        <v>82.38527391383799</v>
+        <v>82.38527391383801</v>
       </c>
       <c r="Q31" t="n">
-        <v>57.03929329678007</v>
+        <v>57.03929329678008</v>
       </c>
       <c r="R31" t="n">
         <v>30.62819939701163</v>
@@ -33369,7 +33369,7 @@
         <v>11.87105908695336</v>
       </c>
       <c r="T31" t="n">
-        <v>2.910483970197223</v>
+        <v>2.910483970197224</v>
       </c>
       <c r="U31" t="n">
         <v>0.0371551145131561</v>
@@ -33409,13 +33409,13 @@
         <v>0</v>
       </c>
       <c r="G32" t="n">
-        <v>1.518567494340045</v>
+        <v>1.518567494340046</v>
       </c>
       <c r="H32" t="n">
-        <v>15.55202935140999</v>
+        <v>15.55202935141</v>
       </c>
       <c r="I32" t="n">
-        <v>58.54457332554465</v>
+        <v>58.54457332554467</v>
       </c>
       <c r="J32" t="n">
         <v>128.8865178727436</v>
@@ -33433,22 +33433,22 @@
         <v>270.9617944338304</v>
       </c>
       <c r="O32" t="n">
-        <v>255.8615389119865</v>
+        <v>255.8615389119866</v>
       </c>
       <c r="P32" t="n">
-        <v>218.3719038954666</v>
+        <v>218.3719038954667</v>
       </c>
       <c r="Q32" t="n">
         <v>163.9882055044137</v>
       </c>
       <c r="R32" t="n">
-        <v>95.39071536633796</v>
+        <v>95.39071536633797</v>
       </c>
       <c r="S32" t="n">
         <v>34.60435677727382</v>
       </c>
       <c r="T32" t="n">
-        <v>6.647529206473552</v>
+        <v>6.647529206473553</v>
       </c>
       <c r="U32" t="n">
         <v>0.1214853995472036</v>
@@ -33488,16 +33488,16 @@
         <v>0</v>
       </c>
       <c r="G33" t="n">
-        <v>0.8125052400141107</v>
+        <v>0.812505240014111</v>
       </c>
       <c r="H33" t="n">
-        <v>7.847090081188913</v>
+        <v>7.847090081188914</v>
       </c>
       <c r="I33" t="n">
         <v>27.97441286890689</v>
       </c>
       <c r="J33" t="n">
-        <v>76.76392708396475</v>
+        <v>76.76392708396476</v>
       </c>
       <c r="K33" t="n">
         <v>131.2017781649102</v>
@@ -33521,16 +33521,16 @@
         <v>103.7155811639065</v>
       </c>
       <c r="R33" t="n">
-        <v>50.44659727034981</v>
+        <v>50.44659727034982</v>
       </c>
       <c r="S33" t="n">
-        <v>15.09192847131472</v>
+        <v>15.09192847131473</v>
       </c>
       <c r="T33" t="n">
         <v>3.274966296372665</v>
       </c>
       <c r="U33" t="n">
-        <v>0.05345429210619152</v>
+        <v>0.05345429210619153</v>
       </c>
       <c r="V33" t="n">
         <v>0</v>
@@ -33567,19 +33567,19 @@
         <v>0</v>
       </c>
       <c r="G34" t="n">
-        <v>0.681177099407861</v>
+        <v>0.6811770994078611</v>
       </c>
       <c r="H34" t="n">
-        <v>6.056283665644441</v>
+        <v>6.056283665644442</v>
       </c>
       <c r="I34" t="n">
-        <v>20.48485313492004</v>
+        <v>20.48485313492005</v>
       </c>
       <c r="J34" t="n">
         <v>48.15922092813577</v>
       </c>
       <c r="K34" t="n">
-        <v>79.14039391302238</v>
+        <v>79.14039391302239</v>
       </c>
       <c r="L34" t="n">
         <v>101.2724571246924</v>
@@ -33591,13 +33591,13 @@
         <v>104.2386737666594</v>
       </c>
       <c r="O34" t="n">
-        <v>96.28128674175842</v>
+        <v>96.28128674175844</v>
       </c>
       <c r="P34" t="n">
-        <v>82.38527391383799</v>
+        <v>82.38527391383801</v>
       </c>
       <c r="Q34" t="n">
-        <v>57.03929329678007</v>
+        <v>57.03929329678008</v>
       </c>
       <c r="R34" t="n">
         <v>30.62819939701163</v>
@@ -33606,7 +33606,7 @@
         <v>11.87105908695336</v>
       </c>
       <c r="T34" t="n">
-        <v>2.910483970197223</v>
+        <v>2.910483970197224</v>
       </c>
       <c r="U34" t="n">
         <v>0.0371551145131561</v>
@@ -33646,13 +33646,13 @@
         <v>0</v>
       </c>
       <c r="G35" t="n">
-        <v>1.518567494340045</v>
+        <v>1.518567494340046</v>
       </c>
       <c r="H35" t="n">
-        <v>15.55202935140999</v>
+        <v>15.55202935141</v>
       </c>
       <c r="I35" t="n">
-        <v>58.54457332554465</v>
+        <v>58.54457332554467</v>
       </c>
       <c r="J35" t="n">
         <v>128.8865178727436</v>
@@ -33670,22 +33670,22 @@
         <v>270.9617944338304</v>
       </c>
       <c r="O35" t="n">
-        <v>255.8615389119865</v>
+        <v>255.8615389119866</v>
       </c>
       <c r="P35" t="n">
-        <v>218.3719038954666</v>
+        <v>218.3719038954667</v>
       </c>
       <c r="Q35" t="n">
         <v>163.9882055044137</v>
       </c>
       <c r="R35" t="n">
-        <v>95.39071536633796</v>
+        <v>95.39071536633797</v>
       </c>
       <c r="S35" t="n">
         <v>34.60435677727382</v>
       </c>
       <c r="T35" t="n">
-        <v>6.647529206473552</v>
+        <v>6.647529206473553</v>
       </c>
       <c r="U35" t="n">
         <v>0.1214853995472036</v>
@@ -33725,16 +33725,16 @@
         <v>0</v>
       </c>
       <c r="G36" t="n">
-        <v>0.8125052400141107</v>
+        <v>0.812505240014111</v>
       </c>
       <c r="H36" t="n">
-        <v>7.847090081188913</v>
+        <v>7.847090081188914</v>
       </c>
       <c r="I36" t="n">
         <v>27.97441286890689</v>
       </c>
       <c r="J36" t="n">
-        <v>76.76392708396475</v>
+        <v>76.76392708396476</v>
       </c>
       <c r="K36" t="n">
         <v>131.2017781649102</v>
@@ -33758,16 +33758,16 @@
         <v>103.7155811639065</v>
       </c>
       <c r="R36" t="n">
-        <v>50.44659727034981</v>
+        <v>50.44659727034982</v>
       </c>
       <c r="S36" t="n">
-        <v>15.09192847131472</v>
+        <v>15.09192847131473</v>
       </c>
       <c r="T36" t="n">
         <v>3.274966296372665</v>
       </c>
       <c r="U36" t="n">
-        <v>0.05345429210619152</v>
+        <v>0.05345429210619153</v>
       </c>
       <c r="V36" t="n">
         <v>0</v>
@@ -33804,19 +33804,19 @@
         <v>0</v>
       </c>
       <c r="G37" t="n">
-        <v>0.681177099407861</v>
+        <v>0.6811770994078611</v>
       </c>
       <c r="H37" t="n">
-        <v>6.056283665644441</v>
+        <v>6.056283665644442</v>
       </c>
       <c r="I37" t="n">
-        <v>20.48485313492004</v>
+        <v>20.48485313492005</v>
       </c>
       <c r="J37" t="n">
         <v>48.15922092813577</v>
       </c>
       <c r="K37" t="n">
-        <v>79.14039391302238</v>
+        <v>79.14039391302239</v>
       </c>
       <c r="L37" t="n">
         <v>101.2724571246924</v>
@@ -33828,13 +33828,13 @@
         <v>104.2386737666594</v>
       </c>
       <c r="O37" t="n">
-        <v>96.28128674175842</v>
+        <v>96.28128674175844</v>
       </c>
       <c r="P37" t="n">
-        <v>82.38527391383799</v>
+        <v>82.38527391383801</v>
       </c>
       <c r="Q37" t="n">
-        <v>57.03929329678007</v>
+        <v>57.03929329678008</v>
       </c>
       <c r="R37" t="n">
         <v>30.62819939701163</v>
@@ -33843,7 +33843,7 @@
         <v>11.87105908695336</v>
       </c>
       <c r="T37" t="n">
-        <v>2.910483970197223</v>
+        <v>2.910483970197224</v>
       </c>
       <c r="U37" t="n">
         <v>0.0371551145131561</v>
@@ -33883,13 +33883,13 @@
         <v>0</v>
       </c>
       <c r="G38" t="n">
-        <v>1.518567494340045</v>
+        <v>1.518567494340046</v>
       </c>
       <c r="H38" t="n">
-        <v>15.55202935140999</v>
+        <v>15.55202935141</v>
       </c>
       <c r="I38" t="n">
-        <v>58.54457332554465</v>
+        <v>58.54457332554467</v>
       </c>
       <c r="J38" t="n">
         <v>128.8865178727436</v>
@@ -33907,22 +33907,22 @@
         <v>270.9617944338304</v>
       </c>
       <c r="O38" t="n">
-        <v>255.8615389119865</v>
+        <v>255.8615389119866</v>
       </c>
       <c r="P38" t="n">
-        <v>218.3719038954666</v>
+        <v>218.3719038954667</v>
       </c>
       <c r="Q38" t="n">
         <v>163.9882055044137</v>
       </c>
       <c r="R38" t="n">
-        <v>95.39071536633796</v>
+        <v>95.39071536633797</v>
       </c>
       <c r="S38" t="n">
         <v>34.60435677727382</v>
       </c>
       <c r="T38" t="n">
-        <v>6.647529206473552</v>
+        <v>6.647529206473553</v>
       </c>
       <c r="U38" t="n">
         <v>0.1214853995472036</v>
@@ -33962,16 +33962,16 @@
         <v>0</v>
       </c>
       <c r="G39" t="n">
-        <v>0.8125052400141107</v>
+        <v>0.812505240014111</v>
       </c>
       <c r="H39" t="n">
-        <v>7.847090081188913</v>
+        <v>7.847090081188914</v>
       </c>
       <c r="I39" t="n">
         <v>27.97441286890689</v>
       </c>
       <c r="J39" t="n">
-        <v>76.76392708396475</v>
+        <v>76.76392708396476</v>
       </c>
       <c r="K39" t="n">
         <v>131.2017781649102</v>
@@ -33995,16 +33995,16 @@
         <v>103.7155811639065</v>
       </c>
       <c r="R39" t="n">
-        <v>50.44659727034981</v>
+        <v>50.44659727034982</v>
       </c>
       <c r="S39" t="n">
-        <v>15.09192847131472</v>
+        <v>15.09192847131473</v>
       </c>
       <c r="T39" t="n">
         <v>3.274966296372665</v>
       </c>
       <c r="U39" t="n">
-        <v>0.05345429210619152</v>
+        <v>0.05345429210619153</v>
       </c>
       <c r="V39" t="n">
         <v>0</v>
@@ -34041,19 +34041,19 @@
         <v>0</v>
       </c>
       <c r="G40" t="n">
-        <v>0.681177099407861</v>
+        <v>0.6811770994078611</v>
       </c>
       <c r="H40" t="n">
-        <v>6.056283665644441</v>
+        <v>6.056283665644442</v>
       </c>
       <c r="I40" t="n">
-        <v>20.48485313492004</v>
+        <v>20.48485313492005</v>
       </c>
       <c r="J40" t="n">
         <v>48.15922092813577</v>
       </c>
       <c r="K40" t="n">
-        <v>79.14039391302238</v>
+        <v>79.14039391302239</v>
       </c>
       <c r="L40" t="n">
         <v>101.2724571246924</v>
@@ -34065,13 +34065,13 @@
         <v>104.2386737666594</v>
       </c>
       <c r="O40" t="n">
-        <v>96.28128674175842</v>
+        <v>96.28128674175844</v>
       </c>
       <c r="P40" t="n">
-        <v>82.38527391383799</v>
+        <v>82.38527391383801</v>
       </c>
       <c r="Q40" t="n">
-        <v>57.03929329678007</v>
+        <v>57.03929329678008</v>
       </c>
       <c r="R40" t="n">
         <v>30.62819939701163</v>
@@ -34080,7 +34080,7 @@
         <v>11.87105908695336</v>
       </c>
       <c r="T40" t="n">
-        <v>2.910483970197223</v>
+        <v>2.910483970197224</v>
       </c>
       <c r="U40" t="n">
         <v>0.0371551145131561</v>
@@ -34120,13 +34120,13 @@
         <v>0</v>
       </c>
       <c r="G41" t="n">
-        <v>1.518567494340045</v>
+        <v>1.518567494340046</v>
       </c>
       <c r="H41" t="n">
-        <v>15.55202935140999</v>
+        <v>15.55202935141</v>
       </c>
       <c r="I41" t="n">
-        <v>58.54457332554465</v>
+        <v>58.54457332554467</v>
       </c>
       <c r="J41" t="n">
         <v>128.8865178727436</v>
@@ -34144,22 +34144,22 @@
         <v>270.9617944338304</v>
       </c>
       <c r="O41" t="n">
-        <v>255.8615389119865</v>
+        <v>255.8615389119866</v>
       </c>
       <c r="P41" t="n">
-        <v>218.3719038954666</v>
+        <v>218.3719038954667</v>
       </c>
       <c r="Q41" t="n">
         <v>163.9882055044137</v>
       </c>
       <c r="R41" t="n">
-        <v>95.39071536633796</v>
+        <v>95.39071536633797</v>
       </c>
       <c r="S41" t="n">
         <v>34.60435677727382</v>
       </c>
       <c r="T41" t="n">
-        <v>6.647529206473552</v>
+        <v>6.647529206473553</v>
       </c>
       <c r="U41" t="n">
         <v>0.1214853995472036</v>
@@ -34199,16 +34199,16 @@
         <v>0</v>
       </c>
       <c r="G42" t="n">
-        <v>0.8125052400141107</v>
+        <v>0.812505240014111</v>
       </c>
       <c r="H42" t="n">
-        <v>7.847090081188913</v>
+        <v>7.847090081188914</v>
       </c>
       <c r="I42" t="n">
         <v>27.97441286890689</v>
       </c>
       <c r="J42" t="n">
-        <v>76.76392708396475</v>
+        <v>76.76392708396476</v>
       </c>
       <c r="K42" t="n">
         <v>131.2017781649102</v>
@@ -34232,16 +34232,16 @@
         <v>103.7155811639065</v>
       </c>
       <c r="R42" t="n">
-        <v>50.44659727034981</v>
+        <v>50.44659727034982</v>
       </c>
       <c r="S42" t="n">
-        <v>15.09192847131472</v>
+        <v>15.09192847131473</v>
       </c>
       <c r="T42" t="n">
         <v>3.274966296372665</v>
       </c>
       <c r="U42" t="n">
-        <v>0.05345429210619152</v>
+        <v>0.05345429210619153</v>
       </c>
       <c r="V42" t="n">
         <v>0</v>
@@ -34278,19 +34278,19 @@
         <v>0</v>
       </c>
       <c r="G43" t="n">
-        <v>0.681177099407861</v>
+        <v>0.6811770994078611</v>
       </c>
       <c r="H43" t="n">
-        <v>6.056283665644441</v>
+        <v>6.056283665644442</v>
       </c>
       <c r="I43" t="n">
-        <v>20.48485313492004</v>
+        <v>20.48485313492005</v>
       </c>
       <c r="J43" t="n">
         <v>48.15922092813577</v>
       </c>
       <c r="K43" t="n">
-        <v>79.14039391302238</v>
+        <v>79.14039391302239</v>
       </c>
       <c r="L43" t="n">
         <v>101.2724571246924</v>
@@ -34302,13 +34302,13 @@
         <v>104.2386737666594</v>
       </c>
       <c r="O43" t="n">
-        <v>96.28128674175842</v>
+        <v>96.28128674175844</v>
       </c>
       <c r="P43" t="n">
-        <v>82.38527391383799</v>
+        <v>82.38527391383801</v>
       </c>
       <c r="Q43" t="n">
-        <v>57.03929329678007</v>
+        <v>57.03929329678008</v>
       </c>
       <c r="R43" t="n">
         <v>30.62819939701163</v>
@@ -34317,7 +34317,7 @@
         <v>11.87105908695336</v>
       </c>
       <c r="T43" t="n">
-        <v>2.910483970197223</v>
+        <v>2.910483970197224</v>
       </c>
       <c r="U43" t="n">
         <v>0.0371551145131561</v>
@@ -34357,13 +34357,13 @@
         <v>0</v>
       </c>
       <c r="G44" t="n">
-        <v>1.518567494340045</v>
+        <v>1.518567494340046</v>
       </c>
       <c r="H44" t="n">
-        <v>15.55202935140999</v>
+        <v>15.55202935141</v>
       </c>
       <c r="I44" t="n">
-        <v>58.54457332554465</v>
+        <v>58.54457332554467</v>
       </c>
       <c r="J44" t="n">
         <v>128.8865178727436</v>
@@ -34381,22 +34381,22 @@
         <v>270.9617944338304</v>
       </c>
       <c r="O44" t="n">
-        <v>255.8615389119865</v>
+        <v>255.8615389119866</v>
       </c>
       <c r="P44" t="n">
-        <v>218.3719038954666</v>
+        <v>218.3719038954667</v>
       </c>
       <c r="Q44" t="n">
-        <v>163.9882055044137</v>
+        <v>163.9882055044138</v>
       </c>
       <c r="R44" t="n">
-        <v>95.39071536633796</v>
+        <v>95.39071536633797</v>
       </c>
       <c r="S44" t="n">
         <v>34.60435677727382</v>
       </c>
       <c r="T44" t="n">
-        <v>6.647529206473552</v>
+        <v>6.647529206473553</v>
       </c>
       <c r="U44" t="n">
         <v>0.1214853995472036</v>
@@ -34436,16 +34436,16 @@
         <v>0</v>
       </c>
       <c r="G45" t="n">
-        <v>0.8125052400141107</v>
+        <v>0.812505240014111</v>
       </c>
       <c r="H45" t="n">
-        <v>7.847090081188913</v>
+        <v>7.847090081188914</v>
       </c>
       <c r="I45" t="n">
         <v>27.97441286890689</v>
       </c>
       <c r="J45" t="n">
-        <v>76.76392708396475</v>
+        <v>76.76392708396476</v>
       </c>
       <c r="K45" t="n">
         <v>131.2017781649102</v>
@@ -34469,16 +34469,16 @@
         <v>103.7155811639065</v>
       </c>
       <c r="R45" t="n">
-        <v>50.44659727034981</v>
+        <v>50.44659727034982</v>
       </c>
       <c r="S45" t="n">
-        <v>15.09192847131472</v>
+        <v>15.09192847131473</v>
       </c>
       <c r="T45" t="n">
         <v>3.274966296372665</v>
       </c>
       <c r="U45" t="n">
-        <v>0.05345429210619152</v>
+        <v>0.05345429210619153</v>
       </c>
       <c r="V45" t="n">
         <v>0</v>
@@ -34515,19 +34515,19 @@
         <v>0</v>
       </c>
       <c r="G46" t="n">
-        <v>0.681177099407861</v>
+        <v>0.6811770994078611</v>
       </c>
       <c r="H46" t="n">
-        <v>6.056283665644441</v>
+        <v>6.056283665644442</v>
       </c>
       <c r="I46" t="n">
-        <v>20.48485313492004</v>
+        <v>20.48485313492005</v>
       </c>
       <c r="J46" t="n">
         <v>48.15922092813577</v>
       </c>
       <c r="K46" t="n">
-        <v>79.14039391302238</v>
+        <v>79.14039391302239</v>
       </c>
       <c r="L46" t="n">
         <v>101.2724571246924</v>
@@ -34539,13 +34539,13 @@
         <v>104.2386737666594</v>
       </c>
       <c r="O46" t="n">
-        <v>96.28128674175842</v>
+        <v>96.28128674175844</v>
       </c>
       <c r="P46" t="n">
-        <v>82.38527391383799</v>
+        <v>82.38527391383801</v>
       </c>
       <c r="Q46" t="n">
-        <v>57.03929329678007</v>
+        <v>57.03929329678008</v>
       </c>
       <c r="R46" t="n">
         <v>30.62819939701163</v>
@@ -34554,7 +34554,7 @@
         <v>11.87105908695336</v>
       </c>
       <c r="T46" t="n">
-        <v>2.910483970197223</v>
+        <v>2.910483970197224</v>
       </c>
       <c r="U46" t="n">
         <v>0.0371551145131561</v>
@@ -34696,19 +34696,19 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>116.937228518131</v>
+        <v>116.9372285181311</v>
       </c>
       <c r="K2" t="n">
-        <v>297.2230414343419</v>
+        <v>297.223041434342</v>
       </c>
       <c r="L2" t="n">
-        <v>421.5361394435301</v>
+        <v>421.5361394435302</v>
       </c>
       <c r="M2" t="n">
-        <v>485.8144648060965</v>
+        <v>485.8144648060966</v>
       </c>
       <c r="N2" t="n">
-        <v>478.8956552492236</v>
+        <v>478.8956552492237</v>
       </c>
       <c r="O2" t="n">
         <v>406.5635087530452</v>
@@ -34775,7 +34775,7 @@
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>76.0173357577069</v>
+        <v>0</v>
       </c>
       <c r="K3" t="n">
         <v>257.8255762031298</v>
@@ -34787,16 +34787,16 @@
         <v>529.4413268262938</v>
       </c>
       <c r="N3" t="n">
-        <v>559.3197334338902</v>
+        <v>559.3197334338903</v>
       </c>
       <c r="O3" t="n">
         <v>444.5817404245898</v>
       </c>
       <c r="P3" t="n">
-        <v>339.6412258735646</v>
+        <v>339.6412258735647</v>
       </c>
       <c r="Q3" t="n">
-        <v>54.37527471535621</v>
+        <v>130.3926104730626</v>
       </c>
       <c r="R3" t="n">
         <v>0</v>
@@ -34948,10 +34948,10 @@
         <v>478.8956552492236</v>
       </c>
       <c r="O5" t="n">
-        <v>406.5635087530451</v>
+        <v>406.5635087530452</v>
       </c>
       <c r="P5" t="n">
-        <v>308.9376163116797</v>
+        <v>308.9376163116798</v>
       </c>
       <c r="Q5" t="n">
         <v>153.9975062898689</v>
@@ -35012,10 +35012,10 @@
         <v>0</v>
       </c>
       <c r="J6" t="n">
-        <v>76.01733575770689</v>
+        <v>0</v>
       </c>
       <c r="K6" t="n">
-        <v>138.3897561047526</v>
+        <v>214.4070918624591</v>
       </c>
       <c r="L6" t="n">
         <v>408.7029475713857</v>
@@ -35027,7 +35027,7 @@
         <v>559.3197334338902</v>
       </c>
       <c r="O6" t="n">
-        <v>444.5817404245897</v>
+        <v>444.5817404245898</v>
       </c>
       <c r="P6" t="n">
         <v>339.6412258735646</v>
@@ -35094,7 +35094,7 @@
         <v>0</v>
       </c>
       <c r="K7" t="n">
-        <v>56.87090208713953</v>
+        <v>56.87090208713954</v>
       </c>
       <c r="L7" t="n">
         <v>128.8624823850085</v>
@@ -35109,7 +35109,7 @@
         <v>120.8664146557981</v>
       </c>
       <c r="P7" t="n">
-        <v>79.66383317873148</v>
+        <v>79.66383317873149</v>
       </c>
       <c r="Q7" t="n">
         <v>0</v>
@@ -35185,10 +35185,10 @@
         <v>478.8956552492236</v>
       </c>
       <c r="O8" t="n">
-        <v>406.5635087530452</v>
+        <v>406.5635087530451</v>
       </c>
       <c r="P8" t="n">
-        <v>308.9376163116798</v>
+        <v>308.9376163116797</v>
       </c>
       <c r="Q8" t="n">
         <v>153.9975062898689</v>
@@ -35249,7 +35249,7 @@
         <v>0</v>
       </c>
       <c r="J9" t="n">
-        <v>76.0173357577069</v>
+        <v>76.01733575770689</v>
       </c>
       <c r="K9" t="n">
         <v>257.8255762031298</v>
@@ -35258,19 +35258,19 @@
         <v>408.7029475713857</v>
       </c>
       <c r="M9" t="n">
-        <v>529.4413268262938</v>
+        <v>513.7210878918231</v>
       </c>
       <c r="N9" t="n">
         <v>559.3197334338902</v>
       </c>
       <c r="O9" t="n">
-        <v>444.5817404245898</v>
+        <v>444.5817404245897</v>
       </c>
       <c r="P9" t="n">
         <v>339.6412258735646</v>
       </c>
       <c r="Q9" t="n">
-        <v>54.37527471535621</v>
+        <v>70.09551364982758</v>
       </c>
       <c r="R9" t="n">
         <v>0</v>
@@ -35331,7 +35331,7 @@
         <v>0</v>
       </c>
       <c r="K10" t="n">
-        <v>56.87090208713954</v>
+        <v>56.87090208713953</v>
       </c>
       <c r="L10" t="n">
         <v>128.8624823850085</v>
@@ -35346,7 +35346,7 @@
         <v>120.8664146557981</v>
       </c>
       <c r="P10" t="n">
-        <v>79.66383317873149</v>
+        <v>79.66383317873148</v>
       </c>
       <c r="Q10" t="n">
         <v>0</v>
@@ -35407,25 +35407,25 @@
         <v>0</v>
       </c>
       <c r="J11" t="n">
-        <v>116.9372285181311</v>
+        <v>116.937228518131</v>
       </c>
       <c r="K11" t="n">
-        <v>297.223041434342</v>
+        <v>297.2230414343419</v>
       </c>
       <c r="L11" t="n">
-        <v>421.5361394435302</v>
+        <v>421.5361394435301</v>
       </c>
       <c r="M11" t="n">
-        <v>485.8144648060966</v>
+        <v>485.8144648060965</v>
       </c>
       <c r="N11" t="n">
-        <v>478.8956552492237</v>
+        <v>478.8956552492236</v>
       </c>
       <c r="O11" t="n">
-        <v>406.5635087530452</v>
+        <v>406.5635087530451</v>
       </c>
       <c r="P11" t="n">
-        <v>308.9376163116798</v>
+        <v>308.9376163116797</v>
       </c>
       <c r="Q11" t="n">
         <v>153.9975062898689</v>
@@ -35486,10 +35486,10 @@
         <v>0</v>
       </c>
       <c r="J12" t="n">
-        <v>76.01733575770692</v>
+        <v>0</v>
       </c>
       <c r="K12" t="n">
-        <v>138.389756104752</v>
+        <v>257.8255762031298</v>
       </c>
       <c r="L12" t="n">
         <v>408.7029475713857</v>
@@ -35498,16 +35498,16 @@
         <v>529.4413268262938</v>
       </c>
       <c r="N12" t="n">
-        <v>559.3197334338903</v>
+        <v>559.3197334338902</v>
       </c>
       <c r="O12" t="n">
-        <v>444.5817404245898</v>
+        <v>444.5817404245897</v>
       </c>
       <c r="P12" t="n">
-        <v>339.6412258735647</v>
+        <v>339.6412258735646</v>
       </c>
       <c r="Q12" t="n">
-        <v>173.8110948137341</v>
+        <v>130.3926104730635</v>
       </c>
       <c r="R12" t="n">
         <v>0</v>
@@ -35568,7 +35568,7 @@
         <v>0</v>
       </c>
       <c r="K13" t="n">
-        <v>56.87090208713954</v>
+        <v>56.87090208713953</v>
       </c>
       <c r="L13" t="n">
         <v>128.8624823850085</v>
@@ -35583,7 +35583,7 @@
         <v>120.8664146557981</v>
       </c>
       <c r="P13" t="n">
-        <v>79.66383317873149</v>
+        <v>79.66383317873148</v>
       </c>
       <c r="Q13" t="n">
         <v>0</v>
@@ -35723,7 +35723,7 @@
         <v>0</v>
       </c>
       <c r="J15" t="n">
-        <v>0</v>
+        <v>76.01733575770689</v>
       </c>
       <c r="K15" t="n">
         <v>257.8255762031298</v>
@@ -35732,7 +35732,7 @@
         <v>408.7029475713857</v>
       </c>
       <c r="M15" t="n">
-        <v>486.0228424856235</v>
+        <v>529.4413268262938</v>
       </c>
       <c r="N15" t="n">
         <v>559.3197334338902</v>
@@ -35744,7 +35744,7 @@
         <v>339.6412258735646</v>
       </c>
       <c r="Q15" t="n">
-        <v>173.8110948137341</v>
+        <v>54.37527471535667</v>
       </c>
       <c r="R15" t="n">
         <v>0</v>
@@ -35960,16 +35960,16 @@
         <v>0</v>
       </c>
       <c r="J18" t="n">
-        <v>76.01733575770689</v>
+        <v>76.01733575770687</v>
       </c>
       <c r="K18" t="n">
-        <v>257.8255762031298</v>
+        <v>257.8255762031297</v>
       </c>
       <c r="L18" t="n">
-        <v>408.7029475713857</v>
+        <v>289.2671274730088</v>
       </c>
       <c r="M18" t="n">
-        <v>529.4413268262938</v>
+        <v>529.4413268262937</v>
       </c>
       <c r="N18" t="n">
         <v>559.3197334338902</v>
@@ -35981,7 +35981,7 @@
         <v>339.6412258735646</v>
       </c>
       <c r="Q18" t="n">
-        <v>54.37527471535667</v>
+        <v>173.8110948137341</v>
       </c>
       <c r="R18" t="n">
         <v>0</v>
@@ -36042,13 +36042,13 @@
         <v>0</v>
       </c>
       <c r="K19" t="n">
-        <v>56.87090208713953</v>
+        <v>56.87090208713951</v>
       </c>
       <c r="L19" t="n">
         <v>128.8624823850085</v>
       </c>
       <c r="M19" t="n">
-        <v>146.3614835535656</v>
+        <v>146.3614835535655</v>
       </c>
       <c r="N19" t="n">
         <v>148.370846145888</v>
@@ -36057,7 +36057,7 @@
         <v>120.8664146557981</v>
       </c>
       <c r="P19" t="n">
-        <v>79.66383317873148</v>
+        <v>79.66383317873147</v>
       </c>
       <c r="Q19" t="n">
         <v>0</v>
@@ -36118,7 +36118,7 @@
         <v>0</v>
       </c>
       <c r="J20" t="n">
-        <v>116.9372285181308</v>
+        <v>116.937228518131</v>
       </c>
       <c r="K20" t="n">
         <v>297.2230414343419</v>
@@ -36133,10 +36133,10 @@
         <v>478.8956552492236</v>
       </c>
       <c r="O20" t="n">
-        <v>406.5635087530451</v>
+        <v>406.5635087530452</v>
       </c>
       <c r="P20" t="n">
-        <v>308.9376163116797</v>
+        <v>308.9376163116798</v>
       </c>
       <c r="Q20" t="n">
         <v>153.9975062898689</v>
@@ -36197,7 +36197,7 @@
         <v>0</v>
       </c>
       <c r="J21" t="n">
-        <v>0</v>
+        <v>76.0173357577069</v>
       </c>
       <c r="K21" t="n">
         <v>257.8255762031298</v>
@@ -36209,13 +36209,13 @@
         <v>529.4413268262938</v>
       </c>
       <c r="N21" t="n">
-        <v>515.9012490932197</v>
+        <v>559.3197334338902</v>
       </c>
       <c r="O21" t="n">
-        <v>444.5817404245897</v>
+        <v>444.5817404245898</v>
       </c>
       <c r="P21" t="n">
-        <v>339.6412258735646</v>
+        <v>220.2054057751875</v>
       </c>
       <c r="Q21" t="n">
         <v>173.8110948137341</v>
@@ -36279,7 +36279,7 @@
         <v>0</v>
       </c>
       <c r="K22" t="n">
-        <v>56.87090208713953</v>
+        <v>56.87090208713954</v>
       </c>
       <c r="L22" t="n">
         <v>128.8624823850085</v>
@@ -36294,7 +36294,7 @@
         <v>120.8664146557981</v>
       </c>
       <c r="P22" t="n">
-        <v>79.66383317873148</v>
+        <v>79.66383317873149</v>
       </c>
       <c r="Q22" t="n">
         <v>0</v>
@@ -36370,10 +36370,10 @@
         <v>478.8956552492236</v>
       </c>
       <c r="O23" t="n">
-        <v>406.5635087530451</v>
+        <v>406.5635087530452</v>
       </c>
       <c r="P23" t="n">
-        <v>308.9376163116797</v>
+        <v>308.9376163116798</v>
       </c>
       <c r="Q23" t="n">
         <v>153.9975062898689</v>
@@ -36434,7 +36434,7 @@
         <v>0</v>
       </c>
       <c r="J24" t="n">
-        <v>76.01733575770689</v>
+        <v>76.0173357577069</v>
       </c>
       <c r="K24" t="n">
         <v>257.8255762031298</v>
@@ -36446,16 +36446,16 @@
         <v>529.4413268262938</v>
       </c>
       <c r="N24" t="n">
-        <v>439.8839133355128</v>
+        <v>559.3197334338902</v>
       </c>
       <c r="O24" t="n">
-        <v>444.5817404245897</v>
+        <v>428.8615014901189</v>
       </c>
       <c r="P24" t="n">
         <v>339.6412258735646</v>
       </c>
       <c r="Q24" t="n">
-        <v>173.8110948137341</v>
+        <v>70.09551364982758</v>
       </c>
       <c r="R24" t="n">
         <v>0</v>
@@ -36516,7 +36516,7 @@
         <v>0</v>
       </c>
       <c r="K25" t="n">
-        <v>56.87090208713953</v>
+        <v>56.87090208713954</v>
       </c>
       <c r="L25" t="n">
         <v>128.8624823850085</v>
@@ -36531,7 +36531,7 @@
         <v>120.8664146557981</v>
       </c>
       <c r="P25" t="n">
-        <v>79.66383317873148</v>
+        <v>79.66383317873149</v>
       </c>
       <c r="Q25" t="n">
         <v>0</v>
@@ -36607,10 +36607,10 @@
         <v>478.8956552492236</v>
       </c>
       <c r="O26" t="n">
-        <v>406.5635087530451</v>
+        <v>406.5635087530452</v>
       </c>
       <c r="P26" t="n">
-        <v>308.9376163116797</v>
+        <v>308.9376163116798</v>
       </c>
       <c r="Q26" t="n">
         <v>153.9975062898689</v>
@@ -36671,7 +36671,7 @@
         <v>0</v>
       </c>
       <c r="J27" t="n">
-        <v>0</v>
+        <v>76.0173357577069</v>
       </c>
       <c r="K27" t="n">
         <v>257.8255762031298</v>
@@ -36686,13 +36686,13 @@
         <v>559.3197334338902</v>
       </c>
       <c r="O27" t="n">
-        <v>444.5817404245897</v>
+        <v>444.5817404245898</v>
       </c>
       <c r="P27" t="n">
         <v>339.6412258735646</v>
       </c>
       <c r="Q27" t="n">
-        <v>130.3926104730635</v>
+        <v>54.37527471535621</v>
       </c>
       <c r="R27" t="n">
         <v>0</v>
@@ -36753,7 +36753,7 @@
         <v>0</v>
       </c>
       <c r="K28" t="n">
-        <v>56.87090208713953</v>
+        <v>56.87090208713954</v>
       </c>
       <c r="L28" t="n">
         <v>128.8624823850085</v>
@@ -36768,7 +36768,7 @@
         <v>120.8664146557981</v>
       </c>
       <c r="P28" t="n">
-        <v>79.66383317873148</v>
+        <v>79.66383317873149</v>
       </c>
       <c r="Q28" t="n">
         <v>0</v>
@@ -36844,10 +36844,10 @@
         <v>478.8956552492236</v>
       </c>
       <c r="O29" t="n">
-        <v>406.5635087530451</v>
+        <v>406.5635087530452</v>
       </c>
       <c r="P29" t="n">
-        <v>308.9376163116797</v>
+        <v>308.9376163116798</v>
       </c>
       <c r="Q29" t="n">
         <v>153.9975062898689</v>
@@ -36908,7 +36908,7 @@
         <v>0</v>
       </c>
       <c r="J30" t="n">
-        <v>76.01733575770689</v>
+        <v>76.0173357577069</v>
       </c>
       <c r="K30" t="n">
         <v>257.8255762031298</v>
@@ -36920,16 +36920,16 @@
         <v>529.4413268262938</v>
       </c>
       <c r="N30" t="n">
-        <v>439.8839133355128</v>
+        <v>559.3197334338902</v>
       </c>
       <c r="O30" t="n">
-        <v>444.5817404245897</v>
+        <v>444.5817404245898</v>
       </c>
       <c r="P30" t="n">
         <v>339.6412258735646</v>
       </c>
       <c r="Q30" t="n">
-        <v>173.8110948137341</v>
+        <v>54.37527471535667</v>
       </c>
       <c r="R30" t="n">
         <v>0</v>
@@ -36990,7 +36990,7 @@
         <v>0</v>
       </c>
       <c r="K31" t="n">
-        <v>56.87090208713953</v>
+        <v>56.87090208713954</v>
       </c>
       <c r="L31" t="n">
         <v>128.8624823850085</v>
@@ -37005,7 +37005,7 @@
         <v>120.8664146557981</v>
       </c>
       <c r="P31" t="n">
-        <v>79.66383317873148</v>
+        <v>79.66383317873149</v>
       </c>
       <c r="Q31" t="n">
         <v>0</v>
@@ -37081,10 +37081,10 @@
         <v>478.8956552492236</v>
       </c>
       <c r="O32" t="n">
-        <v>406.5635087530451</v>
+        <v>406.5635087530452</v>
       </c>
       <c r="P32" t="n">
-        <v>308.9376163116797</v>
+        <v>308.9376163116798</v>
       </c>
       <c r="Q32" t="n">
         <v>153.9975062898689</v>
@@ -37145,7 +37145,7 @@
         <v>0</v>
       </c>
       <c r="J33" t="n">
-        <v>76.01733575770689</v>
+        <v>76.0173357577069</v>
       </c>
       <c r="K33" t="n">
         <v>257.8255762031298</v>
@@ -37160,7 +37160,7 @@
         <v>559.3197334338902</v>
       </c>
       <c r="O33" t="n">
-        <v>444.5817404245897</v>
+        <v>444.5817404245898</v>
       </c>
       <c r="P33" t="n">
         <v>339.6412258735646</v>
@@ -37227,7 +37227,7 @@
         <v>0</v>
       </c>
       <c r="K34" t="n">
-        <v>56.87090208713953</v>
+        <v>56.87090208713954</v>
       </c>
       <c r="L34" t="n">
         <v>128.8624823850085</v>
@@ -37242,7 +37242,7 @@
         <v>120.8664146557981</v>
       </c>
       <c r="P34" t="n">
-        <v>79.66383317873148</v>
+        <v>79.66383317873149</v>
       </c>
       <c r="Q34" t="n">
         <v>0</v>
@@ -37318,10 +37318,10 @@
         <v>478.8956552492236</v>
       </c>
       <c r="O35" t="n">
-        <v>406.5635087530451</v>
+        <v>406.5635087530452</v>
       </c>
       <c r="P35" t="n">
-        <v>308.9376163116797</v>
+        <v>308.9376163116798</v>
       </c>
       <c r="Q35" t="n">
         <v>153.9975062898689</v>
@@ -37382,7 +37382,7 @@
         <v>0</v>
       </c>
       <c r="J36" t="n">
-        <v>0</v>
+        <v>76.0173357577069</v>
       </c>
       <c r="K36" t="n">
         <v>257.8255762031298</v>
@@ -37391,19 +37391,19 @@
         <v>408.7029475713857</v>
       </c>
       <c r="M36" t="n">
-        <v>486.0228424856235</v>
+        <v>529.4413268262938</v>
       </c>
       <c r="N36" t="n">
         <v>559.3197334338902</v>
       </c>
       <c r="O36" t="n">
-        <v>444.5817404245897</v>
+        <v>444.5817404245898</v>
       </c>
       <c r="P36" t="n">
         <v>339.6412258735646</v>
       </c>
       <c r="Q36" t="n">
-        <v>173.8110948137341</v>
+        <v>54.37527471535667</v>
       </c>
       <c r="R36" t="n">
         <v>0</v>
@@ -37464,7 +37464,7 @@
         <v>0</v>
       </c>
       <c r="K37" t="n">
-        <v>56.87090208713953</v>
+        <v>56.87090208713954</v>
       </c>
       <c r="L37" t="n">
         <v>128.8624823850085</v>
@@ -37479,7 +37479,7 @@
         <v>120.8664146557981</v>
       </c>
       <c r="P37" t="n">
-        <v>79.66383317873148</v>
+        <v>79.66383317873149</v>
       </c>
       <c r="Q37" t="n">
         <v>0</v>
@@ -37543,7 +37543,7 @@
         <v>116.937228518131</v>
       </c>
       <c r="K38" t="n">
-        <v>297.2230414343417</v>
+        <v>297.2230414343419</v>
       </c>
       <c r="L38" t="n">
         <v>421.5361394435301</v>
@@ -37555,10 +37555,10 @@
         <v>478.8956552492236</v>
       </c>
       <c r="O38" t="n">
-        <v>406.5635087530451</v>
+        <v>406.5635087530452</v>
       </c>
       <c r="P38" t="n">
-        <v>308.9376163116797</v>
+        <v>308.9376163116798</v>
       </c>
       <c r="Q38" t="n">
         <v>153.9975062898689</v>
@@ -37619,7 +37619,7 @@
         <v>0</v>
       </c>
       <c r="J39" t="n">
-        <v>76.01733575770689</v>
+        <v>76.0173357577069</v>
       </c>
       <c r="K39" t="n">
         <v>257.8255762031298</v>
@@ -37631,16 +37631,16 @@
         <v>529.4413268262938</v>
       </c>
       <c r="N39" t="n">
-        <v>559.3197334338902</v>
+        <v>439.8839133355119</v>
       </c>
       <c r="O39" t="n">
-        <v>444.5817404245897</v>
+        <v>444.5817404245898</v>
       </c>
       <c r="P39" t="n">
         <v>339.6412258735646</v>
       </c>
       <c r="Q39" t="n">
-        <v>54.37527471535667</v>
+        <v>173.8110948137341</v>
       </c>
       <c r="R39" t="n">
         <v>0</v>
@@ -37701,7 +37701,7 @@
         <v>0</v>
       </c>
       <c r="K40" t="n">
-        <v>56.87090208713953</v>
+        <v>56.87090208713954</v>
       </c>
       <c r="L40" t="n">
         <v>128.8624823850085</v>
@@ -37716,7 +37716,7 @@
         <v>120.8664146557981</v>
       </c>
       <c r="P40" t="n">
-        <v>79.66383317873148</v>
+        <v>79.66383317873149</v>
       </c>
       <c r="Q40" t="n">
         <v>0</v>
@@ -37792,10 +37792,10 @@
         <v>478.8956552492236</v>
       </c>
       <c r="O41" t="n">
-        <v>406.5635087530451</v>
+        <v>406.5635087530452</v>
       </c>
       <c r="P41" t="n">
-        <v>308.9376163116797</v>
+        <v>308.9376163116798</v>
       </c>
       <c r="Q41" t="n">
         <v>153.9975062898689</v>
@@ -37856,7 +37856,7 @@
         <v>0</v>
       </c>
       <c r="J42" t="n">
-        <v>0</v>
+        <v>76.0173357577069</v>
       </c>
       <c r="K42" t="n">
         <v>257.8255762031298</v>
@@ -37871,13 +37871,13 @@
         <v>559.3197334338902</v>
       </c>
       <c r="O42" t="n">
-        <v>444.5817404245897</v>
+        <v>444.5817404245898</v>
       </c>
       <c r="P42" t="n">
         <v>339.6412258735646</v>
       </c>
       <c r="Q42" t="n">
-        <v>130.3926104730635</v>
+        <v>54.37527471535667</v>
       </c>
       <c r="R42" t="n">
         <v>0</v>
@@ -37938,7 +37938,7 @@
         <v>0</v>
       </c>
       <c r="K43" t="n">
-        <v>56.87090208713953</v>
+        <v>56.87090208713954</v>
       </c>
       <c r="L43" t="n">
         <v>128.8624823850085</v>
@@ -37953,7 +37953,7 @@
         <v>120.8664146557981</v>
       </c>
       <c r="P43" t="n">
-        <v>79.66383317873148</v>
+        <v>79.66383317873149</v>
       </c>
       <c r="Q43" t="n">
         <v>0</v>
@@ -38029,13 +38029,13 @@
         <v>478.8956552492236</v>
       </c>
       <c r="O44" t="n">
-        <v>406.5635087530451</v>
+        <v>406.5635087530452</v>
       </c>
       <c r="P44" t="n">
-        <v>308.9376163116797</v>
+        <v>308.9376163116798</v>
       </c>
       <c r="Q44" t="n">
-        <v>153.9975062898689</v>
+        <v>153.997506289869</v>
       </c>
       <c r="R44" t="n">
         <v>0</v>
@@ -38093,10 +38093,10 @@
         <v>0</v>
       </c>
       <c r="J45" t="n">
-        <v>76.01733575770689</v>
+        <v>76.0173357577069</v>
       </c>
       <c r="K45" t="n">
-        <v>138.3897561047522</v>
+        <v>257.8255762031298</v>
       </c>
       <c r="L45" t="n">
         <v>408.7029475713857</v>
@@ -38105,10 +38105,10 @@
         <v>529.4413268262938</v>
       </c>
       <c r="N45" t="n">
-        <v>559.3197334338902</v>
+        <v>439.8839133355128</v>
       </c>
       <c r="O45" t="n">
-        <v>444.5817404245897</v>
+        <v>444.5817404245898</v>
       </c>
       <c r="P45" t="n">
         <v>339.6412258735646</v>
@@ -38175,7 +38175,7 @@
         <v>0</v>
       </c>
       <c r="K46" t="n">
-        <v>56.87090208713953</v>
+        <v>56.87090208713954</v>
       </c>
       <c r="L46" t="n">
         <v>128.8624823850085</v>
@@ -38190,7 +38190,7 @@
         <v>120.8664146557981</v>
       </c>
       <c r="P46" t="n">
-        <v>79.66383317873148</v>
+        <v>79.66383317873149</v>
       </c>
       <c r="Q46" t="n">
         <v>0</v>
